--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD408C2-FDD0-B243-ABED-7232B1151C8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7F6D9-7533-9D42-92B7-57E076ED8CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -116,8 +116,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -235,14 +235,14 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -251,11 +251,7 @@
   <dxfs count="15">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -263,11 +259,10 @@
         <sz val="12"/>
         <color rgb="FF555555"/>
         <name val="等线"/>
-        <family val="4"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="0.000"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -287,7 +282,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="0.000"/>
+      <numFmt numFmtId="177" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -306,7 +321,26 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="177" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
       <font>
@@ -366,40 +400,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF555555"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF555555"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="179" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -563,16 +563,16 @@
       <calculatedColumnFormula>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{C122F2B9-2C27-CC49-95C8-A7AF9ECBEB4B}" name="日期" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C9D28CBA-D9EC-6743-A793-FFD0F93D5C41}" name="Wet-Dream" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{607D6D23-94C7-C441-9805-FA4B15B54167}" name="Porn-Video" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{91709BBD-F72B-4441-AAD6-A9419A8B7AA7}" name="Masturbation" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{C9D28CBA-D9EC-6743-A793-FFD0F93D5C41}" name="Wet-Dream" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{607D6D23-94C7-C441-9805-FA4B15B54167}" name="Porn-Video" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{91709BBD-F72B-4441-AAD6-A9419A8B7AA7}" name="Masturbation" dataDxfId="5">
       <calculatedColumnFormula>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="Sexual-Intercourse" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="得分" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{D7FBDF7B-DF28-1E47-9775-46452B32D094}" name="正连续天数" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="Sexual-Intercourse" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="得分" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{D7FBDF7B-DF28-1E47-9775-46452B32D094}" name="正连续天数" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{4BE38D8D-A385-6F46-83DC-7068208B0366}" name="负连续天数" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="备注" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -897,45 +897,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:17" ht="23" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="23" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:17" ht="18">
       <c r="A4" s="6" t="s">
@@ -1016,10 +1016,10 @@
       <c r="J5" s="9">
         <v>0.1</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>0</v>
       </c>
       <c r="M5" s="5"/>
@@ -1062,11 +1062,11 @@
       <c r="J6" s="9">
         <v>0.1</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K5+1)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L5+1, 0)</f>
         <v>0</v>
       </c>
@@ -1110,11 +1110,11 @@
       <c r="J7" s="9">
         <v>0.2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K6+1)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L6+1, 0)</f>
         <v>0</v>
       </c>
@@ -1160,11 +1160,11 @@
       <c r="J8" s="9">
         <v>0.2</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K7+1)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L7+1, 0)</f>
         <v>0</v>
       </c>
@@ -1208,11 +1208,11 @@
       <c r="J9" s="9">
         <v>0.2</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K8+1)</f>
         <v>5</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L8+1, 0)</f>
         <v>0</v>
       </c>
@@ -1256,11 +1256,11 @@
       <c r="J10" s="9">
         <v>0.3</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K9+1)</f>
         <v>6</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L9+1, 0)</f>
         <v>0</v>
       </c>
@@ -1306,11 +1306,11 @@
       <c r="J11" s="9">
         <v>0.5</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K10+1)</f>
         <v>7</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L10+1, 0)</f>
         <v>0</v>
       </c>
@@ -1356,11 +1356,11 @@
       <c r="J12" s="9">
         <v>0.5</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K11+1)</f>
         <v>8</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L11+1, 0)</f>
         <v>0</v>
       </c>
@@ -1404,11 +1404,11 @@
       <c r="J13" s="9">
         <v>0.6</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K12+1)</f>
         <v>9</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L12+1, 0)</f>
         <v>0</v>
       </c>
@@ -1454,11 +1454,11 @@
       <c r="J14" s="9">
         <v>0.6</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K13+1)</f>
         <v>10</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L13+1, 0)</f>
         <v>0</v>
       </c>
@@ -1502,11 +1502,11 @@
       <c r="J15" s="9">
         <v>0.6</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K14+1)</f>
         <v>11</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L14+1, 0)</f>
         <v>0</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>43895</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -1550,11 +1550,11 @@
       <c r="J16" s="9">
         <v>0.7</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K15+1)</f>
         <v>12</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L15+1, 0)</f>
         <v>0</v>
       </c>
@@ -1597,11 +1597,11 @@
       <c r="J17" s="9">
         <v>0.7</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K16+1)</f>
         <v>13</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L16+1, 0)</f>
         <v>0</v>
       </c>
@@ -1642,11 +1642,11 @@
       <c r="J18" s="9">
         <v>0.9</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K17+1)</f>
         <v>14</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L17+1, 0)</f>
         <v>0</v>
       </c>
@@ -1689,11 +1689,11 @@
       <c r="J19" s="9">
         <v>1</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K18+1)</f>
         <v>15</v>
       </c>
-      <c r="L19" s="11">
+      <c r="L19" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L18+1, 0)</f>
         <v>0</v>
       </c>
@@ -1736,11 +1736,11 @@
       <c r="J20" s="9">
         <v>1</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K19+1)</f>
         <v>16</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L19+1, 0)</f>
         <v>0</v>
       </c>
@@ -1781,11 +1781,11 @@
       <c r="J21" s="9">
         <v>1</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K20+1)</f>
         <v>17</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L21" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L20+1, 0)</f>
         <v>0</v>
       </c>
@@ -1824,11 +1824,11 @@
         <v>0</v>
       </c>
       <c r="J22" s="9"/>
-      <c r="K22" s="11">
+      <c r="K22" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K21+1)</f>
         <v>18</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L21+1, 0)</f>
         <v>0</v>
       </c>
@@ -1869,11 +1869,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="11">
+      <c r="K23" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K22+1)</f>
         <v>19</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L22+1, 0)</f>
         <v>0</v>
       </c>
@@ -1912,11 +1912,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="11">
+      <c r="K24" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K23+1)</f>
         <v>20</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L23+1, 0)</f>
         <v>0</v>
       </c>
@@ -1955,11 +1955,11 @@
         <v>0</v>
       </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="11">
+      <c r="K25" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K24+1)</f>
         <v>21</v>
       </c>
-      <c r="L25" s="11">
+      <c r="L25" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L24+1, 0)</f>
         <v>0</v>
       </c>
@@ -2000,11 +2000,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="11">
+      <c r="K26" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K25+1)</f>
         <v>22</v>
       </c>
-      <c r="L26" s="11">
+      <c r="L26" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L25+1, 0)</f>
         <v>0</v>
       </c>
@@ -2043,11 +2043,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="9"/>
-      <c r="K27" s="11">
+      <c r="K27" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K26+1)</f>
         <v>23</v>
       </c>
-      <c r="L27" s="11">
+      <c r="L27" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L26+1, 0)</f>
         <v>0</v>
       </c>
@@ -2086,11 +2086,11 @@
         <v>0</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="11">
+      <c r="K28" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K27+1)</f>
         <v>24</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L27+1, 0)</f>
         <v>0</v>
       </c>
@@ -2131,11 +2131,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="9"/>
-      <c r="K29" s="11">
+      <c r="K29" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K28+1)</f>
         <v>25</v>
       </c>
-      <c r="L29" s="11">
+      <c r="L29" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L28+1, 0)</f>
         <v>0</v>
       </c>
@@ -2174,11 +2174,11 @@
         <v>0</v>
       </c>
       <c r="J30" s="9"/>
-      <c r="K30" s="11">
+      <c r="K30" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K29+1)</f>
         <v>26</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L29+1, 0)</f>
         <v>0</v>
       </c>
@@ -2217,11 +2217,11 @@
         <v>0</v>
       </c>
       <c r="J31" s="9"/>
-      <c r="K31" s="11">
+      <c r="K31" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K30+1)</f>
         <v>27</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L30+1, 0)</f>
         <v>0</v>
       </c>
@@ -2262,11 +2262,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="9"/>
-      <c r="K32" s="11">
+      <c r="K32" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K31+1)</f>
         <v>28</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L31+1, 0)</f>
         <v>0</v>
       </c>
@@ -2307,11 +2307,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="9"/>
-      <c r="K33" s="11">
+      <c r="K33" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K32+1)</f>
         <v>29</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L33" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L32+1, 0)</f>
         <v>0</v>
       </c>
@@ -2350,11 +2350,11 @@
         <v>0</v>
       </c>
       <c r="J34" s="9"/>
-      <c r="K34" s="11">
+      <c r="K34" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K33+1)</f>
         <v>30</v>
       </c>
-      <c r="L34" s="11">
+      <c r="L34" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L33+1, 0)</f>
         <v>0</v>
       </c>
@@ -2395,11 +2395,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="9"/>
-      <c r="K35" s="11">
+      <c r="K35" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K34+1)</f>
         <v>31</v>
       </c>
-      <c r="L35" s="11">
+      <c r="L35" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L34+1, 0)</f>
         <v>0</v>
       </c>
@@ -2438,11 +2438,11 @@
         <v>0</v>
       </c>
       <c r="J36" s="9"/>
-      <c r="K36" s="11">
+      <c r="K36" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K35+1)</f>
         <v>32</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L35+1, 0)</f>
         <v>0</v>
       </c>
@@ -2481,11 +2481,11 @@
         <v>0</v>
       </c>
       <c r="J37" s="9"/>
-      <c r="K37" s="11">
+      <c r="K37" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K36+1)</f>
         <v>33</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L36+1, 0)</f>
         <v>0</v>
       </c>
@@ -2524,11 +2524,11 @@
         <v>0</v>
       </c>
       <c r="J38" s="9"/>
-      <c r="K38" s="11">
+      <c r="K38" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K37+1)</f>
         <v>34</v>
       </c>
-      <c r="L38" s="11">
+      <c r="L38" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L37+1, 0)</f>
         <v>0</v>
       </c>
@@ -2567,11 +2567,11 @@
         <v>0</v>
       </c>
       <c r="J39" s="9"/>
-      <c r="K39" s="11">
+      <c r="K39" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K38+1)</f>
         <v>35</v>
       </c>
-      <c r="L39" s="11">
+      <c r="L39" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L38+1, 0)</f>
         <v>0</v>
       </c>
@@ -2610,11 +2610,11 @@
         <v>0</v>
       </c>
       <c r="J40" s="9"/>
-      <c r="K40" s="11">
+      <c r="K40" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K39+1)</f>
         <v>36</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L39+1, 0)</f>
         <v>0</v>
       </c>
@@ -2653,11 +2653,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="9"/>
-      <c r="K41" s="11">
+      <c r="K41" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K40+1)</f>
         <v>37</v>
       </c>
-      <c r="L41" s="11">
+      <c r="L41" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L40+1, 0)</f>
         <v>0</v>
       </c>
@@ -2696,11 +2696,11 @@
         <v>0</v>
       </c>
       <c r="J42" s="9"/>
-      <c r="K42" s="11">
+      <c r="K42" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K41+1)</f>
         <v>38</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L41+1, 0)</f>
         <v>0</v>
       </c>
@@ -2739,11 +2739,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="9"/>
-      <c r="K43" s="11">
+      <c r="K43" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K42+1)</f>
         <v>39</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L42+1, 0)</f>
         <v>0</v>
       </c>
@@ -2782,11 +2782,11 @@
         <v>0</v>
       </c>
       <c r="J44" s="9"/>
-      <c r="K44" s="11">
+      <c r="K44" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K43+1)</f>
         <v>40</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L43+1, 0)</f>
         <v>0</v>
       </c>
@@ -2825,11 +2825,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="9"/>
-      <c r="K45" s="11">
+      <c r="K45" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K44+1)</f>
         <v>41</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L45" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L44+1, 0)</f>
         <v>0</v>
       </c>
@@ -2868,11 +2868,11 @@
         <v>0</v>
       </c>
       <c r="J46" s="9"/>
-      <c r="K46" s="11">
+      <c r="K46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K45+1)</f>
         <v>42</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L45+1, 0)</f>
         <v>0</v>
       </c>
@@ -2911,11 +2911,11 @@
         <v>0</v>
       </c>
       <c r="J47" s="9"/>
-      <c r="K47" s="11">
+      <c r="K47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K46+1)</f>
         <v>43</v>
       </c>
-      <c r="L47" s="11">
+      <c r="L47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L46+1, 0)</f>
         <v>0</v>
       </c>
@@ -2954,11 +2954,11 @@
         <v>0</v>
       </c>
       <c r="J48" s="9"/>
-      <c r="K48" s="11">
+      <c r="K48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K47+1)</f>
         <v>44</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L47+1, 0)</f>
         <v>0</v>
       </c>
@@ -2997,11 +2997,11 @@
         <v>0</v>
       </c>
       <c r="J49" s="9"/>
-      <c r="K49" s="11">
+      <c r="K49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K48+1)</f>
         <v>45</v>
       </c>
-      <c r="L49" s="11">
+      <c r="L49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L48+1, 0)</f>
         <v>0</v>
       </c>
@@ -3040,11 +3040,11 @@
         <v>0</v>
       </c>
       <c r="J50" s="9"/>
-      <c r="K50" s="11">
+      <c r="K50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K49+1)</f>
         <v>46</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L49+1, 0)</f>
         <v>0</v>
       </c>
@@ -3083,11 +3083,11 @@
         <v>0</v>
       </c>
       <c r="J51" s="9"/>
-      <c r="K51" s="11">
+      <c r="K51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K50+1)</f>
         <v>47</v>
       </c>
-      <c r="L51" s="11">
+      <c r="L51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L50+1, 0)</f>
         <v>0</v>
       </c>
@@ -3126,11 +3126,11 @@
         <v>0</v>
       </c>
       <c r="J52" s="9"/>
-      <c r="K52" s="11">
+      <c r="K52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K51+1)</f>
         <v>48</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L51+1, 0)</f>
         <v>0</v>
       </c>
@@ -3169,11 +3169,11 @@
         <v>0</v>
       </c>
       <c r="J53" s="9"/>
-      <c r="K53" s="11">
+      <c r="K53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K52+1)</f>
         <v>49</v>
       </c>
-      <c r="L53" s="11">
+      <c r="L53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L52+1, 0)</f>
         <v>0</v>
       </c>
@@ -3212,11 +3212,11 @@
         <v>0</v>
       </c>
       <c r="J54" s="9"/>
-      <c r="K54" s="11">
+      <c r="K54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K53+1)</f>
         <v>50</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L53+1, 0)</f>
         <v>0</v>
       </c>
@@ -3255,11 +3255,11 @@
         <v>0</v>
       </c>
       <c r="J55" s="9"/>
-      <c r="K55" s="11">
+      <c r="K55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K54+1)</f>
         <v>51</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L54+1, 0)</f>
         <v>0</v>
       </c>
@@ -3298,11 +3298,11 @@
         <v>0</v>
       </c>
       <c r="J56" s="9"/>
-      <c r="K56" s="11">
+      <c r="K56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K55+1)</f>
         <v>52</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L55+1, 0)</f>
         <v>0</v>
       </c>
@@ -3341,11 +3341,11 @@
         <v>0</v>
       </c>
       <c r="J57" s="9"/>
-      <c r="K57" s="11">
+      <c r="K57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K56+1)</f>
         <v>53</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L56+1, 0)</f>
         <v>0</v>
       </c>
@@ -3384,11 +3384,11 @@
         <v>0</v>
       </c>
       <c r="J58" s="9"/>
-      <c r="K58" s="11">
+      <c r="K58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K57+1)</f>
         <v>54</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L57+1, 0)</f>
         <v>0</v>
       </c>
@@ -3427,11 +3427,11 @@
         <v>0</v>
       </c>
       <c r="J59" s="9"/>
-      <c r="K59" s="11">
+      <c r="K59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K58+1)</f>
         <v>55</v>
       </c>
-      <c r="L59" s="11">
+      <c r="L59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L58+1, 0)</f>
         <v>0</v>
       </c>
@@ -3470,11 +3470,11 @@
         <v>0</v>
       </c>
       <c r="J60" s="9"/>
-      <c r="K60" s="11">
+      <c r="K60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K59+1)</f>
         <v>56</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L59+1, 0)</f>
         <v>0</v>
       </c>
@@ -3513,11 +3513,11 @@
         <v>0</v>
       </c>
       <c r="J61" s="9"/>
-      <c r="K61" s="11">
+      <c r="K61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K60+1)</f>
         <v>57</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L60+1, 0)</f>
         <v>0</v>
       </c>
@@ -3556,11 +3556,11 @@
         <v>0</v>
       </c>
       <c r="J62" s="9"/>
-      <c r="K62" s="11">
+      <c r="K62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K61+1)</f>
         <v>58</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L61+1, 0)</f>
         <v>0</v>
       </c>
@@ -3599,11 +3599,11 @@
         <v>0</v>
       </c>
       <c r="J63" s="9"/>
-      <c r="K63" s="11">
+      <c r="K63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K62+1)</f>
         <v>59</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L62+1, 0)</f>
         <v>0</v>
       </c>
@@ -3642,11 +3642,11 @@
         <v>0</v>
       </c>
       <c r="J64" s="9"/>
-      <c r="K64" s="11">
+      <c r="K64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K63+1)</f>
         <v>60</v>
       </c>
-      <c r="L64" s="11">
+      <c r="L64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L63+1, 0)</f>
         <v>0</v>
       </c>
@@ -3685,11 +3685,11 @@
         <v>0</v>
       </c>
       <c r="J65" s="9"/>
-      <c r="K65" s="11">
+      <c r="K65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K64+1)</f>
         <v>61</v>
       </c>
-      <c r="L65" s="11">
+      <c r="L65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L64+1, 0)</f>
         <v>0</v>
       </c>
@@ -3728,11 +3728,11 @@
         <v>0</v>
       </c>
       <c r="J66" s="9"/>
-      <c r="K66" s="11">
+      <c r="K66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K65+1)</f>
         <v>62</v>
       </c>
-      <c r="L66" s="11">
+      <c r="L66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L65+1, 0)</f>
         <v>0</v>
       </c>
@@ -3771,11 +3771,11 @@
         <v>0</v>
       </c>
       <c r="J67" s="9"/>
-      <c r="K67" s="11">
+      <c r="K67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K66+1)</f>
         <v>63</v>
       </c>
-      <c r="L67" s="11">
+      <c r="L67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L66+1, 0)</f>
         <v>0</v>
       </c>
@@ -3814,11 +3814,11 @@
         <v>0</v>
       </c>
       <c r="J68" s="9"/>
-      <c r="K68" s="11">
+      <c r="K68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K67+1)</f>
         <v>64</v>
       </c>
-      <c r="L68" s="11">
+      <c r="L68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L67+1, 0)</f>
         <v>0</v>
       </c>
@@ -3857,11 +3857,11 @@
         <v>0</v>
       </c>
       <c r="J69" s="9"/>
-      <c r="K69" s="11">
+      <c r="K69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K68+1)</f>
         <v>65</v>
       </c>
-      <c r="L69" s="11">
+      <c r="L69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L68+1, 0)</f>
         <v>0</v>
       </c>
@@ -3900,11 +3900,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="9"/>
-      <c r="K70" s="11">
+      <c r="K70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K69+1)</f>
         <v>66</v>
       </c>
-      <c r="L70" s="11">
+      <c r="L70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L69+1, 0)</f>
         <v>0</v>
       </c>
@@ -3943,11 +3943,11 @@
         <v>0</v>
       </c>
       <c r="J71" s="9"/>
-      <c r="K71" s="11">
+      <c r="K71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K70+1)</f>
         <v>67</v>
       </c>
-      <c r="L71" s="11">
+      <c r="L71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L70+1, 0)</f>
         <v>0</v>
       </c>
@@ -3986,11 +3986,11 @@
         <v>0</v>
       </c>
       <c r="J72" s="9"/>
-      <c r="K72" s="11">
+      <c r="K72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K71+1)</f>
         <v>68</v>
       </c>
-      <c r="L72" s="11">
+      <c r="L72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L71+1, 0)</f>
         <v>0</v>
       </c>
@@ -4029,11 +4029,11 @@
         <v>0</v>
       </c>
       <c r="J73" s="9"/>
-      <c r="K73" s="11">
+      <c r="K73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K72+1)</f>
         <v>69</v>
       </c>
-      <c r="L73" s="11">
+      <c r="L73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L72+1, 0)</f>
         <v>0</v>
       </c>
@@ -4072,11 +4072,11 @@
         <v>0</v>
       </c>
       <c r="J74" s="9"/>
-      <c r="K74" s="11">
+      <c r="K74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K73+1)</f>
         <v>70</v>
       </c>
-      <c r="L74" s="11">
+      <c r="L74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L73+1, 0)</f>
         <v>0</v>
       </c>
@@ -4115,11 +4115,11 @@
         <v>0</v>
       </c>
       <c r="J75" s="9"/>
-      <c r="K75" s="11">
+      <c r="K75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K74+1)</f>
         <v>71</v>
       </c>
-      <c r="L75" s="11">
+      <c r="L75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L74+1, 0)</f>
         <v>0</v>
       </c>
@@ -4158,11 +4158,11 @@
         <v>0</v>
       </c>
       <c r="J76" s="9"/>
-      <c r="K76" s="11">
+      <c r="K76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K75+1)</f>
         <v>72</v>
       </c>
-      <c r="L76" s="11">
+      <c r="L76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L75+1, 0)</f>
         <v>0</v>
       </c>
@@ -4201,11 +4201,11 @@
         <v>0</v>
       </c>
       <c r="J77" s="9"/>
-      <c r="K77" s="11">
+      <c r="K77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K76+1)</f>
         <v>73</v>
       </c>
-      <c r="L77" s="11">
+      <c r="L77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L76+1, 0)</f>
         <v>0</v>
       </c>
@@ -4244,11 +4244,11 @@
         <v>0</v>
       </c>
       <c r="J78" s="9"/>
-      <c r="K78" s="11">
+      <c r="K78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K77+1)</f>
         <v>74</v>
       </c>
-      <c r="L78" s="11">
+      <c r="L78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L77+1, 0)</f>
         <v>0</v>
       </c>
@@ -4287,11 +4287,11 @@
         <v>0</v>
       </c>
       <c r="J79" s="9"/>
-      <c r="K79" s="11">
+      <c r="K79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K78+1)</f>
         <v>75</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L78+1, 0)</f>
         <v>0</v>
       </c>
@@ -4330,11 +4330,11 @@
         <v>0</v>
       </c>
       <c r="J80" s="9"/>
-      <c r="K80" s="11">
+      <c r="K80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K79+1)</f>
         <v>76</v>
       </c>
-      <c r="L80" s="11">
+      <c r="L80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L79+1, 0)</f>
         <v>0</v>
       </c>
@@ -4373,11 +4373,11 @@
         <v>0</v>
       </c>
       <c r="J81" s="9"/>
-      <c r="K81" s="11">
+      <c r="K81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K80+1)</f>
         <v>77</v>
       </c>
-      <c r="L81" s="11">
+      <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L80+1, 0)</f>
         <v>0</v>
       </c>
@@ -4416,11 +4416,11 @@
         <v>0</v>
       </c>
       <c r="J82" s="9"/>
-      <c r="K82" s="11">
+      <c r="K82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K81+1)</f>
         <v>78</v>
       </c>
-      <c r="L82" s="11">
+      <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L81+1, 0)</f>
         <v>0</v>
       </c>
@@ -4459,11 +4459,11 @@
         <v>0</v>
       </c>
       <c r="J83" s="9"/>
-      <c r="K83" s="11">
+      <c r="K83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K82+1)</f>
         <v>79</v>
       </c>
-      <c r="L83" s="11">
+      <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L82+1, 0)</f>
         <v>0</v>
       </c>
@@ -4502,11 +4502,11 @@
         <v>0</v>
       </c>
       <c r="J84" s="9"/>
-      <c r="K84" s="11">
+      <c r="K84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K83+1)</f>
         <v>80</v>
       </c>
-      <c r="L84" s="11">
+      <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L83+1, 0)</f>
         <v>0</v>
       </c>
@@ -4545,11 +4545,11 @@
         <v>0</v>
       </c>
       <c r="J85" s="9"/>
-      <c r="K85" s="11">
+      <c r="K85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K84+1)</f>
         <v>81</v>
       </c>
-      <c r="L85" s="11">
+      <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L84+1, 0)</f>
         <v>0</v>
       </c>
@@ -4588,11 +4588,11 @@
         <v>0</v>
       </c>
       <c r="J86" s="9"/>
-      <c r="K86" s="11">
+      <c r="K86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K85+1)</f>
         <v>82</v>
       </c>
-      <c r="L86" s="11">
+      <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L85+1, 0)</f>
         <v>0</v>
       </c>
@@ -4631,11 +4631,11 @@
         <v>0</v>
       </c>
       <c r="J87" s="9"/>
-      <c r="K87" s="11">
+      <c r="K87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K86+1)</f>
         <v>83</v>
       </c>
-      <c r="L87" s="11">
+      <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L86+1, 0)</f>
         <v>0</v>
       </c>
@@ -4674,11 +4674,11 @@
         <v>0</v>
       </c>
       <c r="J88" s="9"/>
-      <c r="K88" s="11">
+      <c r="K88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K87+1)</f>
         <v>84</v>
       </c>
-      <c r="L88" s="11">
+      <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L87+1, 0)</f>
         <v>0</v>
       </c>
@@ -4717,11 +4717,11 @@
         <v>0</v>
       </c>
       <c r="J89" s="9"/>
-      <c r="K89" s="11">
+      <c r="K89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K88+1)</f>
         <v>85</v>
       </c>
-      <c r="L89" s="11">
+      <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L88+1, 0)</f>
         <v>0</v>
       </c>
@@ -4760,11 +4760,11 @@
         <v>0</v>
       </c>
       <c r="J90" s="9"/>
-      <c r="K90" s="11">
+      <c r="K90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K89+1)</f>
         <v>86</v>
       </c>
-      <c r="L90" s="11">
+      <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L89+1, 0)</f>
         <v>0</v>
       </c>
@@ -4803,11 +4803,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="9"/>
-      <c r="K91" s="11">
+      <c r="K91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K90+1)</f>
         <v>87</v>
       </c>
-      <c r="L91" s="11">
+      <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L90+1, 0)</f>
         <v>0</v>
       </c>
@@ -4846,11 +4846,11 @@
         <v>0</v>
       </c>
       <c r="J92" s="9"/>
-      <c r="K92" s="11">
+      <c r="K92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K91+1)</f>
         <v>88</v>
       </c>
-      <c r="L92" s="11">
+      <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L91+1, 0)</f>
         <v>0</v>
       </c>
@@ -4889,11 +4889,11 @@
         <v>0</v>
       </c>
       <c r="J93" s="9"/>
-      <c r="K93" s="11">
+      <c r="K93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K92+1)</f>
         <v>89</v>
       </c>
-      <c r="L93" s="11">
+      <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L92+1, 0)</f>
         <v>0</v>
       </c>
@@ -4932,11 +4932,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="9"/>
-      <c r="K94" s="11">
+      <c r="K94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K93+1)</f>
         <v>90</v>
       </c>
-      <c r="L94" s="11">
+      <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L93+1, 0)</f>
         <v>0</v>
       </c>
@@ -4975,11 +4975,11 @@
         <v>0</v>
       </c>
       <c r="J95" s="9"/>
-      <c r="K95" s="11">
+      <c r="K95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K94+1)</f>
         <v>91</v>
       </c>
-      <c r="L95" s="11">
+      <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L94+1, 0)</f>
         <v>0</v>
       </c>
@@ -5018,11 +5018,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="9"/>
-      <c r="K96" s="11">
+      <c r="K96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K95+1)</f>
         <v>92</v>
       </c>
-      <c r="L96" s="11">
+      <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L95+1, 0)</f>
         <v>0</v>
       </c>
@@ -5061,11 +5061,11 @@
         <v>0</v>
       </c>
       <c r="J97" s="9"/>
-      <c r="K97" s="11">
+      <c r="K97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K96+1)</f>
         <v>93</v>
       </c>
-      <c r="L97" s="11">
+      <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L96+1, 0)</f>
         <v>0</v>
       </c>
@@ -5104,11 +5104,11 @@
         <v>0</v>
       </c>
       <c r="J98" s="9"/>
-      <c r="K98" s="11">
+      <c r="K98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K97+1)</f>
         <v>94</v>
       </c>
-      <c r="L98" s="11">
+      <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L97+1, 0)</f>
         <v>0</v>
       </c>
@@ -5147,11 +5147,11 @@
         <v>0</v>
       </c>
       <c r="J99" s="9"/>
-      <c r="K99" s="11">
+      <c r="K99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K98+1)</f>
         <v>95</v>
       </c>
-      <c r="L99" s="11">
+      <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L98+1, 0)</f>
         <v>0</v>
       </c>
@@ -5190,11 +5190,11 @@
         <v>0</v>
       </c>
       <c r="J100" s="9"/>
-      <c r="K100" s="11">
+      <c r="K100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K99+1)</f>
         <v>96</v>
       </c>
-      <c r="L100" s="11">
+      <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L99+1, 0)</f>
         <v>0</v>
       </c>
@@ -5233,11 +5233,11 @@
         <v>0</v>
       </c>
       <c r="J101" s="9"/>
-      <c r="K101" s="11">
+      <c r="K101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K100+1)</f>
         <v>97</v>
       </c>
-      <c r="L101" s="11">
+      <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L100+1, 0)</f>
         <v>0</v>
       </c>
@@ -5276,11 +5276,11 @@
         <v>0</v>
       </c>
       <c r="J102" s="9"/>
-      <c r="K102" s="11">
+      <c r="K102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K101+1)</f>
         <v>98</v>
       </c>
-      <c r="L102" s="11">
+      <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L101+1, 0)</f>
         <v>0</v>
       </c>
@@ -5319,11 +5319,11 @@
         <v>0</v>
       </c>
       <c r="J103" s="9"/>
-      <c r="K103" s="11">
+      <c r="K103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K102+1)</f>
         <v>99</v>
       </c>
-      <c r="L103" s="11">
+      <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L102+1, 0)</f>
         <v>0</v>
       </c>
@@ -5362,11 +5362,11 @@
         <v>0</v>
       </c>
       <c r="J104" s="9"/>
-      <c r="K104" s="11">
+      <c r="K104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K103+1)</f>
         <v>100</v>
       </c>
-      <c r="L104" s="11">
+      <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L103+1, 0)</f>
         <v>0</v>
       </c>
@@ -5405,11 +5405,11 @@
         <v>0</v>
       </c>
       <c r="J105" s="9"/>
-      <c r="K105" s="11">
+      <c r="K105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K104+1)</f>
         <v>101</v>
       </c>
-      <c r="L105" s="11">
+      <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L104+1, 0)</f>
         <v>0</v>
       </c>
@@ -5448,11 +5448,11 @@
         <v>0</v>
       </c>
       <c r="J106" s="9"/>
-      <c r="K106" s="11">
+      <c r="K106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K105+1)</f>
         <v>102</v>
       </c>
-      <c r="L106" s="11">
+      <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L105+1, 0)</f>
         <v>0</v>
       </c>
@@ -5491,11 +5491,11 @@
         <v>0</v>
       </c>
       <c r="J107" s="9"/>
-      <c r="K107" s="11">
+      <c r="K107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K106+1)</f>
         <v>103</v>
       </c>
-      <c r="L107" s="11">
+      <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L106+1, 0)</f>
         <v>0</v>
       </c>
@@ -5534,11 +5534,11 @@
         <v>0</v>
       </c>
       <c r="J108" s="9"/>
-      <c r="K108" s="11">
+      <c r="K108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K107+1)</f>
         <v>104</v>
       </c>
-      <c r="L108" s="11">
+      <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L107+1, 0)</f>
         <v>0</v>
       </c>
@@ -5577,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="J109" s="9"/>
-      <c r="K109" s="11">
+      <c r="K109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K108+1)</f>
         <v>105</v>
       </c>
-      <c r="L109" s="11">
+      <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L108+1, 0)</f>
         <v>0</v>
       </c>
@@ -5620,11 +5620,11 @@
         <v>0</v>
       </c>
       <c r="J110" s="9"/>
-      <c r="K110" s="11">
+      <c r="K110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K109+1)</f>
         <v>106</v>
       </c>
-      <c r="L110" s="11">
+      <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L109+1, 0)</f>
         <v>0</v>
       </c>
@@ -5663,11 +5663,11 @@
         <v>0</v>
       </c>
       <c r="J111" s="9"/>
-      <c r="K111" s="11">
+      <c r="K111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K110+1)</f>
         <v>107</v>
       </c>
-      <c r="L111" s="11">
+      <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L110+1, 0)</f>
         <v>0</v>
       </c>
@@ -5706,11 +5706,11 @@
         <v>0</v>
       </c>
       <c r="J112" s="9"/>
-      <c r="K112" s="11">
+      <c r="K112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K111+1)</f>
         <v>108</v>
       </c>
-      <c r="L112" s="11">
+      <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L111+1, 0)</f>
         <v>0</v>
       </c>
@@ -5749,11 +5749,11 @@
         <v>0</v>
       </c>
       <c r="J113" s="9"/>
-      <c r="K113" s="11">
+      <c r="K113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K112+1)</f>
         <v>109</v>
       </c>
-      <c r="L113" s="11">
+      <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L112+1, 0)</f>
         <v>0</v>
       </c>
@@ -5792,11 +5792,11 @@
         <v>0</v>
       </c>
       <c r="J114" s="9"/>
-      <c r="K114" s="11">
+      <c r="K114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K113+1)</f>
         <v>110</v>
       </c>
-      <c r="L114" s="11">
+      <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L113+1, 0)</f>
         <v>0</v>
       </c>
@@ -5835,11 +5835,11 @@
         <v>0</v>
       </c>
       <c r="J115" s="9"/>
-      <c r="K115" s="11">
+      <c r="K115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K114+1)</f>
         <v>111</v>
       </c>
-      <c r="L115" s="11">
+      <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L114+1, 0)</f>
         <v>0</v>
       </c>
@@ -5878,11 +5878,11 @@
         <v>0</v>
       </c>
       <c r="J116" s="9"/>
-      <c r="K116" s="11">
+      <c r="K116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K115+1)</f>
         <v>112</v>
       </c>
-      <c r="L116" s="11">
+      <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L115+1, 0)</f>
         <v>0</v>
       </c>
@@ -5921,11 +5921,11 @@
         <v>0</v>
       </c>
       <c r="J117" s="9"/>
-      <c r="K117" s="11">
+      <c r="K117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K116+1)</f>
         <v>113</v>
       </c>
-      <c r="L117" s="11">
+      <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L116+1, 0)</f>
         <v>0</v>
       </c>
@@ -5964,11 +5964,11 @@
         <v>0</v>
       </c>
       <c r="J118" s="9"/>
-      <c r="K118" s="11">
+      <c r="K118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K117+1)</f>
         <v>114</v>
       </c>
-      <c r="L118" s="11">
+      <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L117+1, 0)</f>
         <v>0</v>
       </c>
@@ -6007,11 +6007,11 @@
         <v>0</v>
       </c>
       <c r="J119" s="9"/>
-      <c r="K119" s="11">
+      <c r="K119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K118+1)</f>
         <v>115</v>
       </c>
-      <c r="L119" s="11">
+      <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L118+1, 0)</f>
         <v>0</v>
       </c>
@@ -6050,11 +6050,11 @@
         <v>0</v>
       </c>
       <c r="J120" s="9"/>
-      <c r="K120" s="11">
+      <c r="K120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K119+1)</f>
         <v>116</v>
       </c>
-      <c r="L120" s="11">
+      <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L119+1, 0)</f>
         <v>0</v>
       </c>
@@ -6093,11 +6093,11 @@
         <v>0</v>
       </c>
       <c r="J121" s="9"/>
-      <c r="K121" s="11">
+      <c r="K121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K120+1)</f>
         <v>117</v>
       </c>
-      <c r="L121" s="11">
+      <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L120+1, 0)</f>
         <v>0</v>
       </c>
@@ -6136,11 +6136,11 @@
         <v>0</v>
       </c>
       <c r="J122" s="9"/>
-      <c r="K122" s="11">
+      <c r="K122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K121+1)</f>
         <v>118</v>
       </c>
-      <c r="L122" s="11">
+      <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L121+1, 0)</f>
         <v>0</v>
       </c>
@@ -6179,11 +6179,11 @@
         <v>0</v>
       </c>
       <c r="J123" s="9"/>
-      <c r="K123" s="11">
+      <c r="K123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K122+1)</f>
         <v>119</v>
       </c>
-      <c r="L123" s="11">
+      <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L122+1, 0)</f>
         <v>0</v>
       </c>
@@ -6222,11 +6222,11 @@
         <v>0</v>
       </c>
       <c r="J124" s="9"/>
-      <c r="K124" s="11">
+      <c r="K124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K123+1)</f>
         <v>120</v>
       </c>
-      <c r="L124" s="11">
+      <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L123+1, 0)</f>
         <v>0</v>
       </c>
@@ -6265,11 +6265,11 @@
         <v>0</v>
       </c>
       <c r="J125" s="9"/>
-      <c r="K125" s="11">
+      <c r="K125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K124+1)</f>
         <v>121</v>
       </c>
-      <c r="L125" s="11">
+      <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L124+1, 0)</f>
         <v>0</v>
       </c>
@@ -6308,11 +6308,11 @@
         <v>0</v>
       </c>
       <c r="J126" s="9"/>
-      <c r="K126" s="11">
+      <c r="K126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K125+1)</f>
         <v>122</v>
       </c>
-      <c r="L126" s="11">
+      <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L125+1, 0)</f>
         <v>0</v>
       </c>
@@ -6351,11 +6351,11 @@
         <v>0</v>
       </c>
       <c r="J127" s="9"/>
-      <c r="K127" s="11">
+      <c r="K127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K126+1)</f>
         <v>123</v>
       </c>
-      <c r="L127" s="11">
+      <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L126+1, 0)</f>
         <v>0</v>
       </c>
@@ -6394,11 +6394,11 @@
         <v>0</v>
       </c>
       <c r="J128" s="9"/>
-      <c r="K128" s="11">
+      <c r="K128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K127+1)</f>
         <v>124</v>
       </c>
-      <c r="L128" s="11">
+      <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L127+1, 0)</f>
         <v>0</v>
       </c>
@@ -6437,11 +6437,11 @@
         <v>0</v>
       </c>
       <c r="J129" s="9"/>
-      <c r="K129" s="11">
+      <c r="K129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K128+1)</f>
         <v>125</v>
       </c>
-      <c r="L129" s="11">
+      <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L128+1, 0)</f>
         <v>0</v>
       </c>
@@ -6480,11 +6480,11 @@
         <v>0</v>
       </c>
       <c r="J130" s="9"/>
-      <c r="K130" s="11">
+      <c r="K130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K129+1)</f>
         <v>126</v>
       </c>
-      <c r="L130" s="11">
+      <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L129+1, 0)</f>
         <v>0</v>
       </c>
@@ -6523,11 +6523,11 @@
         <v>0</v>
       </c>
       <c r="J131" s="9"/>
-      <c r="K131" s="11">
+      <c r="K131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K130+1)</f>
         <v>127</v>
       </c>
-      <c r="L131" s="11">
+      <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L130+1, 0)</f>
         <v>0</v>
       </c>
@@ -6566,11 +6566,11 @@
         <v>0</v>
       </c>
       <c r="J132" s="9"/>
-      <c r="K132" s="11">
+      <c r="K132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K131+1)</f>
         <v>128</v>
       </c>
-      <c r="L132" s="11">
+      <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L131+1, 0)</f>
         <v>0</v>
       </c>
@@ -6609,11 +6609,11 @@
         <v>0</v>
       </c>
       <c r="J133" s="9"/>
-      <c r="K133" s="11">
+      <c r="K133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K132+1)</f>
         <v>129</v>
       </c>
-      <c r="L133" s="11">
+      <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L132+1, 0)</f>
         <v>0</v>
       </c>
@@ -6652,11 +6652,11 @@
         <v>0</v>
       </c>
       <c r="J134" s="9"/>
-      <c r="K134" s="11">
+      <c r="K134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K133+1)</f>
         <v>130</v>
       </c>
-      <c r="L134" s="11">
+      <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L133+1, 0)</f>
         <v>0</v>
       </c>
@@ -6695,11 +6695,11 @@
         <v>0</v>
       </c>
       <c r="J135" s="9"/>
-      <c r="K135" s="11">
+      <c r="K135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K134+1)</f>
         <v>131</v>
       </c>
-      <c r="L135" s="11">
+      <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L134+1, 0)</f>
         <v>0</v>
       </c>
@@ -6738,11 +6738,11 @@
         <v>0</v>
       </c>
       <c r="J136" s="9"/>
-      <c r="K136" s="11">
+      <c r="K136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K135+1)</f>
         <v>132</v>
       </c>
-      <c r="L136" s="11">
+      <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L135+1, 0)</f>
         <v>0</v>
       </c>
@@ -6781,11 +6781,11 @@
         <v>0</v>
       </c>
       <c r="J137" s="9"/>
-      <c r="K137" s="11">
+      <c r="K137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K136+1)</f>
         <v>133</v>
       </c>
-      <c r="L137" s="11">
+      <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L136+1, 0)</f>
         <v>0</v>
       </c>
@@ -6824,11 +6824,11 @@
         <v>0</v>
       </c>
       <c r="J138" s="9"/>
-      <c r="K138" s="11">
+      <c r="K138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K137+1)</f>
         <v>134</v>
       </c>
-      <c r="L138" s="11">
+      <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L137+1, 0)</f>
         <v>0</v>
       </c>
@@ -6867,11 +6867,11 @@
         <v>0</v>
       </c>
       <c r="J139" s="9"/>
-      <c r="K139" s="11">
+      <c r="K139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K138+1)</f>
         <v>135</v>
       </c>
-      <c r="L139" s="11">
+      <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L138+1, 0)</f>
         <v>0</v>
       </c>
@@ -6910,11 +6910,11 @@
         <v>0</v>
       </c>
       <c r="J140" s="9"/>
-      <c r="K140" s="11">
+      <c r="K140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K139+1)</f>
         <v>136</v>
       </c>
-      <c r="L140" s="11">
+      <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L139+1, 0)</f>
         <v>0</v>
       </c>
@@ -6953,11 +6953,11 @@
         <v>0</v>
       </c>
       <c r="J141" s="9"/>
-      <c r="K141" s="11">
+      <c r="K141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K140+1)</f>
         <v>137</v>
       </c>
-      <c r="L141" s="11">
+      <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L140+1, 0)</f>
         <v>0</v>
       </c>
@@ -6996,11 +6996,11 @@
         <v>0</v>
       </c>
       <c r="J142" s="9"/>
-      <c r="K142" s="11">
+      <c r="K142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K141+1)</f>
         <v>138</v>
       </c>
-      <c r="L142" s="11">
+      <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L141+1, 0)</f>
         <v>0</v>
       </c>
@@ -7039,11 +7039,11 @@
         <v>0</v>
       </c>
       <c r="J143" s="9"/>
-      <c r="K143" s="11">
+      <c r="K143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K142+1)</f>
         <v>139</v>
       </c>
-      <c r="L143" s="11">
+      <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L142+1, 0)</f>
         <v>0</v>
       </c>
@@ -7082,11 +7082,11 @@
         <v>0</v>
       </c>
       <c r="J144" s="9"/>
-      <c r="K144" s="11">
+      <c r="K144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K143+1)</f>
         <v>140</v>
       </c>
-      <c r="L144" s="11">
+      <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L143+1, 0)</f>
         <v>0</v>
       </c>
@@ -7125,11 +7125,11 @@
         <v>0</v>
       </c>
       <c r="J145" s="9"/>
-      <c r="K145" s="11">
+      <c r="K145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K144+1)</f>
         <v>141</v>
       </c>
-      <c r="L145" s="11">
+      <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L144+1, 0)</f>
         <v>0</v>
       </c>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB7F6D9-7533-9D42-92B7-57E076ED8CB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2A3AE5-443E-4A41-BCA6-B73596DF5047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -107,7 +103,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已连续 1 个月，增加 0.5</t>
+    <t>Tertiary-Video</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已连续 30 天，增加 0.5；已连续 3 天，增加 0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,9 +115,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -207,7 +208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,11 +245,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -542,37 +569,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:M145" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A4:M145" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:M145">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N145" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A4:N145" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N145">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
-    <sortCondition ref="G5:G58"/>
+    <sortCondition ref="H5:H58"/>
   </sortState>
-  <tableColumns count="13">
-    <tableColumn id="13" xr3:uid="{99F8998D-9D71-A14B-A52B-70A0AD1936C5}" name="年份" dataDxfId="12">
+  <tableColumns count="14">
+    <tableColumn id="13" xr3:uid="{99F8998D-9D71-A14B-A52B-70A0AD1936C5}" name="年份" dataDxfId="13">
       <calculatedColumnFormula>YEAR(records[[#This Row],[日期]])&amp;" 年"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{79048981-95B8-AE44-8023-F15E8B409D1D}" name="季度" dataDxfId="11">
+    <tableColumn id="12" xr3:uid="{79048981-95B8-AE44-8023-F15E8B409D1D}" name="季度" dataDxfId="12">
       <calculatedColumnFormula>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0991F159-92D8-3E4D-AC22-907FD5B3E742}" name="月份" dataDxfId="10">
+    <tableColumn id="11" xr3:uid="{0991F159-92D8-3E4D-AC22-907FD5B3E742}" name="月份" dataDxfId="11">
       <calculatedColumnFormula>MONTH(records[[#This Row],[日期]])&amp;" 月"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D75138FC-9BDD-634B-A857-E796C90F6C02}" name="周次" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{D75138FC-9BDD-634B-A857-E796C90F6C02}" name="周次" dataDxfId="10">
       <calculatedColumnFormula>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{C122F2B9-2C27-CC49-95C8-A7AF9ECBEB4B}" name="日期" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C9D28CBA-D9EC-6743-A793-FFD0F93D5C41}" name="Wet-Dream" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{607D6D23-94C7-C441-9805-FA4B15B54167}" name="Porn-Video" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{91709BBD-F72B-4441-AAD6-A9419A8B7AA7}" name="Masturbation" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{C122F2B9-2C27-CC49-95C8-A7AF9ECBEB4B}" name="日期" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{C9D28CBA-D9EC-6743-A793-FFD0F93D5C41}" name="Wet-Dream" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{13E1B823-0D27-F045-93F2-4D4A89413338}" name="Tertiary-Video" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{607D6D23-94C7-C441-9805-FA4B15B54167}" name="Porn-Video" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{91709BBD-F72B-4441-AAD6-A9419A8B7AA7}" name="Masturbation" dataDxfId="6">
       <calculatedColumnFormula>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="Sexual-Intercourse" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="得分" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{D7FBDF7B-DF28-1E47-9775-46452B32D094}" name="正连续天数" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{4BE38D8D-A385-6F46-83DC-7068208B0366}" name="负连续天数" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="备注" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="Sexual-Intercourse" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="得分" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{D7FBDF7B-DF28-1E47-9775-46452B32D094}" name="正连续天数" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{4BE38D8D-A385-6F46-83DC-7068208B0366}" name="负连续天数" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="备注" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -875,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -888,17 +916,19 @@
     <col min="3" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="47.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>3</v>
+    <row r="1" spans="1:18" ht="16" customHeight="1">
+      <c r="A1" s="11" t="str">
+        <f>"总分: "&amp;SUM(records[得分])</f>
+        <v>总分: 127.367</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -910,8 +940,11 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:17" ht="23" customHeight="1">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:18" ht="23" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -923,8 +956,11 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:17" ht="23" customHeight="1">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:18" ht="23" customHeight="1">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -936,52 +972,58 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:17" ht="18">
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:18" ht="18">
       <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1013,21 +1055,24 @@
       <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
         <v>0.1</v>
       </c>
-      <c r="K5" s="10">
+      <c r="L5" s="10">
         <v>1</v>
       </c>
-      <c r="L5" s="10">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="O5" s="3"/>
+      <c r="M5" s="10">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1059,23 +1104,26 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
         <v>0.1</v>
       </c>
-      <c r="K6" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K5+1)</f>
+      <c r="L6" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L5+1)</f>
         <v>2</v>
       </c>
-      <c r="L6" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L5+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="O6" s="3"/>
+      <c r="M6" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M5+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="5"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1107,25 +1155,28 @@
       <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9">
         <v>0.2</v>
       </c>
-      <c r="K7" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K6+1)</f>
+      <c r="L7" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L6+1)</f>
         <v>3</v>
       </c>
-      <c r="L7" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L6+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="3"/>
+      <c r="M7" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M6+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1157,23 +1208,26 @@
       <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
         <v>0.2</v>
       </c>
-      <c r="K8" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K7+1)</f>
+      <c r="L8" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L7+1)</f>
         <v>4</v>
       </c>
-      <c r="L8" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L7+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="O8" s="3"/>
+      <c r="M8" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M7+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1205,23 +1259,26 @@
       <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
         <v>0.2</v>
       </c>
-      <c r="K9" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K8+1)</f>
+      <c r="L9" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L8+1)</f>
         <v>5</v>
       </c>
-      <c r="L9" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L8+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="5"/>
-      <c r="O9" s="3"/>
+      <c r="M9" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M8+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="5"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1253,25 +1310,28 @@
       <c r="I10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
         <v>0.3</v>
       </c>
-      <c r="K10" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K9+1)</f>
+      <c r="L10" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L9+1)</f>
         <v>6</v>
       </c>
-      <c r="L10" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L9+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="3"/>
+      <c r="M10" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M9+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1303,25 +1363,28 @@
       <c r="I11" s="5">
         <v>0</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
         <v>0.5</v>
       </c>
-      <c r="K11" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K10+1)</f>
+      <c r="L11" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L10+1)</f>
         <v>7</v>
       </c>
-      <c r="L11" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L10+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="M11" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M10+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1353,23 +1416,26 @@
       <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
         <v>0.5</v>
       </c>
-      <c r="K12" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K11+1)</f>
+      <c r="L12" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L11+1)</f>
         <v>8</v>
       </c>
-      <c r="L12" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L11+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="M12" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M11+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1401,25 +1467,28 @@
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
         <v>0.6</v>
       </c>
-      <c r="K13" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K12+1)</f>
+      <c r="L13" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L12+1)</f>
         <v>9</v>
       </c>
-      <c r="L13" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L12+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="3"/>
+      <c r="M13" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M12+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1451,23 +1520,26 @@
       <c r="I14" s="5">
         <v>0</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <v>0.6</v>
       </c>
-      <c r="K14" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K13+1)</f>
+      <c r="L14" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L13+1)</f>
         <v>10</v>
       </c>
-      <c r="L14" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L13+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="M14" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M13+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1499,23 +1571,26 @@
       <c r="I15" s="5">
         <v>0</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
         <v>0.6</v>
       </c>
-      <c r="K15" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K14+1)</f>
+      <c r="L15" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L14+1)</f>
         <v>11</v>
       </c>
-      <c r="L15" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L14+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="5"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="M15" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M14+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="5"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1547,22 +1622,25 @@
       <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
         <v>0.7</v>
       </c>
-      <c r="K16" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K15+1)</f>
+      <c r="L16" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L15+1)</f>
         <v>12</v>
       </c>
-      <c r="L16" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L15+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="M16" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M15+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1594,20 +1672,23 @@
       <c r="I17" s="5">
         <v>0</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
         <v>0.7</v>
       </c>
-      <c r="K17" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K16+1)</f>
+      <c r="L17" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L16+1)</f>
         <v>13</v>
       </c>
-      <c r="L17" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L16+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="5"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M16+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1639,22 +1720,25 @@
       <c r="I18" s="5">
         <v>0</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
         <v>0.9</v>
       </c>
-      <c r="K18" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K17+1)</f>
+      <c r="L18" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L17+1)</f>
         <v>14</v>
       </c>
-      <c r="L18" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L17+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M17+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1686,22 +1770,25 @@
       <c r="I19" s="5">
         <v>0</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
         <v>1</v>
       </c>
-      <c r="K19" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K18+1)</f>
+      <c r="L19" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L18+1)</f>
         <v>15</v>
       </c>
-      <c r="L19" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L18+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M18+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1733,20 +1820,23 @@
       <c r="I20" s="5">
         <v>0</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
         <v>1</v>
       </c>
-      <c r="K20" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K19+1)</f>
+      <c r="L20" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L19+1)</f>
         <v>16</v>
       </c>
-      <c r="L20" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L19+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="M20" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M19+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1767,10 +1857,10 @@
         <v>43900</v>
       </c>
       <c r="F21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
         <v>0</v>
@@ -1778,20 +1868,23 @@
       <c r="I21" s="5">
         <v>0</v>
       </c>
-      <c r="J21" s="9">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K20+1)</f>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="L21" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L20+1)</f>
         <v>17</v>
       </c>
-      <c r="L21" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L20+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="5"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="M21" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M20+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1823,20 +1916,25 @@
       <c r="I22" s="5">
         <v>0</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K21+1)</f>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L22" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L21+1)</f>
         <v>18</v>
       </c>
-      <c r="L22" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L21+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M21+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1868,18 +1966,23 @@
       <c r="I23" s="5">
         <v>0</v>
       </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K22+1)</f>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L23" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L22+1)</f>
         <v>19</v>
       </c>
-      <c r="L23" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L22+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="M23" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M22+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1911,18 +2014,23 @@
       <c r="I24" s="5">
         <v>0</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K23+1)</f>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L24" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L23+1)</f>
         <v>20</v>
       </c>
-      <c r="L24" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L23+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="M24" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M23+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1954,20 +2062,25 @@
       <c r="I25" s="5">
         <v>0</v>
       </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K24+1)</f>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="L25" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L24+1)</f>
         <v>21</v>
       </c>
-      <c r="L25" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L24+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="M25" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M24+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -1999,18 +2112,23 @@
       <c r="I26" s="5">
         <v>0</v>
       </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K25+1)</f>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="L26" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L25+1)</f>
         <v>22</v>
       </c>
-      <c r="L26" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L25+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="M26" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M25+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2042,18 +2160,23 @@
       <c r="I27" s="5">
         <v>0</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K26+1)</f>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="L27" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L26+1)</f>
         <v>23</v>
       </c>
-      <c r="L27" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L26+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="M27" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M26+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2085,20 +2208,25 @@
       <c r="I28" s="5">
         <v>0</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K27+1)</f>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L28" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L27+1)</f>
         <v>24</v>
       </c>
-      <c r="L28" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L27+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="M28" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M27+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2130,18 +2258,23 @@
       <c r="I29" s="5">
         <v>0</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K28+1)</f>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L29" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L28+1)</f>
         <v>25</v>
       </c>
-      <c r="L29" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L28+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="M29" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M28+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2173,18 +2306,23 @@
       <c r="I30" s="5">
         <v>0</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K29+1)</f>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="L30" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L29+1)</f>
         <v>26</v>
       </c>
-      <c r="L30" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L29+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="M30" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M29+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2216,20 +2354,25 @@
       <c r="I31" s="5">
         <v>0</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K30+1)</f>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="L31" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L30+1)</f>
         <v>27</v>
       </c>
-      <c r="L31" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L30+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="M31" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M30+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2261,20 +2404,25 @@
       <c r="I32" s="5">
         <v>0</v>
       </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K31+1)</f>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="L32" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L31+1)</f>
         <v>28</v>
       </c>
-      <c r="L32" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L31+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="M32" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M31+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2306,18 +2454,23 @@
       <c r="I33" s="5">
         <v>0</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K32+1)</f>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="L33" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L32+1)</f>
         <v>29</v>
       </c>
-      <c r="L33" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L32+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="M33" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M32+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2349,20 +2502,25 @@
       <c r="I34" s="5">
         <v>0</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K33+1)</f>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="L34" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L33+1)</f>
         <v>30</v>
       </c>
-      <c r="L34" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L33+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M33+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2394,18 +2552,23 @@
       <c r="I35" s="5">
         <v>0</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K34+1)</f>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="L35" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L34+1)</f>
         <v>31</v>
       </c>
-      <c r="L35" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L34+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="M35" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M34+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2437,18 +2600,23 @@
       <c r="I36" s="5">
         <v>0</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K35+1)</f>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>2.4</v>
+      </c>
+      <c r="L36" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L35+1)</f>
         <v>32</v>
       </c>
-      <c r="L36" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L35+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="M36" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M35+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2480,18 +2648,25 @@
       <c r="I37" s="5">
         <v>0</v>
       </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K36+1)</f>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L37" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L36+1)</f>
         <v>33</v>
       </c>
-      <c r="L37" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L36+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="M37" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M36+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2523,18 +2698,23 @@
       <c r="I38" s="5">
         <v>0</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K37+1)</f>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="L38" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L37+1)</f>
         <v>34</v>
       </c>
-      <c r="L38" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L37+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="M38" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M37+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="5"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2566,18 +2746,25 @@
       <c r="I39" s="5">
         <v>0</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K38+1)</f>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="L39" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L38+1)</f>
         <v>35</v>
       </c>
-      <c r="L39" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L38+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="M39" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M38+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2609,18 +2796,25 @@
       <c r="I40" s="5">
         <v>0</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K39+1)</f>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="L40" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L39+1)</f>
         <v>36</v>
       </c>
-      <c r="L40" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L39+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="M40" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M39+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2652,18 +2846,23 @@
       <c r="I41" s="5">
         <v>0</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K40+1)</f>
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="L41" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L40+1)</f>
         <v>37</v>
       </c>
-      <c r="L41" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L40+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="M41" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M40+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="5"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2695,18 +2894,23 @@
       <c r="I42" s="5">
         <v>0</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K41+1)</f>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <v>2.8</v>
+      </c>
+      <c r="L42" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L41+1)</f>
         <v>38</v>
       </c>
-      <c r="L42" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L41+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="M42" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M41+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="5"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2738,18 +2942,25 @@
       <c r="I43" s="5">
         <v>0</v>
       </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K42+1)</f>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="L43" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L42+1)</f>
         <v>39</v>
       </c>
-      <c r="L43" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L42+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="M43" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M42+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2781,18 +2992,23 @@
       <c r="I44" s="5">
         <v>0</v>
       </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K43+1)</f>
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="L44" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L43+1)</f>
         <v>40</v>
       </c>
-      <c r="L44" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L43+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="M44" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M43+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="5"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2824,18 +3040,23 @@
       <c r="I45" s="5">
         <v>0</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K44+1)</f>
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="K45" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="L45" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L44+1)</f>
         <v>41</v>
       </c>
-      <c r="L45" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L44+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="M45" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M44+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="5"/>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2867,18 +3088,25 @@
       <c r="I46" s="5">
         <v>0</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K45+1)</f>
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="L46" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L45+1)</f>
         <v>42</v>
       </c>
-      <c r="L46" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L45+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="M46" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M45+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2910,18 +3138,23 @@
       <c r="I47" s="5">
         <v>0</v>
       </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K46+1)</f>
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="L47" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L46+1)</f>
         <v>43</v>
       </c>
-      <c r="L47" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L46+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="5"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="M47" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M46+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="5"/>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2953,18 +3186,23 @@
       <c r="I48" s="5">
         <v>0</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K47+1)</f>
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="L48" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L47+1)</f>
         <v>44</v>
       </c>
-      <c r="L48" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L47+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="M48" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M47+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -2996,18 +3234,25 @@
       <c r="I49" s="5">
         <v>0</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K48+1)</f>
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="L49" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L48+1)</f>
         <v>45</v>
       </c>
-      <c r="L49" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L48+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="M49" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M48+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3039,18 +3284,23 @@
       <c r="I50" s="5">
         <v>0</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K49+1)</f>
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="L50" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L49+1)</f>
         <v>46</v>
       </c>
-      <c r="L50" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L49+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="M50" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M49+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="5"/>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3082,18 +3332,23 @@
       <c r="I51" s="5">
         <v>0</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K50+1)</f>
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="L51" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L50+1)</f>
         <v>47</v>
       </c>
-      <c r="L51" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L50+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="5"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="M51" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M50+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="5"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3125,18 +3380,25 @@
       <c r="I52" s="5">
         <v>0</v>
       </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K51+1)</f>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="L52" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L51+1)</f>
         <v>48</v>
       </c>
-      <c r="L52" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L51+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="M52" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M51+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3168,18 +3430,25 @@
       <c r="I53" s="5">
         <v>0</v>
       </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K52+1)</f>
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="L53" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L52+1)</f>
         <v>49</v>
       </c>
-      <c r="L53" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L52+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="M53" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M52+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3211,18 +3480,23 @@
       <c r="I54" s="5">
         <v>0</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K53+1)</f>
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="L54" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L53+1)</f>
         <v>50</v>
       </c>
-      <c r="L54" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L53+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="M54" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M53+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="5"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3254,18 +3528,25 @@
       <c r="I55" s="5">
         <v>0</v>
       </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K54+1)</f>
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="L55" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L54+1)</f>
         <v>51</v>
       </c>
-      <c r="L55" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L54+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="M55" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M54+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3297,18 +3578,23 @@
       <c r="I56" s="5">
         <v>0</v>
       </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K55+1)</f>
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="L56" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L55+1)</f>
         <v>52</v>
       </c>
-      <c r="L56" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L55+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="5"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="M56" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M55+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="5"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3340,18 +3626,23 @@
       <c r="I57" s="5">
         <v>0</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K56+1)</f>
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+      <c r="K57" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="L57" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L56+1)</f>
         <v>53</v>
       </c>
-      <c r="L57" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L56+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M57" s="5"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="M57" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M56+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="5"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3383,18 +3674,25 @@
       <c r="I58" s="5">
         <v>0</v>
       </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K57+1)</f>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="L58" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L57+1)</f>
         <v>54</v>
       </c>
-      <c r="L58" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L57+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M58" s="5"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="M58" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M57+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3426,18 +3724,23 @@
       <c r="I59" s="5">
         <v>0</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K58+1)</f>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+      <c r="K59" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="L59" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L58+1)</f>
         <v>55</v>
       </c>
-      <c r="L59" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L58+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="5"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="M59" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M58+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="5"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3469,18 +3772,25 @@
       <c r="I60" s="5">
         <v>0</v>
       </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K59+1)</f>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+      <c r="K60" s="9">
+        <v>4</v>
+      </c>
+      <c r="L60" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L59+1)</f>
         <v>56</v>
       </c>
-      <c r="L60" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L59+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="5"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="M60" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M59+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3512,18 +3822,25 @@
       <c r="I61" s="5">
         <v>0</v>
       </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K60+1)</f>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L61" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L60+1)</f>
         <v>57</v>
       </c>
-      <c r="L61" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L60+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="5"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="M61" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M60+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3555,18 +3872,23 @@
       <c r="I62" s="5">
         <v>0</v>
       </c>
-      <c r="J62" s="9"/>
-      <c r="K62" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K61+1)</f>
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+      <c r="K62" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L62" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L61+1)</f>
         <v>58</v>
       </c>
-      <c r="L62" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L61+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="5"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="M62" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M61+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="5"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3598,18 +3920,23 @@
       <c r="I63" s="5">
         <v>0</v>
       </c>
-      <c r="J63" s="9"/>
-      <c r="K63" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K62+1)</f>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+      <c r="K63" s="9">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L63" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L62+1)</f>
         <v>59</v>
       </c>
-      <c r="L63" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L62+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M63" s="5"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="M63" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M62+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="5"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3641,18 +3968,25 @@
       <c r="I64" s="5">
         <v>0</v>
       </c>
-      <c r="J64" s="9"/>
-      <c r="K64" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K63+1)</f>
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+      <c r="K64" s="9">
+        <v>4.2</v>
+      </c>
+      <c r="L64" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L63+1)</f>
         <v>60</v>
       </c>
-      <c r="L64" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L63+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M64" s="5"/>
-    </row>
-    <row r="65" spans="1:13" ht="18">
+      <c r="M64" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M63+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="18">
       <c r="A65" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3684,18 +4018,21 @@
       <c r="I65" s="5">
         <v>0</v>
       </c>
-      <c r="J65" s="9"/>
-      <c r="K65" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K64+1)</f>
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L64+1)</f>
         <v>61</v>
       </c>
-      <c r="L65" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L64+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M65" s="7"/>
-    </row>
-    <row r="66" spans="1:13" ht="18">
+      <c r="M65" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M64+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="7"/>
+    </row>
+    <row r="66" spans="1:14" ht="18">
       <c r="A66" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3727,18 +4064,21 @@
       <c r="I66" s="5">
         <v>0</v>
       </c>
-      <c r="J66" s="9"/>
-      <c r="K66" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K65+1)</f>
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L65+1)</f>
         <v>62</v>
       </c>
-      <c r="L66" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L65+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M66" s="7"/>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="M66" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M65+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="7"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3770,18 +4110,23 @@
       <c r="I67" s="5">
         <v>0</v>
       </c>
-      <c r="J67" s="9"/>
-      <c r="K67" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K66+1)</f>
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L66+1)</f>
         <v>63</v>
       </c>
-      <c r="L67" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L66+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M67" s="5"/>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="M67" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M66+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3813,18 +4158,21 @@
       <c r="I68" s="5">
         <v>0</v>
       </c>
-      <c r="J68" s="9"/>
-      <c r="K68" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K67+1)</f>
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L67+1)</f>
         <v>64</v>
       </c>
-      <c r="L68" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L67+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="M68" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M67+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="8"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3856,18 +4204,21 @@
       <c r="I69" s="5">
         <v>0</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K68+1)</f>
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+      <c r="K69" s="9"/>
+      <c r="L69" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L68+1)</f>
         <v>65</v>
       </c>
-      <c r="L69" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L68+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="5"/>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="M69" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M68+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="5"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3899,18 +4250,23 @@
       <c r="I70" s="5">
         <v>0</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K69+1)</f>
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+      <c r="K70" s="9"/>
+      <c r="L70" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L69+1)</f>
         <v>66</v>
       </c>
-      <c r="L70" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L69+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M70" s="5"/>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="M70" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M69+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3942,18 +4298,21 @@
       <c r="I71" s="5">
         <v>0</v>
       </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K70+1)</f>
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+      <c r="K71" s="9"/>
+      <c r="L71" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L70+1)</f>
         <v>67</v>
       </c>
-      <c r="L71" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L70+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="5"/>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="M71" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M70+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -3985,18 +4344,21 @@
       <c r="I72" s="5">
         <v>0</v>
       </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K71+1)</f>
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+      <c r="K72" s="9"/>
+      <c r="L72" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L71+1)</f>
         <v>68</v>
       </c>
-      <c r="L72" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L71+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="5"/>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="M72" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M71+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4028,18 +4390,23 @@
       <c r="I73" s="5">
         <v>0</v>
       </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K72+1)</f>
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+      <c r="K73" s="9"/>
+      <c r="L73" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L72+1)</f>
         <v>69</v>
       </c>
-      <c r="L73" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L72+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M73" s="5"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="M73" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M72+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4071,18 +4438,23 @@
       <c r="I74" s="5">
         <v>0</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K73+1)</f>
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L73+1)</f>
         <v>70</v>
       </c>
-      <c r="L74" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L73+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="5"/>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="M74" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M73+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4114,18 +4486,21 @@
       <c r="I75" s="5">
         <v>0</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K74+1)</f>
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+      <c r="K75" s="9"/>
+      <c r="L75" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L74+1)</f>
         <v>71</v>
       </c>
-      <c r="L75" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L74+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M75" s="5"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="M75" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M74+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4157,18 +4532,23 @@
       <c r="I76" s="5">
         <v>0</v>
       </c>
-      <c r="J76" s="9"/>
-      <c r="K76" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K75+1)</f>
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L75+1)</f>
         <v>72</v>
       </c>
-      <c r="L76" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L75+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M76" s="5"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="M76" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M75+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4200,18 +4580,21 @@
       <c r="I77" s="5">
         <v>0</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K76+1)</f>
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L76+1)</f>
         <v>73</v>
       </c>
-      <c r="L77" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L76+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M77" s="5"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="M77" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M76+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="5"/>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4243,18 +4626,21 @@
       <c r="I78" s="5">
         <v>0</v>
       </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K77+1)</f>
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+      <c r="K78" s="9"/>
+      <c r="L78" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L77+1)</f>
         <v>74</v>
       </c>
-      <c r="L78" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L77+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M78" s="5"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="M78" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M77+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="5"/>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4286,18 +4672,23 @@
       <c r="I79" s="5">
         <v>0</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K78+1)</f>
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+      <c r="K79" s="9"/>
+      <c r="L79" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L78+1)</f>
         <v>75</v>
       </c>
-      <c r="L79" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L78+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M79" s="5"/>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="M79" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M78+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4329,18 +4720,21 @@
       <c r="I80" s="5">
         <v>0</v>
       </c>
-      <c r="J80" s="9"/>
-      <c r="K80" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K79+1)</f>
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+      <c r="K80" s="9"/>
+      <c r="L80" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L79+1)</f>
         <v>76</v>
       </c>
-      <c r="L80" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L79+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M80" s="5"/>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="M80" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M79+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="5"/>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4372,18 +4766,23 @@
       <c r="I81" s="5">
         <v>0</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K80+1)</f>
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+      <c r="K81" s="9"/>
+      <c r="L81" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
         <v>77</v>
       </c>
-      <c r="L81" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L80+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M81" s="5"/>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="M81" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4415,18 +4814,23 @@
       <c r="I82" s="5">
         <v>0</v>
       </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K81+1)</f>
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+      <c r="K82" s="9"/>
+      <c r="L82" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
         <v>78</v>
       </c>
-      <c r="L82" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L81+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M82" s="8"/>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="M82" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4458,18 +4862,21 @@
       <c r="I83" s="5">
         <v>0</v>
       </c>
-      <c r="J83" s="9"/>
-      <c r="K83" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K82+1)</f>
+      <c r="J83" s="5">
+        <v>0</v>
+      </c>
+      <c r="K83" s="9"/>
+      <c r="L83" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
         <v>79</v>
       </c>
-      <c r="L83" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L82+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M83" s="5"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="M83" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="5"/>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4501,18 +4908,21 @@
       <c r="I84" s="5">
         <v>0</v>
       </c>
-      <c r="J84" s="9"/>
-      <c r="K84" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K83+1)</f>
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
         <v>80</v>
       </c>
-      <c r="L84" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L83+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M84" s="5"/>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="M84" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="5"/>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4544,18 +4954,23 @@
       <c r="I85" s="5">
         <v>0</v>
       </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K84+1)</f>
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
         <v>81</v>
       </c>
-      <c r="L85" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L84+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M85" s="5"/>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="M85" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4587,18 +5002,21 @@
       <c r="I86" s="5">
         <v>0</v>
       </c>
-      <c r="J86" s="9"/>
-      <c r="K86" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K85+1)</f>
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+      <c r="K86" s="9"/>
+      <c r="L86" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
         <v>82</v>
       </c>
-      <c r="L86" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L85+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M86" s="5"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="M86" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="5"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4630,18 +5048,21 @@
       <c r="I87" s="5">
         <v>0</v>
       </c>
-      <c r="J87" s="9"/>
-      <c r="K87" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K86+1)</f>
+      <c r="J87" s="5">
+        <v>0</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
         <v>83</v>
       </c>
-      <c r="L87" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L86+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="5"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="M87" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="5"/>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4673,18 +5094,23 @@
       <c r="I88" s="5">
         <v>0</v>
       </c>
-      <c r="J88" s="9"/>
-      <c r="K88" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K87+1)</f>
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
         <v>84</v>
       </c>
-      <c r="L88" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L87+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M88" s="5"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="M88" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4716,18 +5142,21 @@
       <c r="I89" s="5">
         <v>0</v>
       </c>
-      <c r="J89" s="9"/>
-      <c r="K89" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K88+1)</f>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
         <v>85</v>
       </c>
-      <c r="L89" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L88+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M89" s="5"/>
-    </row>
-    <row r="90" spans="1:13" ht="18">
+      <c r="M89" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="5"/>
+    </row>
+    <row r="90" spans="1:14" ht="18">
       <c r="A90" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4759,18 +5188,21 @@
       <c r="I90" s="5">
         <v>0</v>
       </c>
-      <c r="J90" s="9"/>
-      <c r="K90" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K89+1)</f>
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
         <v>86</v>
       </c>
-      <c r="L90" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L89+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M90" s="7"/>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="M90" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="7"/>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4802,18 +5234,23 @@
       <c r="I91" s="5">
         <v>0</v>
       </c>
-      <c r="J91" s="9"/>
-      <c r="K91" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K90+1)</f>
+      <c r="J91" s="5">
+        <v>0</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
         <v>87</v>
       </c>
-      <c r="L91" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L90+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M91" s="5"/>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="M91" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4845,18 +5282,21 @@
       <c r="I92" s="5">
         <v>0</v>
       </c>
-      <c r="J92" s="9"/>
-      <c r="K92" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K91+1)</f>
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
         <v>88</v>
       </c>
-      <c r="L92" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L91+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M92" s="5"/>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="M92" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="5"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4888,18 +5328,21 @@
       <c r="I93" s="5">
         <v>0</v>
       </c>
-      <c r="J93" s="9"/>
-      <c r="K93" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K92+1)</f>
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
         <v>89</v>
       </c>
-      <c r="L93" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L92+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M93" s="5"/>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="M93" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="5"/>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4931,18 +5374,23 @@
       <c r="I94" s="5">
         <v>0</v>
       </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K93+1)</f>
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+      <c r="K94" s="9"/>
+      <c r="L94" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
         <v>90</v>
       </c>
-      <c r="L94" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L93+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M94" s="5"/>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="M94" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4974,18 +5422,23 @@
       <c r="I95" s="5">
         <v>0</v>
       </c>
-      <c r="J95" s="9"/>
-      <c r="K95" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K94+1)</f>
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+      <c r="K95" s="9"/>
+      <c r="L95" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
         <v>91</v>
       </c>
-      <c r="L95" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L94+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M95" s="8"/>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="M95" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5017,18 +5470,21 @@
       <c r="I96" s="5">
         <v>0</v>
       </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K95+1)</f>
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
         <v>92</v>
       </c>
-      <c r="L96" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L95+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="5"/>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="M96" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="5"/>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5060,18 +5516,23 @@
       <c r="I97" s="5">
         <v>0</v>
       </c>
-      <c r="J97" s="9"/>
-      <c r="K97" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K96+1)</f>
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+      <c r="K97" s="9"/>
+      <c r="L97" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
         <v>93</v>
       </c>
-      <c r="L97" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L96+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M97" s="5"/>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="M97" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5103,18 +5564,21 @@
       <c r="I98" s="5">
         <v>0</v>
       </c>
-      <c r="J98" s="9"/>
-      <c r="K98" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K97+1)</f>
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
         <v>94</v>
       </c>
-      <c r="L98" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L97+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="5"/>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="M98" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="5"/>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5146,18 +5610,21 @@
       <c r="I99" s="5">
         <v>0</v>
       </c>
-      <c r="J99" s="9"/>
-      <c r="K99" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K98+1)</f>
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
         <v>95</v>
       </c>
-      <c r="L99" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L98+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="5"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="M99" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="5"/>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5189,18 +5656,23 @@
       <c r="I100" s="5">
         <v>0</v>
       </c>
-      <c r="J100" s="9"/>
-      <c r="K100" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K99+1)</f>
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
         <v>96</v>
       </c>
-      <c r="L100" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L99+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M100" s="5"/>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="M100" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5232,18 +5704,21 @@
       <c r="I101" s="5">
         <v>0</v>
       </c>
-      <c r="J101" s="9"/>
-      <c r="K101" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K100+1)</f>
+      <c r="J101" s="5">
+        <v>0</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
         <v>97</v>
       </c>
-      <c r="L101" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L100+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M101" s="5"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="M101" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="5"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5275,18 +5750,23 @@
       <c r="I102" s="5">
         <v>0</v>
       </c>
-      <c r="J102" s="9"/>
-      <c r="K102" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K101+1)</f>
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
         <v>98</v>
       </c>
-      <c r="L102" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L101+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M102" s="5"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="M102" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5318,18 +5798,23 @@
       <c r="I103" s="5">
         <v>0</v>
       </c>
-      <c r="J103" s="9"/>
-      <c r="K103" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K102+1)</f>
+      <c r="J103" s="5">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9"/>
+      <c r="L103" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
         <v>99</v>
       </c>
-      <c r="L103" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L102+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M103" s="5"/>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="M103" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5361,18 +5846,21 @@
       <c r="I104" s="5">
         <v>0</v>
       </c>
-      <c r="J104" s="9"/>
-      <c r="K104" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K103+1)</f>
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
         <v>100</v>
       </c>
-      <c r="L104" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L103+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M104" s="5"/>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="M104" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="5"/>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5404,18 +5892,21 @@
       <c r="I105" s="5">
         <v>0</v>
       </c>
-      <c r="J105" s="9"/>
-      <c r="K105" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K104+1)</f>
+      <c r="J105" s="5">
+        <v>0</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
         <v>101</v>
       </c>
-      <c r="L105" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L104+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M105" s="5"/>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="M105" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="5"/>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5447,18 +5938,23 @@
       <c r="I106" s="5">
         <v>0</v>
       </c>
-      <c r="J106" s="9"/>
-      <c r="K106" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K105+1)</f>
+      <c r="J106" s="5">
+        <v>0</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
         <v>102</v>
       </c>
-      <c r="L106" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L105+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M106" s="5"/>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="M106" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5490,18 +5986,21 @@
       <c r="I107" s="5">
         <v>0</v>
       </c>
-      <c r="J107" s="9"/>
-      <c r="K107" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K106+1)</f>
+      <c r="J107" s="5">
+        <v>0</v>
+      </c>
+      <c r="K107" s="9"/>
+      <c r="L107" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
         <v>103</v>
       </c>
-      <c r="L107" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L106+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M107" s="5"/>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="M107" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="5"/>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5533,18 +6032,21 @@
       <c r="I108" s="5">
         <v>0</v>
       </c>
-      <c r="J108" s="9"/>
-      <c r="K108" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K107+1)</f>
+      <c r="J108" s="5">
+        <v>0</v>
+      </c>
+      <c r="K108" s="9"/>
+      <c r="L108" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
         <v>104</v>
       </c>
-      <c r="L108" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L107+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M108" s="5"/>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="M108" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="5"/>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5576,18 +6078,23 @@
       <c r="I109" s="5">
         <v>0</v>
       </c>
-      <c r="J109" s="9"/>
-      <c r="K109" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K108+1)</f>
+      <c r="J109" s="5">
+        <v>0</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
         <v>105</v>
       </c>
-      <c r="L109" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L108+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M109" s="5"/>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="M109" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5619,18 +6126,21 @@
       <c r="I110" s="5">
         <v>0</v>
       </c>
-      <c r="J110" s="9"/>
-      <c r="K110" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K109+1)</f>
+      <c r="J110" s="5">
+        <v>0</v>
+      </c>
+      <c r="K110" s="9"/>
+      <c r="L110" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
         <v>106</v>
       </c>
-      <c r="L110" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L109+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M110" s="5"/>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="M110" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="5"/>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5662,18 +6172,21 @@
       <c r="I111" s="5">
         <v>0</v>
       </c>
-      <c r="J111" s="9"/>
-      <c r="K111" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K110+1)</f>
+      <c r="J111" s="5">
+        <v>0</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
         <v>107</v>
       </c>
-      <c r="L111" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L110+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M111" s="5"/>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="M111" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="5"/>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5705,18 +6218,23 @@
       <c r="I112" s="5">
         <v>0</v>
       </c>
-      <c r="J112" s="9"/>
-      <c r="K112" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K111+1)</f>
+      <c r="J112" s="5">
+        <v>0</v>
+      </c>
+      <c r="K112" s="9"/>
+      <c r="L112" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
         <v>108</v>
       </c>
-      <c r="L112" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L111+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M112" s="5"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="M112" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5748,18 +6266,21 @@
       <c r="I113" s="5">
         <v>0</v>
       </c>
-      <c r="J113" s="9"/>
-      <c r="K113" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K112+1)</f>
+      <c r="J113" s="5">
+        <v>0</v>
+      </c>
+      <c r="K113" s="9"/>
+      <c r="L113" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
         <v>109</v>
       </c>
-      <c r="L113" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L112+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M113" s="5"/>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="M113" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5791,18 +6312,21 @@
       <c r="I114" s="5">
         <v>0</v>
       </c>
-      <c r="J114" s="9"/>
-      <c r="K114" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K113+1)</f>
+      <c r="J114" s="5">
+        <v>0</v>
+      </c>
+      <c r="K114" s="9"/>
+      <c r="L114" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
         <v>110</v>
       </c>
-      <c r="L114" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L113+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M114" s="5"/>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="M114" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5834,18 +6358,23 @@
       <c r="I115" s="5">
         <v>0</v>
       </c>
-      <c r="J115" s="9"/>
-      <c r="K115" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K114+1)</f>
+      <c r="J115" s="5">
+        <v>0</v>
+      </c>
+      <c r="K115" s="9"/>
+      <c r="L115" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
         <v>111</v>
       </c>
-      <c r="L115" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L114+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M115" s="5"/>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="M115" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5877,18 +6406,23 @@
       <c r="I116" s="5">
         <v>0</v>
       </c>
-      <c r="J116" s="9"/>
-      <c r="K116" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K115+1)</f>
+      <c r="J116" s="5">
+        <v>0</v>
+      </c>
+      <c r="K116" s="9"/>
+      <c r="L116" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
         <v>112</v>
       </c>
-      <c r="L116" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L115+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M116" s="5"/>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="M116" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5920,18 +6454,21 @@
       <c r="I117" s="5">
         <v>0</v>
       </c>
-      <c r="J117" s="9"/>
-      <c r="K117" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K116+1)</f>
+      <c r="J117" s="5">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9"/>
+      <c r="L117" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
         <v>113</v>
       </c>
-      <c r="L117" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L116+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M117" s="5"/>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="M117" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -5963,18 +6500,21 @@
       <c r="I118" s="5">
         <v>0</v>
       </c>
-      <c r="J118" s="9"/>
-      <c r="K118" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K117+1)</f>
+      <c r="J118" s="5">
+        <v>0</v>
+      </c>
+      <c r="K118" s="9"/>
+      <c r="L118" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
         <v>114</v>
       </c>
-      <c r="L118" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L117+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M118" s="5"/>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="M118" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6006,18 +6546,21 @@
       <c r="I119" s="5">
         <v>0</v>
       </c>
-      <c r="J119" s="9"/>
-      <c r="K119" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K118+1)</f>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="K119" s="9"/>
+      <c r="L119" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
         <v>115</v>
       </c>
-      <c r="L119" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L118+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M119" s="5"/>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="M119" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6049,18 +6592,21 @@
       <c r="I120" s="5">
         <v>0</v>
       </c>
-      <c r="J120" s="9"/>
-      <c r="K120" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K119+1)</f>
+      <c r="J120" s="5">
+        <v>0</v>
+      </c>
+      <c r="K120" s="9"/>
+      <c r="L120" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
         <v>116</v>
       </c>
-      <c r="L120" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L119+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M120" s="5"/>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="M120" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6092,18 +6638,21 @@
       <c r="I121" s="5">
         <v>0</v>
       </c>
-      <c r="J121" s="9"/>
-      <c r="K121" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K120+1)</f>
+      <c r="J121" s="5">
+        <v>0</v>
+      </c>
+      <c r="K121" s="9"/>
+      <c r="L121" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
         <v>117</v>
       </c>
-      <c r="L121" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L120+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M121" s="5"/>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="M121" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6135,18 +6684,21 @@
       <c r="I122" s="5">
         <v>0</v>
       </c>
-      <c r="J122" s="9"/>
-      <c r="K122" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K121+1)</f>
+      <c r="J122" s="5">
+        <v>0</v>
+      </c>
+      <c r="K122" s="9"/>
+      <c r="L122" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
         <v>118</v>
       </c>
-      <c r="L122" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L121+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M122" s="5"/>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="M122" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6178,18 +6730,23 @@
       <c r="I123" s="5">
         <v>0</v>
       </c>
-      <c r="J123" s="9"/>
-      <c r="K123" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K122+1)</f>
+      <c r="J123" s="5">
+        <v>0</v>
+      </c>
+      <c r="K123" s="9"/>
+      <c r="L123" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
         <v>119</v>
       </c>
-      <c r="L123" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L122+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M123" s="5"/>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="M123" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6221,18 +6778,21 @@
       <c r="I124" s="5">
         <v>0</v>
       </c>
-      <c r="J124" s="9"/>
-      <c r="K124" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K123+1)</f>
+      <c r="J124" s="5">
+        <v>0</v>
+      </c>
+      <c r="K124" s="9"/>
+      <c r="L124" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
         <v>120</v>
       </c>
-      <c r="L124" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L123+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M124" s="5"/>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="M124" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6264,18 +6824,21 @@
       <c r="I125" s="5">
         <v>0</v>
       </c>
-      <c r="J125" s="9"/>
-      <c r="K125" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K124+1)</f>
+      <c r="J125" s="5">
+        <v>0</v>
+      </c>
+      <c r="K125" s="9"/>
+      <c r="L125" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
         <v>121</v>
       </c>
-      <c r="L125" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L124+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M125" s="5"/>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="M125" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6307,18 +6870,21 @@
       <c r="I126" s="5">
         <v>0</v>
       </c>
-      <c r="J126" s="9"/>
-      <c r="K126" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K125+1)</f>
+      <c r="J126" s="5">
+        <v>0</v>
+      </c>
+      <c r="K126" s="9"/>
+      <c r="L126" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
         <v>122</v>
       </c>
-      <c r="L126" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L125+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M126" s="5"/>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="M126" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6350,18 +6916,21 @@
       <c r="I127" s="5">
         <v>0</v>
       </c>
-      <c r="J127" s="9"/>
-      <c r="K127" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K126+1)</f>
+      <c r="J127" s="5">
+        <v>0</v>
+      </c>
+      <c r="K127" s="9"/>
+      <c r="L127" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
         <v>123</v>
       </c>
-      <c r="L127" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L126+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M127" s="5"/>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="M127" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6393,18 +6962,21 @@
       <c r="I128" s="5">
         <v>0</v>
       </c>
-      <c r="J128" s="9"/>
-      <c r="K128" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K127+1)</f>
+      <c r="J128" s="5">
+        <v>0</v>
+      </c>
+      <c r="K128" s="9"/>
+      <c r="L128" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
         <v>124</v>
       </c>
-      <c r="L128" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L127+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M128" s="5"/>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="M128" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6436,18 +7008,21 @@
       <c r="I129" s="5">
         <v>0</v>
       </c>
-      <c r="J129" s="9"/>
-      <c r="K129" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K128+1)</f>
+      <c r="J129" s="5">
+        <v>0</v>
+      </c>
+      <c r="K129" s="9"/>
+      <c r="L129" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
         <v>125</v>
       </c>
-      <c r="L129" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L128+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M129" s="5"/>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="M129" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6479,18 +7054,23 @@
       <c r="I130" s="5">
         <v>0</v>
       </c>
-      <c r="J130" s="9"/>
-      <c r="K130" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K129+1)</f>
+      <c r="J130" s="5">
+        <v>0</v>
+      </c>
+      <c r="K130" s="9"/>
+      <c r="L130" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
         <v>126</v>
       </c>
-      <c r="L130" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L129+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M130" s="5"/>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="M130" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6522,18 +7102,21 @@
       <c r="I131" s="5">
         <v>0</v>
       </c>
-      <c r="J131" s="9"/>
-      <c r="K131" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K130+1)</f>
+      <c r="J131" s="5">
+        <v>0</v>
+      </c>
+      <c r="K131" s="9"/>
+      <c r="L131" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
         <v>127</v>
       </c>
-      <c r="L131" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L130+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M131" s="5"/>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="M131" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N131" s="5"/>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6565,18 +7148,21 @@
       <c r="I132" s="5">
         <v>0</v>
       </c>
-      <c r="J132" s="9"/>
-      <c r="K132" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K131+1)</f>
+      <c r="J132" s="5">
+        <v>0</v>
+      </c>
+      <c r="K132" s="9"/>
+      <c r="L132" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
         <v>128</v>
       </c>
-      <c r="L132" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L131+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M132" s="5"/>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="M132" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N132" s="5"/>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6608,18 +7194,21 @@
       <c r="I133" s="5">
         <v>0</v>
       </c>
-      <c r="J133" s="9"/>
-      <c r="K133" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K132+1)</f>
+      <c r="J133" s="5">
+        <v>0</v>
+      </c>
+      <c r="K133" s="9"/>
+      <c r="L133" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
         <v>129</v>
       </c>
-      <c r="L133" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L132+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M133" s="5"/>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="M133" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N133" s="5"/>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6651,18 +7240,21 @@
       <c r="I134" s="5">
         <v>0</v>
       </c>
-      <c r="J134" s="9"/>
-      <c r="K134" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K133+1)</f>
+      <c r="J134" s="5">
+        <v>0</v>
+      </c>
+      <c r="K134" s="9"/>
+      <c r="L134" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
         <v>130</v>
       </c>
-      <c r="L134" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L133+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M134" s="5"/>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="M134" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N134" s="5"/>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6694,18 +7286,21 @@
       <c r="I135" s="5">
         <v>0</v>
       </c>
-      <c r="J135" s="9"/>
-      <c r="K135" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K134+1)</f>
+      <c r="J135" s="5">
+        <v>0</v>
+      </c>
+      <c r="K135" s="9"/>
+      <c r="L135" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
         <v>131</v>
       </c>
-      <c r="L135" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L134+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M135" s="5"/>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="M135" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N135" s="5"/>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6737,18 +7332,21 @@
       <c r="I136" s="5">
         <v>0</v>
       </c>
-      <c r="J136" s="9"/>
-      <c r="K136" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K135+1)</f>
+      <c r="J136" s="5">
+        <v>0</v>
+      </c>
+      <c r="K136" s="9"/>
+      <c r="L136" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
         <v>132</v>
       </c>
-      <c r="L136" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L135+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M136" s="5"/>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="M136" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N136" s="5"/>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6780,18 +7378,21 @@
       <c r="I137" s="5">
         <v>0</v>
       </c>
-      <c r="J137" s="9"/>
-      <c r="K137" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K136+1)</f>
+      <c r="J137" s="5">
+        <v>0</v>
+      </c>
+      <c r="K137" s="9"/>
+      <c r="L137" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
         <v>133</v>
       </c>
-      <c r="L137" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L136+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M137" s="5"/>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="M137" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N137" s="5"/>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6823,18 +7424,21 @@
       <c r="I138" s="5">
         <v>0</v>
       </c>
-      <c r="J138" s="9"/>
-      <c r="K138" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K137+1)</f>
+      <c r="J138" s="5">
+        <v>0</v>
+      </c>
+      <c r="K138" s="9"/>
+      <c r="L138" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
         <v>134</v>
       </c>
-      <c r="L138" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L137+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M138" s="5"/>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="M138" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N138" s="5"/>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6866,18 +7470,21 @@
       <c r="I139" s="5">
         <v>0</v>
       </c>
-      <c r="J139" s="9"/>
-      <c r="K139" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K138+1)</f>
+      <c r="J139" s="5">
+        <v>0</v>
+      </c>
+      <c r="K139" s="9"/>
+      <c r="L139" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
         <v>135</v>
       </c>
-      <c r="L139" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L138+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M139" s="5"/>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="M139" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N139" s="5"/>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6909,18 +7516,21 @@
       <c r="I140" s="5">
         <v>0</v>
       </c>
-      <c r="J140" s="9"/>
-      <c r="K140" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K139+1)</f>
+      <c r="J140" s="5">
+        <v>0</v>
+      </c>
+      <c r="K140" s="9"/>
+      <c r="L140" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
         <v>136</v>
       </c>
-      <c r="L140" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L139+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M140" s="5"/>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="M140" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N140" s="5"/>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6952,18 +7562,21 @@
       <c r="I141" s="5">
         <v>0</v>
       </c>
-      <c r="J141" s="9"/>
-      <c r="K141" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K140+1)</f>
+      <c r="J141" s="5">
+        <v>0</v>
+      </c>
+      <c r="K141" s="9"/>
+      <c r="L141" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
         <v>137</v>
       </c>
-      <c r="L141" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L140+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M141" s="5"/>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="M141" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N141" s="5"/>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -6995,18 +7608,21 @@
       <c r="I142" s="5">
         <v>0</v>
       </c>
-      <c r="J142" s="9"/>
-      <c r="K142" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K141+1)</f>
+      <c r="J142" s="5">
+        <v>0</v>
+      </c>
+      <c r="K142" s="9"/>
+      <c r="L142" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
         <v>138</v>
       </c>
-      <c r="L142" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L141+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M142" s="5"/>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="M142" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N142" s="5"/>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -7038,18 +7654,21 @@
       <c r="I143" s="5">
         <v>0</v>
       </c>
-      <c r="J143" s="9"/>
-      <c r="K143" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K142+1)</f>
+      <c r="J143" s="5">
+        <v>0</v>
+      </c>
+      <c r="K143" s="9"/>
+      <c r="L143" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
         <v>139</v>
       </c>
-      <c r="L143" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L142+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M143" s="5"/>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="M143" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N143" s="5"/>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -7081,18 +7700,21 @@
       <c r="I144" s="5">
         <v>0</v>
       </c>
-      <c r="J144" s="9"/>
-      <c r="K144" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K143+1)</f>
+      <c r="J144" s="5">
+        <v>0</v>
+      </c>
+      <c r="K144" s="9"/>
+      <c r="L144" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
         <v>140</v>
       </c>
-      <c r="L144" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L143+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M144" s="5"/>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="M144" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N144" s="5"/>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -7124,20 +7746,55 @@
       <c r="I145" s="5">
         <v>0</v>
       </c>
-      <c r="J145" s="9"/>
-      <c r="K145" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, K144+1)</f>
+      <c r="J145" s="5">
+        <v>0</v>
+      </c>
+      <c r="K145" s="9"/>
+      <c r="L145" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
         <v>141</v>
       </c>
-      <c r="L145" s="10">
-        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), L144+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="M145" s="5"/>
+      <c r="M145" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N145" s="5"/>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="5"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="5"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="5"/>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="5"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="9"/>
+      <c r="L147" s="9"/>
+      <c r="M147" s="9"/>
+      <c r="N147" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="A1:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2A3AE5-443E-4A41-BCA6-B73596DF5047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5A4DC-8F46-8E41-BDA0-446FEEB2875F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,7 +107,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已连续 30 天，增加 0.5；已连续 3 天，增加 0.1</t>
+    <t>已连续 3 天，增加 0.1；已连续 30 天，增加 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,40 +242,20 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF555555"/>
-        <name val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -408,6 +388,26 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="25" formatCode="h:mm"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF555555"/>
+        <name val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -591,16 +591,16 @@
     </tableColumn>
     <tableColumn id="1" xr3:uid="{C122F2B9-2C27-CC49-95C8-A7AF9ECBEB4B}" name="日期" dataDxfId="9"/>
     <tableColumn id="5" xr3:uid="{C9D28CBA-D9EC-6743-A793-FFD0F93D5C41}" name="Wet-Dream" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{13E1B823-0D27-F045-93F2-4D4A89413338}" name="Tertiary-Video" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{607D6D23-94C7-C441-9805-FA4B15B54167}" name="Porn-Video" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{91709BBD-F72B-4441-AAD6-A9419A8B7AA7}" name="Masturbation" dataDxfId="6">
+    <tableColumn id="14" xr3:uid="{13E1B823-0D27-F045-93F2-4D4A89413338}" name="Tertiary-Video" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{607D6D23-94C7-C441-9805-FA4B15B54167}" name="Porn-Video" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{91709BBD-F72B-4441-AAD6-A9419A8B7AA7}" name="Masturbation" dataDxfId="5">
       <calculatedColumnFormula>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="Sexual-Intercourse" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="得分" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{D7FBDF7B-DF28-1E47-9775-46452B32D094}" name="正连续天数" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{4BE38D8D-A385-6F46-83DC-7068208B0366}" name="负连续天数" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="备注" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{D411FE29-4477-0E4A-A7B5-60DC0ABFF15E}" name="Sexual-Intercourse" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9A7EEC2F-5772-324F-996D-33BE4AEDBF3E}" name="得分" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{D7FBDF7B-DF28-1E47-9775-46452B32D094}" name="正连续天数" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{4BE38D8D-A385-6F46-83DC-7068208B0366}" name="负连续天数" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{4FB1A93B-C8B6-6540-BFD1-25429D916D4B}" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N3"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -926,55 +926,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1">
-      <c r="A1" s="11" t="str">
+      <c r="A1" s="13" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
-        <v>总分: 127.367</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+        <v>总分: 73.634</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:18" ht="23" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="23" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:18" ht="18">
       <c r="A4" s="6" t="s">
@@ -2494,31 +2494,29 @@
         <v>0</v>
       </c>
       <c r="G34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="5">
         <v>0</v>
       </c>
       <c r="K34" s="9">
-        <v>2.4</v>
+        <v>-1.8</v>
       </c>
       <c r="L34" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L33+1)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M34" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M33+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="5" t="str">
@@ -2556,11 +2554,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="9">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="L35" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L34+1)</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="M35" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M34+1, 0)</f>
@@ -2604,11 +2602,11 @@
         <v>0</v>
       </c>
       <c r="K36" s="9">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="L36" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L35+1)</f>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="M36" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M35+1, 0)</f>
@@ -2652,18 +2650,18 @@
         <v>0</v>
       </c>
       <c r="K37" s="9">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="L37" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L36+1)</f>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M37" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M36+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2702,11 +2700,11 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="L38" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L37+1)</f>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="M38" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M37+1, 0)</f>
@@ -2750,19 +2748,17 @@
         <v>0</v>
       </c>
       <c r="K39" s="9">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="L39" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L38+1)</f>
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M39" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M38+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="5" t="str">
@@ -2800,11 +2796,11 @@
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="L40" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L39+1)</f>
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="M40" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M39+1, 0)</f>
@@ -2850,17 +2846,19 @@
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="L41" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L40+1)</f>
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="M41" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M40+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="5"/>
+      <c r="N41" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="5" t="str">
@@ -2898,11 +2896,11 @@
         <v>0</v>
       </c>
       <c r="K42" s="9">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="L42" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L41+1)</f>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="M42" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M41+1, 0)</f>
@@ -2946,11 +2944,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="L43" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L42+1)</f>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="M43" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M42+1, 0)</f>
@@ -2996,11 +2994,11 @@
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="L44" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L43+1)</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M44" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M43+1, 0)</f>
@@ -3044,11 +3042,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="L45" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L44+1)</f>
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="M45" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M44+1, 0)</f>
@@ -3092,18 +3090,18 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="L46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L45+1)</f>
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="M46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M45+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3142,11 +3140,11 @@
         <v>0</v>
       </c>
       <c r="K47" s="9">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="L47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L46+1)</f>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M46+1, 0)</f>
@@ -3190,17 +3188,19 @@
         <v>0</v>
       </c>
       <c r="K48" s="9">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="L48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L47+1)</f>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M47+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="5"/>
+      <c r="N48" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="5" t="str">
@@ -3238,11 +3238,11 @@
         <v>0</v>
       </c>
       <c r="K49" s="9">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="L49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L48+1)</f>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M48+1, 0)</f>
@@ -3288,11 +3288,11 @@
         <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="L50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L49+1)</f>
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M49+1, 0)</f>
@@ -3336,11 +3336,11 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
-        <v>3.3</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="L51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L50+1)</f>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M50+1, 0)</f>
@@ -3384,11 +3384,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="9">
-        <v>3.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L51+1)</f>
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M51+1, 0)</f>
@@ -3434,19 +3434,17 @@
         <v>0</v>
       </c>
       <c r="K53" s="9">
-        <v>3.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L52+1)</f>
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M52+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N53" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="5" t="str">
@@ -3484,11 +3482,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>3.6</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L53+1)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M53+1, 0)</f>
@@ -3532,18 +3530,18 @@
         <v>0</v>
       </c>
       <c r="K55" s="9">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="L55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L54+1)</f>
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="M55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M54+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3582,11 +3580,11 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="L56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L55+1)</f>
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="M56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M55+1, 0)</f>
@@ -3630,11 +3628,11 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="L57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L56+1)</f>
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="M57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M56+1, 0)</f>
@@ -3678,11 +3676,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="9">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L57+1)</f>
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M57+1, 0)</f>
@@ -3728,11 +3726,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="9">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="L59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L58+1)</f>
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="M59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M58+1, 0)</f>
@@ -3776,19 +3774,17 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L59+1)</f>
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="M60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M59+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="5" t="str">
@@ -3826,11 +3822,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="9">
-        <v>4.0999999999999996</v>
+        <v>1.6</v>
       </c>
       <c r="L61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L60+1)</f>
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="M61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M60+1, 0)</f>
@@ -3876,17 +3872,19 @@
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>4.0999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="L62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L61+1)</f>
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M61+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="5" t="str">
@@ -3924,11 +3922,11 @@
         <v>0</v>
       </c>
       <c r="K63" s="9">
-        <v>4.0999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="L63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L62+1)</f>
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M62+1, 0)</f>
@@ -3972,18 +3970,18 @@
         <v>0</v>
       </c>
       <c r="K64" s="9">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="L64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L63+1)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M63+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="18">
@@ -4021,10 +4019,12 @@
       <c r="J65" s="5">
         <v>0</v>
       </c>
-      <c r="K65" s="9"/>
+      <c r="K65" s="9">
+        <v>2.4</v>
+      </c>
       <c r="L65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L64+1)</f>
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="M65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M64+1, 0)</f>
@@ -4067,10 +4067,12 @@
       <c r="J66" s="5">
         <v>0</v>
       </c>
-      <c r="K66" s="9"/>
+      <c r="K66" s="9">
+        <v>2.4</v>
+      </c>
       <c r="L66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L65+1)</f>
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="M66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M65+1, 0)</f>
@@ -4113,17 +4115,19 @@
       <c r="J67" s="5">
         <v>0</v>
       </c>
-      <c r="K67" s="9"/>
+      <c r="K67" s="9">
+        <v>2.5</v>
+      </c>
       <c r="L67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L66+1)</f>
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M66+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4161,10 +4165,12 @@
       <c r="J68" s="5">
         <v>0</v>
       </c>
-      <c r="K68" s="9"/>
+      <c r="K68" s="9">
+        <v>2.5</v>
+      </c>
       <c r="L68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L67+1)</f>
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M67+1, 0)</f>
@@ -4207,16 +4213,20 @@
       <c r="J69" s="5">
         <v>0</v>
       </c>
-      <c r="K69" s="9"/>
+      <c r="K69" s="9">
+        <v>2.7</v>
+      </c>
       <c r="L69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L68+1)</f>
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M68+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N69" s="5"/>
+      <c r="N69" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="5" t="str">
@@ -4253,10 +4263,12 @@
       <c r="J70" s="5">
         <v>0</v>
       </c>
-      <c r="K70" s="9"/>
+      <c r="K70" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L69+1)</f>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M69+1, 0)</f>
@@ -4301,10 +4313,12 @@
       <c r="J71" s="5">
         <v>0</v>
       </c>
-      <c r="K71" s="9"/>
+      <c r="K71" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L70+1)</f>
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="M71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M70+1, 0)</f>
@@ -4347,10 +4361,12 @@
       <c r="J72" s="5">
         <v>0</v>
       </c>
-      <c r="K72" s="9"/>
+      <c r="K72" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L71+1)</f>
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="M72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M71+1, 0)</f>
@@ -4396,7 +4412,7 @@
       <c r="K73" s="9"/>
       <c r="L73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L72+1)</f>
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="M73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M72+1, 0)</f>
@@ -4444,15 +4460,13 @@
       <c r="K74" s="9"/>
       <c r="L74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L73+1)</f>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M73+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N74" s="5"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5" t="str">
@@ -4492,7 +4506,7 @@
       <c r="K75" s="9"/>
       <c r="L75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L74+1)</f>
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="M75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M74+1, 0)</f>
@@ -4538,14 +4552,14 @@
       <c r="K76" s="9"/>
       <c r="L76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L75+1)</f>
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="M76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M75+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4586,7 +4600,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L76+1)</f>
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="M77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M76+1, 0)</f>
@@ -4632,7 +4646,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L77+1)</f>
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="M78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M77+1, 0)</f>
@@ -4678,15 +4692,13 @@
       <c r="K79" s="9"/>
       <c r="L79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L78+1)</f>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M78+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N79" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N79" s="5"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="5" t="str">
@@ -4726,7 +4738,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L79+1)</f>
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="M80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M79+1, 0)</f>
@@ -4772,15 +4784,13 @@
       <c r="K81" s="9"/>
       <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="M81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N81" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N81" s="5"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="5" t="str">
@@ -4820,15 +4830,13 @@
       <c r="K82" s="9"/>
       <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="M82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N82" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N82" s="5"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="5" t="str">
@@ -4868,7 +4876,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
@@ -4914,7 +4922,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
@@ -4960,15 +4968,13 @@
       <c r="K85" s="9"/>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N85" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N85" s="5"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="5" t="str">
@@ -5008,7 +5014,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
@@ -5054,7 +5060,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5100,15 +5106,13 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N88" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="N88" s="5"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="5" t="str">
@@ -5148,7 +5152,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
@@ -5194,7 +5198,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5240,15 +5244,13 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N91" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N91" s="5"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="5" t="str">
@@ -5288,7 +5290,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5334,7 +5336,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5380,15 +5382,13 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N94" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N94" s="5"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="5" t="str">
@@ -5428,15 +5428,13 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N95" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="N95" s="8"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="5" t="str">
@@ -5476,7 +5474,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5522,15 +5520,13 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N97" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N97" s="5"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="5" t="str">
@@ -5570,7 +5566,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5616,7 +5612,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5662,15 +5658,13 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N100" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N100" s="5"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="5" t="str">
@@ -5710,7 +5704,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5756,15 +5750,13 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N102" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N102" s="5"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="5" t="str">
@@ -5804,15 +5796,13 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N103" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N103" s="5"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="5" t="str">
@@ -5852,7 +5842,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5898,7 +5888,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5944,15 +5934,13 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N106" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N106" s="5"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="5" t="str">
@@ -5992,7 +5980,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -6038,7 +6026,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6084,15 +6072,13 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N109" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="N109" s="5"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="5" t="str">
@@ -6132,7 +6118,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6178,7 +6164,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6224,15 +6210,13 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N112" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N112" s="5"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="5" t="str">
@@ -6272,7 +6256,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6318,7 +6302,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6364,15 +6348,13 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N115" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N115" s="5"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="5" t="str">
@@ -6412,15 +6394,13 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N116" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N116" s="5"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="5" t="str">
@@ -6460,7 +6440,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6506,7 +6486,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6552,7 +6532,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6598,7 +6578,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6644,7 +6624,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6690,7 +6670,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6736,15 +6716,13 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N123" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N123" s="5"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="5" t="str">
@@ -6784,7 +6762,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6830,7 +6808,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6876,7 +6854,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6922,7 +6900,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6968,7 +6946,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -7014,7 +6992,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7060,15 +7038,13 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N130" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N130" s="5"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="5" t="str">
@@ -7108,7 +7084,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7154,7 +7130,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7200,7 +7176,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7246,7 +7222,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7292,7 +7268,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7338,7 +7314,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7384,7 +7360,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7430,7 +7406,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7476,7 +7452,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7522,7 +7498,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7568,7 +7544,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7614,7 +7590,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7660,7 +7636,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7706,7 +7682,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7752,7 +7728,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>
@@ -7768,9 +7744,9 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="5"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="13"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="12"/>
       <c r="K146" s="9"/>
       <c r="L146" s="9"/>
       <c r="M146" s="9"/>
@@ -7784,9 +7760,9 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="5"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="13"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="12"/>
       <c r="K147" s="9"/>
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C5A4DC-8F46-8E41-BDA0-446FEEB2875F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931154C-A3E3-194D-B0B9-26DE48E93717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,7 +571,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N145" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A4:N145" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N145">
+  <sortState ref="A5:N145">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
     <sortCondition ref="H5:H58"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -928,7 +928,7 @@
     <row r="1" spans="1:18" ht="16" customHeight="1">
       <c r="A1" s="13" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
-        <v>总分: 73.634</v>
+        <v>总分: 73.334</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2641,28 +2641,26 @@
         <v>0</v>
       </c>
       <c r="H37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="5">
         <v>0</v>
       </c>
       <c r="K37" s="9">
-        <v>0.2</v>
+        <v>-3.6</v>
       </c>
       <c r="L37" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L36+1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M37" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M36+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="5" t="str">
@@ -2700,11 +2698,11 @@
         <v>0</v>
       </c>
       <c r="K38" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L38" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L37+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M38" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M37+1, 0)</f>
@@ -2748,11 +2746,11 @@
         <v>0</v>
       </c>
       <c r="K39" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L39" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L38+1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M39" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M38+1, 0)</f>
@@ -2796,18 +2794,18 @@
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L40" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L39+1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M40" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M39+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2846,19 +2844,17 @@
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L41" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L40+1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M41" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M40+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="5" t="str">
@@ -2896,11 +2892,11 @@
         <v>0</v>
       </c>
       <c r="K42" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L42" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L41+1)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M42" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M41+1, 0)</f>
@@ -2944,11 +2940,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L43" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L42+1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M43" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M42+1, 0)</f>
@@ -2994,17 +2990,19 @@
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L44" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L43+1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M44" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M43+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="5"/>
+      <c r="N44" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="5" t="str">
@@ -3042,11 +3040,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L45" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L44+1)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M45" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M44+1, 0)</f>
@@ -3090,11 +3088,11 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L45+1)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M45+1, 0)</f>
@@ -3140,11 +3138,11 @@
         <v>0</v>
       </c>
       <c r="K47" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L46+1)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M46+1, 0)</f>
@@ -3188,19 +3186,17 @@
         <v>0</v>
       </c>
       <c r="K48" s="9">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="L48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L47+1)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M47+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N48" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="5" t="str">
@@ -3238,11 +3234,11 @@
         <v>0</v>
       </c>
       <c r="K49" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L48+1)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M48+1, 0)</f>
@@ -3288,11 +3284,11 @@
         <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L49+1)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M49+1, 0)</f>
@@ -3336,17 +3332,19 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
-        <v>0.66700000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="L51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L50+1)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M50+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N51" s="5"/>
+      <c r="N51" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="5" t="str">
@@ -3384,11 +3382,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L51+1)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M51+1, 0)</f>
@@ -3434,11 +3432,11 @@
         <v>0</v>
       </c>
       <c r="K53" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L52+1)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M52+1, 0)</f>
@@ -3482,11 +3480,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="L54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L53+1)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M53+1, 0)</f>
@@ -3530,18 +3528,18 @@
         <v>0</v>
       </c>
       <c r="K55" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L54+1)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M54+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3580,11 +3578,11 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L55+1)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M55+1, 0)</f>
@@ -3628,11 +3626,11 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L56+1)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M56+1, 0)</f>
@@ -3676,18 +3674,18 @@
         <v>0</v>
       </c>
       <c r="K58" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L57+1)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M57+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3726,11 +3724,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L58+1)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M58+1, 0)</f>
@@ -3774,11 +3772,11 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L59+1)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M59+1, 0)</f>
@@ -3822,11 +3820,11 @@
         <v>0</v>
       </c>
       <c r="K61" s="9">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L60+1)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M60+1, 0)</f>
@@ -3872,19 +3870,17 @@
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L61+1)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M61+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N62" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="5" t="str">
@@ -3922,11 +3918,11 @@
         <v>0</v>
       </c>
       <c r="K63" s="9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L62+1)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M62+1, 0)</f>
@@ -3970,21 +3966,21 @@
         <v>0</v>
       </c>
       <c r="K64" s="9">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L63+1)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M63+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4020,19 +4016,21 @@
         <v>0</v>
       </c>
       <c r="K65" s="9">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L64+1)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M64+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="7"/>
-    </row>
-    <row r="66" spans="1:14" ht="18">
+      <c r="N65" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4068,17 +4066,17 @@
         <v>0</v>
       </c>
       <c r="K66" s="9">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L65+1)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M65+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N66" s="7"/>
+      <c r="N66" s="5"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="5" t="str">
@@ -4116,21 +4114,21 @@
         <v>0</v>
       </c>
       <c r="K67" s="9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L66+1)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M66+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="18">
       <c r="A68" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4166,19 +4164,19 @@
         <v>0</v>
       </c>
       <c r="K68" s="9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L67+1)</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M67+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="8"/>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="N68" s="7"/>
+    </row>
+    <row r="69" spans="1:14" ht="18">
       <c r="A69" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4214,19 +4212,17 @@
         <v>0</v>
       </c>
       <c r="K69" s="9">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L68+1)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M68+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N69" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N69" s="7"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="5" t="str">
@@ -4264,11 +4260,11 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L69+1)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M69+1, 0)</f>
@@ -4314,17 +4310,17 @@
         <v>0</v>
       </c>
       <c r="K71" s="9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L70+1)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M70+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="5"/>
+      <c r="N71" s="8"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5" t="str">
@@ -4362,17 +4358,19 @@
         <v>0</v>
       </c>
       <c r="K72" s="9">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L71+1)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M71+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N72" s="5"/>
+      <c r="N72" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5" t="str">
@@ -4409,10 +4407,12 @@
       <c r="J73" s="5">
         <v>0</v>
       </c>
-      <c r="K73" s="9"/>
+      <c r="K73" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L72+1)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M72+1, 0)</f>
@@ -4457,10 +4457,12 @@
       <c r="J74" s="5">
         <v>0</v>
       </c>
-      <c r="K74" s="9"/>
+      <c r="K74" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L73+1)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M73+1, 0)</f>
@@ -4503,10 +4505,12 @@
       <c r="J75" s="5">
         <v>0</v>
       </c>
-      <c r="K75" s="9"/>
+      <c r="K75" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L74+1)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M74+1, 0)</f>
@@ -4549,10 +4553,12 @@
       <c r="J76" s="5">
         <v>0</v>
       </c>
-      <c r="K76" s="9"/>
+      <c r="K76" s="9">
+        <v>3.1</v>
+      </c>
       <c r="L76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L75+1)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M75+1, 0)</f>
@@ -4600,7 +4606,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L76+1)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M76+1, 0)</f>
@@ -4646,7 +4652,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L77+1)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M77+1, 0)</f>
@@ -4692,7 +4698,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L78+1)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M78+1, 0)</f>
@@ -4738,7 +4744,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L79+1)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M79+1, 0)</f>
@@ -4784,7 +4790,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
@@ -4830,7 +4836,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
@@ -4876,7 +4882,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
@@ -4922,7 +4928,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
@@ -4968,7 +4974,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
@@ -5014,7 +5020,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
@@ -5060,7 +5066,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5106,7 +5112,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
@@ -5152,7 +5158,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
@@ -5198,7 +5204,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5244,7 +5250,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5290,7 +5296,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5336,7 +5342,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5382,7 +5388,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5428,7 +5434,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5474,7 +5480,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5520,7 +5526,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5566,7 +5572,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5612,7 +5618,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5658,7 +5664,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5704,7 +5710,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5750,7 +5756,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5796,7 +5802,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5842,7 +5848,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5888,7 +5894,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5934,7 +5940,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5980,7 +5986,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -6026,7 +6032,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6072,7 +6078,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6118,7 +6124,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6164,7 +6170,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6210,7 +6216,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6256,7 +6262,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6302,7 +6308,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6348,7 +6354,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6394,7 +6400,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6440,7 +6446,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6486,7 +6492,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6532,7 +6538,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6578,7 +6584,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6624,7 +6630,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6670,7 +6676,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6716,7 +6722,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6762,7 +6768,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6808,7 +6814,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6854,7 +6860,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6900,7 +6906,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6946,7 +6952,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6992,7 +6998,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7038,7 +7044,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7084,7 +7090,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7130,7 +7136,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7176,7 +7182,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7222,7 +7228,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7268,7 +7274,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7314,7 +7320,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7360,7 +7366,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7406,7 +7412,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7452,7 +7458,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7498,7 +7504,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7544,7 +7550,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7590,7 +7596,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7636,7 +7642,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7682,7 +7688,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7728,7 +7734,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F931154C-A3E3-194D-B0B9-26DE48E93717}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA7A6F-2B69-4A4C-8B7A-F0B44009407C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -571,7 +571,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N145" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A4:N145" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
-  <sortState ref="A5:N145">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N145">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
     <sortCondition ref="H5:H58"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -928,7 +928,7 @@
     <row r="1" spans="1:18" ht="16" customHeight="1">
       <c r="A1" s="13" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
-        <v>总分: 73.334</v>
+        <v>总分: 66.334</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -2779,34 +2779,32 @@
         <v>43919</v>
       </c>
       <c r="F40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="5">
         <v>0</v>
       </c>
       <c r="H40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="5">
         <v>0</v>
       </c>
       <c r="K40" s="9">
-        <v>0.2</v>
+        <v>-7.2</v>
       </c>
       <c r="L40" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L39+1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M40" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M39+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="5" t="str">
@@ -2844,11 +2842,11 @@
         <v>0</v>
       </c>
       <c r="K41" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L41" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L40+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M41" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M40+1, 0)</f>
@@ -2892,11 +2890,11 @@
         <v>0</v>
       </c>
       <c r="K42" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L42" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L41+1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M42" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M41+1, 0)</f>
@@ -2940,18 +2938,18 @@
         <v>0</v>
       </c>
       <c r="K43" s="9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="L43" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L42+1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M43" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M42+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2990,19 +2988,17 @@
         <v>0</v>
       </c>
       <c r="K44" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L44" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L43+1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M44" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M43+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="5" t="str">
@@ -3040,11 +3036,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L45" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L44+1)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M45" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M44+1, 0)</f>
@@ -3088,11 +3084,11 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L45+1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M45+1, 0)</f>
@@ -3138,17 +3134,19 @@
         <v>0</v>
       </c>
       <c r="K47" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L46+1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M46+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="5"/>
+      <c r="N47" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="5" t="str">
@@ -3186,11 +3184,11 @@
         <v>0</v>
       </c>
       <c r="K48" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L47+1)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M47+1, 0)</f>
@@ -3234,11 +3232,11 @@
         <v>0</v>
       </c>
       <c r="K49" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L48+1)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M48+1, 0)</f>
@@ -3284,11 +3282,11 @@
         <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L49+1)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M49+1, 0)</f>
@@ -3332,19 +3330,17 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="L51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L50+1)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M50+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N51" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="5" t="str">
@@ -3382,11 +3378,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L51+1)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M51+1, 0)</f>
@@ -3432,11 +3428,11 @@
         <v>0</v>
       </c>
       <c r="K53" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L52+1)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M52+1, 0)</f>
@@ -3480,17 +3476,19 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>0.66700000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="L54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L53+1)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M53+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N54" s="5"/>
+      <c r="N54" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="5" t="str">
@@ -3528,11 +3526,11 @@
         <v>0</v>
       </c>
       <c r="K55" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L54+1)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M54+1, 0)</f>
@@ -3578,11 +3576,11 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L55+1)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M55+1, 0)</f>
@@ -3626,11 +3624,11 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="L57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L56+1)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M56+1, 0)</f>
@@ -3674,18 +3672,18 @@
         <v>0</v>
       </c>
       <c r="K58" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L57+1)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M57+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3724,11 +3722,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L58+1)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M58+1, 0)</f>
@@ -3772,11 +3770,11 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L59+1)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M59+1, 0)</f>
@@ -3820,18 +3818,18 @@
         <v>0</v>
       </c>
       <c r="K61" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L60+1)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M60+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3870,11 +3868,11 @@
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L61+1)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M61+1, 0)</f>
@@ -3918,11 +3916,11 @@
         <v>0</v>
       </c>
       <c r="K63" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L62+1)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M62+1, 0)</f>
@@ -3966,11 +3964,11 @@
         <v>0</v>
       </c>
       <c r="K64" s="9">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L63+1)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M63+1, 0)</f>
@@ -4016,19 +4014,17 @@
         <v>0</v>
       </c>
       <c r="K65" s="9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L64+1)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M64+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N65" s="5"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="5" t="str">
@@ -4066,11 +4062,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L65+1)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M65+1, 0)</f>
@@ -4114,21 +4110,21 @@
         <v>0</v>
       </c>
       <c r="K67" s="9">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L66+1)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M66+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4164,19 +4160,21 @@
         <v>0</v>
       </c>
       <c r="K68" s="9">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L67+1)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M67+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="7"/>
-    </row>
-    <row r="69" spans="1:14" ht="18">
+      <c r="N68" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4212,17 +4210,17 @@
         <v>0</v>
       </c>
       <c r="K69" s="9">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L68+1)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M68+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N69" s="7"/>
+      <c r="N69" s="5"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="5" t="str">
@@ -4260,21 +4258,21 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L69+1)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M69+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="18">
       <c r="A71" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4310,19 +4308,19 @@
         <v>0</v>
       </c>
       <c r="K71" s="9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L70+1)</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M70+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="8"/>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="N71" s="7"/>
+    </row>
+    <row r="72" spans="1:14" ht="18">
       <c r="A72" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4358,19 +4356,17 @@
         <v>0</v>
       </c>
       <c r="K72" s="9">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L71+1)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M71+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N72" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N72" s="7"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5" t="str">
@@ -4408,11 +4404,11 @@
         <v>0</v>
       </c>
       <c r="K73" s="9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L72+1)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M72+1, 0)</f>
@@ -4458,17 +4454,17 @@
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L73+1)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M73+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="5"/>
+      <c r="N74" s="8"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5" t="str">
@@ -4506,17 +4502,19 @@
         <v>0</v>
       </c>
       <c r="K75" s="9">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L74+1)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M74+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N75" s="5"/>
+      <c r="N75" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="5" t="str">
@@ -4554,18 +4552,18 @@
         <v>0</v>
       </c>
       <c r="K76" s="9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L75+1)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M75+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4603,10 +4601,12 @@
       <c r="J77" s="5">
         <v>0</v>
       </c>
-      <c r="K77" s="9"/>
+      <c r="K77" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L76+1)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M76+1, 0)</f>
@@ -4649,10 +4649,12 @@
       <c r="J78" s="5">
         <v>0</v>
       </c>
-      <c r="K78" s="9"/>
+      <c r="K78" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L77+1)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M77+1, 0)</f>
@@ -4695,16 +4697,20 @@
       <c r="J79" s="5">
         <v>0</v>
       </c>
-      <c r="K79" s="9"/>
+      <c r="K79" s="9">
+        <v>3.1</v>
+      </c>
       <c r="L79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L78+1)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M78+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N79" s="5"/>
+      <c r="N79" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="5" t="str">
@@ -4744,7 +4750,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L79+1)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M79+1, 0)</f>
@@ -4790,7 +4796,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
@@ -4836,7 +4842,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
@@ -4882,7 +4888,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
@@ -4928,7 +4934,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
@@ -4974,7 +4980,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
@@ -5020,7 +5026,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
@@ -5066,7 +5072,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5112,7 +5118,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
@@ -5158,7 +5164,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
@@ -5204,7 +5210,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5250,7 +5256,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5296,7 +5302,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5342,7 +5348,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5388,7 +5394,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5434,7 +5440,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5480,7 +5486,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5526,7 +5532,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5572,7 +5578,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5618,7 +5624,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5664,7 +5670,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5710,7 +5716,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5756,7 +5762,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5802,7 +5808,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5848,7 +5854,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5894,7 +5900,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5940,7 +5946,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5986,7 +5992,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -6032,7 +6038,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6078,7 +6084,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6124,7 +6130,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6170,7 +6176,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6216,7 +6222,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6262,7 +6268,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6308,7 +6314,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6354,7 +6360,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6400,7 +6406,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6446,7 +6452,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6492,7 +6498,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6538,7 +6544,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6584,7 +6590,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6630,7 +6636,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6676,7 +6682,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6722,7 +6728,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6768,7 +6774,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6814,7 +6820,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6860,7 +6866,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6906,7 +6912,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6952,7 +6958,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6998,7 +7004,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7044,7 +7050,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7090,7 +7096,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7136,7 +7142,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7182,7 +7188,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7228,7 +7234,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7274,7 +7280,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7320,7 +7326,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7366,7 +7372,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7412,7 +7418,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7458,7 +7464,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7504,7 +7510,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7550,7 +7556,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7596,7 +7602,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7642,7 +7648,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7688,7 +7694,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7734,7 +7740,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AA7A6F-2B69-4A4C-8B7A-F0B44009407C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195031E6-85ED-6040-9AC5-D6F21AE7B840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -928,7 +928,7 @@
     <row r="1" spans="1:18" ht="16" customHeight="1">
       <c r="A1" s="13" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
-        <v>总分: 66.334</v>
+        <v>总分: 66.934</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3072,31 +3072,29 @@
         <v>0</v>
       </c>
       <c r="G46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="5">
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="L46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L45+1)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M45+1, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="5" t="str">
@@ -3134,19 +3132,17 @@
         <v>0</v>
       </c>
       <c r="K47" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L46+1)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M47" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M46+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N47" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="5" t="str">
@@ -3184,11 +3180,11 @@
         <v>0</v>
       </c>
       <c r="K48" s="9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L47+1)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M48" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M47+1, 0)</f>
@@ -3232,18 +3228,18 @@
         <v>0</v>
       </c>
       <c r="K49" s="9">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L48+1)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M49" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M48+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3282,11 +3278,11 @@
         <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L49+1)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M49+1, 0)</f>
@@ -3330,11 +3326,11 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L50+1)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M50+1, 0)</f>
@@ -3378,11 +3374,11 @@
         <v>0</v>
       </c>
       <c r="K52" s="9">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="L52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L51+1)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M51+1, 0)</f>
@@ -3428,17 +3424,19 @@
         <v>0</v>
       </c>
       <c r="K53" s="9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L52+1)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M52+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="5" t="str">
@@ -3476,19 +3474,17 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="L54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L53+1)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M53+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N54" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="5" t="str">
@@ -3526,11 +3522,11 @@
         <v>0</v>
       </c>
       <c r="K55" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L54+1)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M54+1, 0)</f>
@@ -3576,11 +3572,11 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L55+1)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M55+1, 0)</f>
@@ -3624,11 +3620,11 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <v>0.66700000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="L57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L56+1)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M56+1, 0)</f>
@@ -3672,11 +3668,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L57+1)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M57+1, 0)</f>
@@ -3722,11 +3718,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L58+1)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M58+1, 0)</f>
@@ -3770,17 +3766,19 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L59+1)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M59+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="5"/>
+      <c r="N60" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="5" t="str">
@@ -3818,18 +3816,18 @@
         <v>0</v>
       </c>
       <c r="K61" s="9">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L60+1)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M60+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3868,11 +3866,11 @@
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L61+1)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M61+1, 0)</f>
@@ -3916,11 +3914,11 @@
         <v>0</v>
       </c>
       <c r="K63" s="9">
-        <v>1.4</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="L63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L62+1)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M62+1, 0)</f>
@@ -3964,11 +3962,11 @@
         <v>0</v>
       </c>
       <c r="K64" s="9">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L63+1)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M63+1, 0)</f>
@@ -4014,11 +4012,11 @@
         <v>0</v>
       </c>
       <c r="K65" s="9">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L64+1)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M64+1, 0)</f>
@@ -4062,11 +4060,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="9">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L65+1)</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M65+1, 0)</f>
@@ -4110,18 +4108,18 @@
         <v>0</v>
       </c>
       <c r="K67" s="9">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L66+1)</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M66+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N67" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4160,19 +4158,17 @@
         <v>0</v>
       </c>
       <c r="K68" s="9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L67+1)</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M67+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="5" t="str">
@@ -4210,11 +4206,11 @@
         <v>0</v>
       </c>
       <c r="K69" s="9">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L68+1)</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M68+1, 0)</f>
@@ -4258,21 +4254,21 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L69+1)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M69+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N70" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4308,19 +4304,19 @@
         <v>0</v>
       </c>
       <c r="K71" s="9">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L70+1)</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M70+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="7"/>
-    </row>
-    <row r="72" spans="1:14" ht="18">
+      <c r="N71" s="5"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4356,17 +4352,17 @@
         <v>0</v>
       </c>
       <c r="K72" s="9">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L71+1)</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M71+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N72" s="7"/>
+      <c r="N72" s="5"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="5" t="str">
@@ -4404,11 +4400,11 @@
         <v>0</v>
       </c>
       <c r="K73" s="9">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L72+1)</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M72+1, 0)</f>
@@ -4454,17 +4450,19 @@
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L73+1)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M73+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="8"/>
+      <c r="N74" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5" t="str">
@@ -4502,19 +4500,17 @@
         <v>0</v>
       </c>
       <c r="K75" s="9">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L74+1)</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M74+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N75" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N75" s="5"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="5" t="str">
@@ -4552,21 +4548,21 @@
         <v>0</v>
       </c>
       <c r="K76" s="9">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L75+1)</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M75+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N76" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="18">
       <c r="A77" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4602,19 +4598,19 @@
         <v>0</v>
       </c>
       <c r="K77" s="9">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L76+1)</f>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M76+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N77" s="5"/>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="N77" s="7"/>
+    </row>
+    <row r="78" spans="1:14" ht="18">
       <c r="A78" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4650,17 +4646,17 @@
         <v>0</v>
       </c>
       <c r="K78" s="9">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L77+1)</f>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M77+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N78" s="5"/>
+      <c r="N78" s="7"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="5" t="str">
@@ -4698,18 +4694,18 @@
         <v>0</v>
       </c>
       <c r="K79" s="9">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L78+1)</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M78+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4747,16 +4743,18 @@
       <c r="J80" s="5">
         <v>0</v>
       </c>
-      <c r="K80" s="9"/>
+      <c r="K80" s="9">
+        <v>2.5</v>
+      </c>
       <c r="L80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L79+1)</f>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M79+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N80" s="5"/>
+      <c r="N80" s="8"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="5" t="str">
@@ -4793,16 +4791,20 @@
       <c r="J81" s="5">
         <v>0</v>
       </c>
-      <c r="K81" s="9"/>
+      <c r="K81" s="9">
+        <v>2.7</v>
+      </c>
       <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N81" s="5"/>
+      <c r="N81" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="5" t="str">
@@ -4839,16 +4841,20 @@
       <c r="J82" s="5">
         <v>0</v>
       </c>
-      <c r="K82" s="9"/>
+      <c r="K82" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N82" s="5"/>
+      <c r="N82" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="5" t="str">
@@ -4885,10 +4891,12 @@
       <c r="J83" s="5">
         <v>0</v>
       </c>
-      <c r="K83" s="9"/>
+      <c r="K83" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="M83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
@@ -4931,10 +4939,12 @@
       <c r="J84" s="5">
         <v>0</v>
       </c>
-      <c r="K84" s="9"/>
+      <c r="K84" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
@@ -4977,16 +4987,20 @@
       <c r="J85" s="5">
         <v>0</v>
       </c>
-      <c r="K85" s="9"/>
+      <c r="K85" s="9">
+        <v>3.1</v>
+      </c>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N85" s="5"/>
+      <c r="N85" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="5" t="str">
@@ -5026,7 +5040,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
@@ -5072,7 +5086,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5118,7 +5132,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
@@ -5164,7 +5178,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
@@ -5210,7 +5224,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5256,7 +5270,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5302,7 +5316,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5348,7 +5362,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5394,7 +5408,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5440,7 +5454,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5486,7 +5500,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5532,7 +5546,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5578,7 +5592,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5624,7 +5638,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5670,7 +5684,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5716,7 +5730,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5762,7 +5776,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5808,7 +5822,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5854,7 +5868,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5900,7 +5914,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5946,7 +5960,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5992,7 +6006,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -6038,7 +6052,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6084,7 +6098,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6130,7 +6144,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6176,7 +6190,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6222,7 +6236,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6268,7 +6282,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6314,7 +6328,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6360,7 +6374,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6406,7 +6420,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6452,7 +6466,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6498,7 +6512,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6544,7 +6558,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6590,7 +6604,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6636,7 +6650,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6682,7 +6696,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6728,7 +6742,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6774,7 +6788,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6820,7 +6834,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6866,7 +6880,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6912,7 +6926,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6958,7 +6972,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -7004,7 +7018,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7050,7 +7064,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7096,7 +7110,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7142,7 +7156,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7188,7 +7202,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7234,7 +7248,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7280,7 +7294,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7326,7 +7340,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7372,7 +7386,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7418,7 +7432,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7464,7 +7478,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7510,7 +7524,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7556,7 +7570,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7602,7 +7616,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7648,7 +7662,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7694,7 +7708,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7740,7 +7754,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195031E6-85ED-6040-9AC5-D6F21AE7B840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279AD3F-F564-DE4E-9F24-0268CAA52854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -928,7 +928,7 @@
     <row r="1" spans="1:18" ht="16" customHeight="1">
       <c r="A1" s="13" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
-        <v>总分: 66.934</v>
+        <v>总分: 24.334</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="9">
-        <v>-0.2</v>
+        <v>-14.4</v>
       </c>
       <c r="L46" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L45+1)</f>
@@ -3269,24 +3269,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="5">
         <v>0</v>
       </c>
       <c r="K50" s="9">
-        <v>0.2</v>
+        <v>-28.8</v>
       </c>
       <c r="L50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L49+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M50" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M49+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="5"/>
     </row>
@@ -3326,11 +3326,11 @@
         <v>0</v>
       </c>
       <c r="K51" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L50+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M51" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M50+1, 0)</f>
@@ -3374,19 +3374,17 @@
         <v>0</v>
       </c>
       <c r="K52" s="9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="L52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L51+1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M52" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M51+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N52" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="5" t="str">
@@ -3424,18 +3422,18 @@
         <v>0</v>
       </c>
       <c r="K53" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L52+1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M53" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M52+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3474,11 +3472,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="9">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L53+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M54" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M53+1, 0)</f>
@@ -3522,19 +3520,17 @@
         <v>0</v>
       </c>
       <c r="K55" s="9">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L54+1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M55" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M54+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N55" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="5" t="str">
@@ -3572,17 +3568,19 @@
         <v>0</v>
       </c>
       <c r="K56" s="9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="L56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L55+1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M56" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M55+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N56" s="5"/>
+      <c r="N56" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="5" t="str">
@@ -3620,17 +3618,19 @@
         <v>0</v>
       </c>
       <c r="K57" s="9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L56+1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M57" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M56+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="5" t="str">
@@ -3668,19 +3668,17 @@
         <v>0</v>
       </c>
       <c r="K58" s="9">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="L58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L57+1)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M58" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M57+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N58" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="5" t="str">
@@ -3718,17 +3716,19 @@
         <v>0</v>
       </c>
       <c r="K59" s="9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="L59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L58+1)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M59" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M58+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N59" s="5"/>
+      <c r="N59" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="5" t="str">
@@ -3766,19 +3766,17 @@
         <v>0</v>
       </c>
       <c r="K60" s="9">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="L60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L59+1)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M60" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M59+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N60" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="5" t="str">
@@ -3816,19 +3814,17 @@
         <v>0</v>
       </c>
       <c r="K61" s="9">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="L61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L60+1)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M61" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M60+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N61" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="5" t="str">
@@ -3866,17 +3862,19 @@
         <v>0</v>
       </c>
       <c r="K62" s="9">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L61+1)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M62" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M61+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="5" t="str">
@@ -3914,11 +3912,11 @@
         <v>0</v>
       </c>
       <c r="K63" s="9">
-        <v>0.66700000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="L63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L62+1)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M62+1, 0)</f>
@@ -3962,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="K64" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="L64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L63+1)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M64" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M63+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4012,17 +4010,19 @@
         <v>0</v>
       </c>
       <c r="K65" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L64+1)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M65" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M64+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="5"/>
+      <c r="N65" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="5" t="str">
@@ -4060,11 +4060,11 @@
         <v>0</v>
       </c>
       <c r="K66" s="9">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="L66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L65+1)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M66" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M65+1, 0)</f>
@@ -4108,19 +4108,17 @@
         <v>0</v>
       </c>
       <c r="K67" s="9">
-        <v>1.4</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="L67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L66+1)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M66+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N67" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="N67" s="5"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="5" t="str">
@@ -4158,17 +4156,19 @@
         <v>0</v>
       </c>
       <c r="K68" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L67+1)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M67+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="5"/>
+      <c r="N68" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="5" t="str">
@@ -4206,11 +4206,11 @@
         <v>0</v>
       </c>
       <c r="K69" s="9">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L68+1)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M68+1, 0)</f>
@@ -4254,19 +4254,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="9">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L69+1)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M69+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N70" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N70" s="5"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="5" t="str">
@@ -4304,17 +4302,19 @@
         <v>0</v>
       </c>
       <c r="K71" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L70+1)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M70+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="5"/>
+      <c r="N71" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5" t="str">
@@ -4352,11 +4352,11 @@
         <v>0</v>
       </c>
       <c r="K72" s="9">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L71+1)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M71+1, 0)</f>
@@ -4400,19 +4400,17 @@
         <v>0</v>
       </c>
       <c r="K73" s="9">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="L73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L72+1)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M72+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N73" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N73" s="5"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="5" t="str">
@@ -4450,18 +4448,18 @@
         <v>0</v>
       </c>
       <c r="K74" s="9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L73+1)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M73+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N74" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4500,11 +4498,11 @@
         <v>0</v>
       </c>
       <c r="K75" s="9">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L74+1)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M74+1, 0)</f>
@@ -4548,21 +4546,19 @@
         <v>0</v>
       </c>
       <c r="K76" s="9">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L75+1)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M75+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N76" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="18">
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4598,19 +4594,21 @@
         <v>0</v>
       </c>
       <c r="K77" s="9">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="L77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L76+1)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M76+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N77" s="7"/>
-    </row>
-    <row r="78" spans="1:14" ht="18">
+      <c r="N77" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4646,17 +4644,19 @@
         <v>0</v>
       </c>
       <c r="K78" s="9">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L77+1)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M77+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N78" s="7"/>
+      <c r="N78" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="5" t="str">
@@ -4694,19 +4694,17 @@
         <v>0</v>
       </c>
       <c r="K79" s="9">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L78+1)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M78+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N79" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N79" s="5"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="5" t="str">
@@ -4744,19 +4742,21 @@
         <v>0</v>
       </c>
       <c r="K80" s="9">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L79+1)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M79+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N80" s="8"/>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="N80" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="18">
       <c r="A81" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4792,21 +4792,19 @@
         <v>0</v>
       </c>
       <c r="K81" s="9">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N81" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="N81" s="7"/>
+    </row>
+    <row r="82" spans="1:14" ht="18">
       <c r="A82" s="5" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>2020 年</v>
@@ -4842,19 +4840,17 @@
         <v>0</v>
       </c>
       <c r="K82" s="9">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N82" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N82" s="7"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="5" t="str">
@@ -4892,17 +4888,19 @@
         <v>0</v>
       </c>
       <c r="K83" s="9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N83" s="5"/>
+      <c r="N83" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="5" t="str">
@@ -4940,17 +4938,17 @@
         <v>0</v>
       </c>
       <c r="K84" s="9">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N84" s="5"/>
+      <c r="N84" s="8"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="5" t="str">
@@ -4988,18 +4986,18 @@
         <v>0</v>
       </c>
       <c r="K85" s="9">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5037,16 +5035,20 @@
       <c r="J86" s="5">
         <v>0</v>
       </c>
-      <c r="K86" s="9"/>
+      <c r="K86" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N86" s="5"/>
+      <c r="N86" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="5" t="str">
@@ -5083,10 +5085,12 @@
       <c r="J87" s="5">
         <v>0</v>
       </c>
-      <c r="K87" s="9"/>
+      <c r="K87" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5129,10 +5133,12 @@
       <c r="J88" s="5">
         <v>0</v>
       </c>
-      <c r="K88" s="9"/>
+      <c r="K88" s="9">
+        <v>2.8</v>
+      </c>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
@@ -5175,16 +5181,20 @@
       <c r="J89" s="5">
         <v>0</v>
       </c>
-      <c r="K89" s="9"/>
+      <c r="K89" s="9">
+        <v>3.1</v>
+      </c>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N89" s="5"/>
+      <c r="N89" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="90" spans="1:14" ht="18">
       <c r="A90" s="5" t="str">
@@ -5224,7 +5234,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5270,7 +5280,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5316,7 +5326,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5362,7 +5372,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5408,7 +5418,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5454,7 +5464,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5500,7 +5510,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5546,7 +5556,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5592,7 +5602,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5638,7 +5648,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5684,7 +5694,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5730,7 +5740,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5776,7 +5786,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5822,7 +5832,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5868,7 +5878,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5914,7 +5924,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5960,7 +5970,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -6006,7 +6016,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -6052,7 +6062,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6098,7 +6108,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6144,7 +6154,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6190,7 +6200,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6236,7 +6246,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6282,7 +6292,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6328,7 +6338,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6374,7 +6384,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6420,7 +6430,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6466,7 +6476,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6512,7 +6522,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6558,7 +6568,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6604,7 +6614,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6650,7 +6660,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6696,7 +6706,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6742,7 +6752,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6788,7 +6798,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6834,7 +6844,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6880,7 +6890,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6926,7 +6936,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6972,7 +6982,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -7018,7 +7028,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7064,7 +7074,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7110,7 +7120,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7156,7 +7166,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7202,7 +7212,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7248,7 +7258,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7294,7 +7304,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7340,7 +7350,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7386,7 +7396,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7432,7 +7442,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7478,7 +7488,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7524,7 +7534,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7570,7 +7580,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7616,7 +7626,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7662,7 +7672,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7708,7 +7718,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7754,7 +7764,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8279AD3F-F564-DE4E-9F24-0268CAA52854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB3AEC2-3C52-8B41-BD61-1C9CD62322F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3553,7 +3553,7 @@
         <v>43935</v>
       </c>
       <c r="F56" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" s="5">
         <v>0</v>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB3AEC2-3C52-8B41-BD61-1C9CD62322F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED28C62A-0133-0541-A398-8A8573851569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3995,7 +3995,7 @@
         <v>43944</v>
       </c>
       <c r="F65" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" s="5">
         <v>0</v>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED28C62A-0133-0541-A398-8A8573851569}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C290E8-C10B-0B45-AF30-82AA1E76BA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>Tertiary-Video</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已连续 3 天，增加 0.1；已连续 30 天，增加 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -928,7 +924,7 @@
     <row r="1" spans="1:18" ht="16" customHeight="1">
       <c r="A1" s="13" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
-        <v>总分: 24.334</v>
+        <v>总分: -20.933</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -4099,24 +4095,24 @@
         <v>0</v>
       </c>
       <c r="H67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="5">
         <v>0</v>
       </c>
       <c r="K67" s="9">
-        <v>0.66700000000000004</v>
+        <v>-1</v>
       </c>
       <c r="L67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L66+1)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M67" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M66+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="5"/>
     </row>
@@ -4155,20 +4151,16 @@
       <c r="J68" s="5">
         <v>0</v>
       </c>
-      <c r="K68" s="9">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K68" s="9"/>
       <c r="L68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L67+1)</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="M68" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M67+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="5" t="str">
@@ -4205,12 +4197,10 @@
       <c r="J69" s="5">
         <v>0</v>
       </c>
-      <c r="K69" s="9">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K69" s="9"/>
       <c r="L69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L68+1)</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="M69" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M68+1, 0)</f>
@@ -4253,12 +4243,10 @@
       <c r="J70" s="5">
         <v>0</v>
       </c>
-      <c r="K70" s="9">
-        <v>1.1000000000000001</v>
-      </c>
+      <c r="K70" s="9"/>
       <c r="L70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L69+1)</f>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M70" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M69+1, 0)</f>
@@ -4301,20 +4289,16 @@
       <c r="J71" s="5">
         <v>0</v>
       </c>
-      <c r="K71" s="9">
-        <v>1.4</v>
-      </c>
+      <c r="K71" s="9"/>
       <c r="L71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L70+1)</f>
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="M71" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M70+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N71" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="N71" s="5"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="5" t="str">
@@ -4351,12 +4335,10 @@
       <c r="J72" s="5">
         <v>0</v>
       </c>
-      <c r="K72" s="9">
-        <v>1.4</v>
-      </c>
+      <c r="K72" s="9"/>
       <c r="L72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L71+1)</f>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="M72" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M71+1, 0)</f>
@@ -4399,12 +4381,10 @@
       <c r="J73" s="5">
         <v>0</v>
       </c>
-      <c r="K73" s="9">
-        <v>1.4</v>
-      </c>
+      <c r="K73" s="9"/>
       <c r="L73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L72+1)</f>
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M73" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M72+1, 0)</f>
@@ -4447,20 +4427,16 @@
       <c r="J74" s="5">
         <v>0</v>
       </c>
-      <c r="K74" s="9">
-        <v>1.5</v>
-      </c>
+      <c r="K74" s="9"/>
       <c r="L74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L73+1)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="M74" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M73+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N74" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N74" s="5"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="5" t="str">
@@ -4497,12 +4473,10 @@
       <c r="J75" s="5">
         <v>0</v>
       </c>
-      <c r="K75" s="9">
-        <v>1.5</v>
-      </c>
+      <c r="K75" s="9"/>
       <c r="L75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L74+1)</f>
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M74+1, 0)</f>
@@ -4545,12 +4519,10 @@
       <c r="J76" s="5">
         <v>0</v>
       </c>
-      <c r="K76" s="9">
-        <v>1.5</v>
-      </c>
+      <c r="K76" s="9"/>
       <c r="L76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L75+1)</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M75+1, 0)</f>
@@ -4593,20 +4565,16 @@
       <c r="J77" s="5">
         <v>0</v>
       </c>
-      <c r="K77" s="9">
-        <v>1.6</v>
-      </c>
+      <c r="K77" s="9"/>
       <c r="L77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L76+1)</f>
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M76+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N77" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N77" s="5"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="5" t="str">
@@ -4643,20 +4611,16 @@
       <c r="J78" s="5">
         <v>0</v>
       </c>
-      <c r="K78" s="9">
-        <v>1.8</v>
-      </c>
+      <c r="K78" s="9"/>
       <c r="L78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L77+1)</f>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M77+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N78" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N78" s="5"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="5" t="str">
@@ -4693,12 +4657,10 @@
       <c r="J79" s="5">
         <v>0</v>
       </c>
-      <c r="K79" s="9">
-        <v>1.8</v>
-      </c>
+      <c r="K79" s="9"/>
       <c r="L79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L78+1)</f>
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M78+1, 0)</f>
@@ -4741,20 +4703,16 @@
       <c r="J80" s="5">
         <v>0</v>
       </c>
-      <c r="K80" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="K80" s="9"/>
       <c r="L80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L79+1)</f>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M79+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N80" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="N80" s="5"/>
     </row>
     <row r="81" spans="1:14" ht="18">
       <c r="A81" s="5" t="str">
@@ -4791,12 +4749,10 @@
       <c r="J81" s="5">
         <v>0</v>
       </c>
-      <c r="K81" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="K81" s="9"/>
       <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="M81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
@@ -4839,12 +4795,10 @@
       <c r="J82" s="5">
         <v>0</v>
       </c>
-      <c r="K82" s="9">
-        <v>2.4</v>
-      </c>
+      <c r="K82" s="9"/>
       <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
@@ -4887,20 +4841,16 @@
       <c r="J83" s="5">
         <v>0</v>
       </c>
-      <c r="K83" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="K83" s="9"/>
       <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N83" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N83" s="5"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="5" t="str">
@@ -4937,12 +4887,10 @@
       <c r="J84" s="5">
         <v>0</v>
       </c>
-      <c r="K84" s="9">
-        <v>2.5</v>
-      </c>
+      <c r="K84" s="9"/>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
@@ -4985,20 +4933,16 @@
       <c r="J85" s="5">
         <v>0</v>
       </c>
-      <c r="K85" s="9">
-        <v>2.7</v>
-      </c>
+      <c r="K85" s="9"/>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N85" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="N85" s="5"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="5" t="str">
@@ -5035,20 +4979,16 @@
       <c r="J86" s="5">
         <v>0</v>
       </c>
-      <c r="K86" s="9">
-        <v>2.8</v>
-      </c>
+      <c r="K86" s="9"/>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N86" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="N86" s="5"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="5" t="str">
@@ -5085,12 +5025,10 @@
       <c r="J87" s="5">
         <v>0</v>
       </c>
-      <c r="K87" s="9">
-        <v>2.8</v>
-      </c>
+      <c r="K87" s="9"/>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5133,12 +5071,10 @@
       <c r="J88" s="5">
         <v>0</v>
       </c>
-      <c r="K88" s="9">
-        <v>2.8</v>
-      </c>
+      <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
@@ -5181,20 +5117,16 @@
       <c r="J89" s="5">
         <v>0</v>
       </c>
-      <c r="K89" s="9">
-        <v>3.1</v>
-      </c>
+      <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
         <v>0</v>
       </c>
-      <c r="N89" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="N89" s="5"/>
     </row>
     <row r="90" spans="1:14" ht="18">
       <c r="A90" s="5" t="str">
@@ -5234,7 +5166,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5280,7 +5212,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5326,7 +5258,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5372,7 +5304,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5418,7 +5350,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5464,7 +5396,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5510,7 +5442,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5556,7 +5488,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5602,7 +5534,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5648,7 +5580,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5694,7 +5626,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5740,7 +5672,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5786,7 +5718,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5832,7 +5764,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5878,7 +5810,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5924,7 +5856,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5970,7 +5902,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -6016,7 +5948,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -6062,7 +5994,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6108,7 +6040,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6154,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6200,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6246,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6292,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6338,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6384,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6430,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6476,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6522,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6568,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6614,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6660,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6706,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6752,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6798,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6844,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6890,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6936,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6982,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -7028,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7074,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7120,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7166,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7212,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7258,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7304,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7350,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7396,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7442,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7488,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7534,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7580,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7626,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7672,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7718,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7764,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C290E8-C10B-0B45-AF30-82AA1E76BA8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BFDA92-B305-A241-9791-C257C9922CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4275,7 +4275,7 @@
         <v>43950</v>
       </c>
       <c r="F71" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="5">
         <v>0</v>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BFDA92-B305-A241-9791-C257C9922CAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C7BD9C-DE5D-8E47-8890-71230962DFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4413,7 +4413,7 @@
         <v>43953</v>
       </c>
       <c r="F74" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="5">
         <v>0</v>
@@ -4465,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="H75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="5">
         <v>0</v>
@@ -4476,11 +4476,11 @@
       <c r="K75" s="9"/>
       <c r="L75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L74+1)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M75" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M74+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75" s="5"/>
     </row>
@@ -4522,7 +4522,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L75+1)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M76" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M75+1, 0)</f>
@@ -4568,7 +4568,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L76+1)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M77" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M76+1, 0)</f>
@@ -4614,7 +4614,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L77+1)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M78" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M77+1, 0)</f>
@@ -4660,7 +4660,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L78+1)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M79" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M78+1, 0)</f>
@@ -4706,7 +4706,7 @@
       <c r="K80" s="9"/>
       <c r="L80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L79+1)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M80" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M79+1, 0)</f>
@@ -4752,7 +4752,7 @@
       <c r="K81" s="9"/>
       <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
@@ -4798,7 +4798,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
@@ -4844,7 +4844,7 @@
       <c r="K83" s="9"/>
       <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
@@ -4890,7 +4890,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
@@ -4936,7 +4936,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
@@ -4982,7 +4982,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
@@ -5028,7 +5028,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5074,7 +5074,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
@@ -5120,7 +5120,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
@@ -5166,7 +5166,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5212,7 +5212,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5258,7 +5258,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5304,7 +5304,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5350,7 +5350,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5396,7 +5396,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5442,7 +5442,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5488,7 +5488,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5534,7 +5534,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5580,7 +5580,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5626,7 +5626,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5672,7 +5672,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5718,7 +5718,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5764,7 +5764,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5810,7 +5810,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5856,7 +5856,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5902,7 +5902,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5948,7 +5948,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -5994,7 +5994,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6040,7 +6040,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6086,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6132,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6178,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6224,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6270,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6316,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C7BD9C-DE5D-8E47-8890-71230962DFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF904C9-5D8C-AD4C-A1F0-DC4794DB4C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+      <selection activeCell="I81" sqref="I81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="5">
         <v>0</v>
@@ -4752,11 +4752,11 @@
       <c r="K81" s="9"/>
       <c r="L81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L80+1)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M81" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M80+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" s="7"/>
     </row>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="5">
         <v>0</v>
@@ -4798,11 +4798,11 @@
       <c r="K82" s="9"/>
       <c r="L82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L81+1)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M82" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M81+1, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N82" s="7"/>
     </row>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="5">
         <v>0</v>
@@ -4844,11 +4844,11 @@
       <c r="K83" s="9"/>
       <c r="L83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L82+1)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M83" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M82+1, 0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N83" s="5"/>
     </row>
@@ -4890,7 +4890,7 @@
       <c r="K84" s="9"/>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
@@ -4936,7 +4936,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
@@ -4982,7 +4982,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
@@ -5028,7 +5028,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5074,7 +5074,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
@@ -5120,7 +5120,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
@@ -5166,7 +5166,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5212,7 +5212,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5258,7 +5258,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5304,7 +5304,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5350,7 +5350,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5396,7 +5396,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5442,7 +5442,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5488,7 +5488,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5534,7 +5534,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5580,7 +5580,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5626,7 +5626,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5672,7 +5672,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5718,7 +5718,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5764,7 +5764,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5810,7 +5810,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5856,7 +5856,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5902,7 +5902,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5948,7 +5948,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -5994,7 +5994,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6040,7 +6040,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6086,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6132,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6178,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6224,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6270,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6316,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF904C9-5D8C-AD4C-A1F0-DC4794DB4C17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192493F-9FB4-5746-8328-0AEC19C421BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C60" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4873,7 +4873,7 @@
         <v>43963</v>
       </c>
       <c r="F84" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" s="5">
         <v>0</v>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192493F-9FB4-5746-8328-0AEC19C421BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51051C3D-DAC4-0544-A69C-1DEE067D485C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4879,10 +4879,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" s="5">
         <v>0</v>
@@ -4890,11 +4890,11 @@
       <c r="K84" s="9"/>
       <c r="L84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L83+1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M83+1, 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N84" s="8"/>
     </row>
@@ -4936,7 +4936,7 @@
       <c r="K85" s="9"/>
       <c r="L85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L84+1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M85" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M84+1, 0)</f>
@@ -4982,7 +4982,7 @@
       <c r="K86" s="9"/>
       <c r="L86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L85+1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M86" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M85+1, 0)</f>
@@ -5028,7 +5028,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L86+1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M87" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M86+1, 0)</f>
@@ -5074,7 +5074,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
@@ -5120,7 +5120,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
@@ -5166,7 +5166,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5212,7 +5212,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5258,7 +5258,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5304,7 +5304,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5350,7 +5350,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5396,7 +5396,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5442,7 +5442,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5488,7 +5488,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5534,7 +5534,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5580,7 +5580,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5626,7 +5626,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5672,7 +5672,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5718,7 +5718,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5764,7 +5764,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5810,7 +5810,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5856,7 +5856,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5902,7 +5902,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5948,7 +5948,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -5994,7 +5994,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6040,7 +6040,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6086,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6132,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6178,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6224,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6270,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6316,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51051C3D-DAC4-0544-A69C-1DEE067D485C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A84B74-F253-EF4E-9BEE-F258A575135E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5063,10 +5063,10 @@
         <v>0</v>
       </c>
       <c r="H88" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I88" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" s="5">
         <v>0</v>
@@ -5074,11 +5074,11 @@
       <c r="K88" s="9"/>
       <c r="L88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L87+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M88" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M87+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" s="5"/>
     </row>
@@ -5120,7 +5120,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L88+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M89" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M88+1, 0)</f>
@@ -5166,7 +5166,7 @@
       <c r="K90" s="9"/>
       <c r="L90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L89+1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M90" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M89+1, 0)</f>
@@ -5212,7 +5212,7 @@
       <c r="K91" s="9"/>
       <c r="L91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L90+1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M91" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M90+1, 0)</f>
@@ -5258,7 +5258,7 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
@@ -5304,7 +5304,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5350,7 +5350,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5396,7 +5396,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5442,7 +5442,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5488,7 +5488,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5534,7 +5534,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5580,7 +5580,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5626,7 +5626,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5672,7 +5672,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5718,7 +5718,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5764,7 +5764,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5810,7 +5810,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5856,7 +5856,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5902,7 +5902,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5948,7 +5948,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -5994,7 +5994,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6040,7 +6040,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6086,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6132,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6178,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6224,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6270,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6316,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A84B74-F253-EF4E-9BEE-F258A575135E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8498EF5F-DD6B-FA47-B3C8-507B31714997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5247,10 +5247,10 @@
         <v>0</v>
       </c>
       <c r="H92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" s="5">
         <v>0</v>
@@ -5258,11 +5258,11 @@
       <c r="K92" s="9"/>
       <c r="L92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L91+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M92" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M91+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" s="5"/>
     </row>
@@ -5304,7 +5304,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L92+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M93" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M92+1, 0)</f>
@@ -5350,7 +5350,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L93+1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M94" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M93+1, 0)</f>
@@ -5396,7 +5396,7 @@
       <c r="K95" s="9"/>
       <c r="L95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L94+1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M95" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M94+1, 0)</f>
@@ -5442,7 +5442,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L95+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M96" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M95+1, 0)</f>
@@ -5488,7 +5488,7 @@
       <c r="K97" s="9"/>
       <c r="L97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L96+1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M97" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M96+1, 0)</f>
@@ -5534,7 +5534,7 @@
       <c r="K98" s="9"/>
       <c r="L98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L97+1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M98" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M97+1, 0)</f>
@@ -5580,7 +5580,7 @@
       <c r="K99" s="9"/>
       <c r="L99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L98+1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M99" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M98+1, 0)</f>
@@ -5626,7 +5626,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L99+1)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M100" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M99+1, 0)</f>
@@ -5672,7 +5672,7 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
@@ -5718,7 +5718,7 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
@@ -5764,7 +5764,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5810,7 +5810,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5856,7 +5856,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5902,7 +5902,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5948,7 +5948,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -5994,7 +5994,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6040,7 +6040,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6086,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6132,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6178,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6224,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6270,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6316,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8498EF5F-DD6B-FA47-B3C8-507B31714997}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21E7906-8209-5746-97FD-09183C15046B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="5">
         <v>0</v>
@@ -5672,11 +5672,11 @@
       <c r="K101" s="9"/>
       <c r="L101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L100+1)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M101" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M100+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" s="5"/>
     </row>
@@ -5710,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="5">
         <v>0</v>
@@ -5718,11 +5718,11 @@
       <c r="K102" s="9"/>
       <c r="L102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L101+1)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M102" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M101+1, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N102" s="5"/>
     </row>
@@ -5764,7 +5764,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L102+1)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M103" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M102+1, 0)</f>
@@ -5810,7 +5810,7 @@
       <c r="K104" s="9"/>
       <c r="L104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L103+1)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M104" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M103+1, 0)</f>
@@ -5856,7 +5856,7 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
@@ -5902,7 +5902,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5948,7 +5948,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -5994,7 +5994,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6040,7 +6040,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6086,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6132,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6178,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6224,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6270,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6316,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21E7906-8209-5746-97FD-09183C15046B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A026F-42B1-F84E-96F2-F7F6D78AB5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I105" sqref="I105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" s="5">
         <v>0</v>
@@ -5856,11 +5856,11 @@
       <c r="K105" s="9"/>
       <c r="L105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L104+1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M105" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M104+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105" s="5"/>
     </row>
@@ -5902,7 +5902,7 @@
       <c r="K106" s="9"/>
       <c r="L106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L105+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M106" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M105+1, 0)</f>
@@ -5948,7 +5948,7 @@
       <c r="K107" s="9"/>
       <c r="L107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L106+1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M107" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M106+1, 0)</f>
@@ -5994,7 +5994,7 @@
       <c r="K108" s="9"/>
       <c r="L108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L107+1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M108" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M107+1, 0)</f>
@@ -6040,7 +6040,7 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
@@ -6086,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6132,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6178,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6224,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6270,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6316,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670A026F-42B1-F84E-96F2-F7F6D78AB5CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22F3544-1289-034B-B50C-584E5D17B343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5885,7 +5885,7 @@
         <v>43985</v>
       </c>
       <c r="F106" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="5">
         <v>0</v>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22F3544-1289-034B-B50C-584E5D17B343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B90FE-0740-3F4D-9FDE-E5A9F07A194F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6029,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="H109" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" s="5">
         <v>0</v>
@@ -6040,11 +6040,11 @@
       <c r="K109" s="9"/>
       <c r="L109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L108+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M109" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M108+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109" s="5"/>
     </row>
@@ -6086,7 +6086,7 @@
       <c r="K110" s="9"/>
       <c r="L110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L109+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M110" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M109+1, 0)</f>
@@ -6132,7 +6132,7 @@
       <c r="K111" s="9"/>
       <c r="L111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L110+1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M111" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M110+1, 0)</f>
@@ -6178,7 +6178,7 @@
       <c r="K112" s="9"/>
       <c r="L112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L111+1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M112" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M111+1, 0)</f>
@@ -6224,7 +6224,7 @@
       <c r="K113" s="9"/>
       <c r="L113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L112+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M113" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M112+1, 0)</f>
@@ -6270,7 +6270,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
@@ -6316,7 +6316,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355B90FE-0740-3F4D-9FDE-E5A9F07A194F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE868E03-EE3A-E043-B58B-BFA7269E1680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -902,7 +902,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" s="5">
         <v>0</v>
@@ -6270,11 +6270,11 @@
       <c r="K114" s="9"/>
       <c r="L114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L113+1)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M114" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M113+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114" s="5"/>
     </row>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" s="5">
         <v>0</v>
@@ -6316,11 +6316,11 @@
       <c r="K115" s="9"/>
       <c r="L115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L114+1)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M115" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M114+1, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N115" s="5"/>
     </row>
@@ -6362,7 +6362,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L115+1)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M116" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M115+1, 0)</f>
@@ -6408,7 +6408,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L116+1)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M117" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M116+1, 0)</f>
@@ -6454,7 +6454,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L117+1)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M118" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M117+1, 0)</f>
@@ -6500,7 +6500,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L118+1)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M119" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M118+1, 0)</f>
@@ -6546,7 +6546,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L119+1)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M120" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M119+1, 0)</f>
@@ -6592,7 +6592,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L120+1)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M121" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M120+1, 0)</f>
@@ -6638,7 +6638,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L121+1)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M122" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M121+1, 0)</f>
@@ -6684,7 +6684,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
@@ -6730,7 +6730,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6776,7 +6776,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
@@ -6822,7 +6822,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6868,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6914,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6960,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7006,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7052,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7098,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7144,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7190,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7236,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7282,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7328,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7374,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7420,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7466,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7512,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7558,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7604,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7650,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7696,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE868E03-EE3A-E043-B58B-BFA7269E1680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD6037-2B61-704D-A4DE-932CA5190E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -901,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I115" sqref="I115"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I123" sqref="I123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6676,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" s="5">
         <v>0</v>
@@ -6684,11 +6678,11 @@
       <c r="K123" s="9"/>
       <c r="L123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L122+1)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M123" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M122+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" s="5"/>
     </row>
@@ -6730,7 +6724,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L123+1)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M124" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M123+1, 0)</f>
@@ -6768,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="5">
         <v>0</v>
@@ -6776,11 +6770,11 @@
       <c r="K125" s="9"/>
       <c r="L125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L124+1)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M125" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M124+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" s="5"/>
     </row>
@@ -6822,7 +6816,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L125+1)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M126" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M125+1, 0)</f>
@@ -6868,7 +6862,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L126+1)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M127" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M126+1, 0)</f>
@@ -6914,7 +6908,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L127+1)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M128" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M127+1, 0)</f>
@@ -6960,7 +6954,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
@@ -7006,7 +7000,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7052,7 +7046,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7098,7 +7092,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7144,7 +7138,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7190,7 +7184,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7236,7 +7230,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7282,7 +7276,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7328,7 +7322,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7374,7 +7368,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7420,7 +7414,7 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
@@ -7466,7 +7460,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7512,7 +7506,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7558,7 +7552,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7604,7 +7598,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7650,7 +7644,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7696,7 +7690,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD6037-2B61-704D-A4DE-932CA5190E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A509E7B-F99F-2B4D-990F-6AABF69FFBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" s="5">
         <v>0</v>
@@ -6954,11 +6954,11 @@
       <c r="K129" s="9"/>
       <c r="L129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L128+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M129" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M128+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" s="5"/>
     </row>
@@ -7000,7 +7000,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L129+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M130" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M129+1, 0)</f>
@@ -7046,7 +7046,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L130+1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M131" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M130+1, 0)</f>
@@ -7092,7 +7092,7 @@
       <c r="K132" s="9"/>
       <c r="L132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L131+1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M132" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M131+1, 0)</f>
@@ -7138,7 +7138,7 @@
       <c r="K133" s="9"/>
       <c r="L133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L132+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M133" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M132+1, 0)</f>
@@ -7184,7 +7184,7 @@
       <c r="K134" s="9"/>
       <c r="L134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L133+1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M134" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M133+1, 0)</f>
@@ -7230,7 +7230,7 @@
       <c r="K135" s="9"/>
       <c r="L135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L134+1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M135" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M134+1, 0)</f>
@@ -7276,7 +7276,7 @@
       <c r="K136" s="9"/>
       <c r="L136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L135+1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M136" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M135+1, 0)</f>
@@ -7322,7 +7322,7 @@
       <c r="K137" s="9"/>
       <c r="L137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L136+1)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M137" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M136+1, 0)</f>
@@ -7368,7 +7368,7 @@
       <c r="K138" s="9"/>
       <c r="L138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L137+1)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M138" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M137+1, 0)</f>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" s="5">
         <v>0</v>
@@ -7414,11 +7414,11 @@
       <c r="K139" s="9"/>
       <c r="L139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L138+1)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M139" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M138+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" s="5"/>
     </row>
@@ -7460,7 +7460,7 @@
       <c r="K140" s="9"/>
       <c r="L140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L139+1)</f>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M140" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M139+1, 0)</f>
@@ -7506,7 +7506,7 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
@@ -7552,7 +7552,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7598,7 +7598,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7644,7 +7644,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7690,7 +7690,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A509E7B-F99F-2B4D-990F-6AABF69FFBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB2979-0319-1348-91CF-153B8840DEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -896,7 +896,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+      <selection activeCell="I141" sqref="I141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" s="5">
         <v>0</v>
@@ -7506,11 +7506,11 @@
       <c r="K141" s="9"/>
       <c r="L141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L140+1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M141" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M140+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141" s="5"/>
     </row>
@@ -7552,7 +7552,7 @@
       <c r="K142" s="9"/>
       <c r="L142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L141+1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M142" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M141+1, 0)</f>
@@ -7598,7 +7598,7 @@
       <c r="K143" s="9"/>
       <c r="L143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L142+1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M143" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M142+1, 0)</f>
@@ -7644,7 +7644,7 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
@@ -7690,7 +7690,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB2979-0319-1348-91CF-153B8840DEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB11C3-0914-3344-BC4C-BAC7EE3D9EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -896,7 +896,7 @@
   <dimension ref="A1:R147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I141" sqref="I141"/>
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="I144" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" s="5">
         <v>0</v>
@@ -7644,11 +7644,11 @@
       <c r="K144" s="9"/>
       <c r="L144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L143+1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M144" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M143+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144" s="5"/>
     </row>
@@ -7690,7 +7690,7 @@
       <c r="K145" s="9"/>
       <c r="L145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L144+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M145" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M144+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AB11C3-0914-3344-BC4C-BAC7EE3D9EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755AC74-4E69-7744-8649-4FBE7F86BE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -105,10 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -198,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,12 +229,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -559,8 +552,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N145" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A4:N145" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N166" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A4:N166" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N145">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
@@ -893,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:R147"/>
+  <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -916,55 +909,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1">
-      <c r="A1" s="13" t="str">
+      <c r="A1" s="11" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
         <v>总分: -20.933</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="23" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="1:18" ht="23" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:18" ht="18">
       <c r="A4" s="6" t="s">
@@ -7699,36 +7692,970 @@
       <c r="N145" s="5"/>
     </row>
     <row r="146" spans="1:14">
-      <c r="A146" s="5"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="5"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="12"/>
+      <c r="A146" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B146" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C146" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D146" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 29 周</v>
+      </c>
+      <c r="E146" s="4">
+        <v>44025</v>
+      </c>
+      <c r="F146" s="5">
+        <v>0</v>
+      </c>
+      <c r="G146" s="5">
+        <v>0</v>
+      </c>
+      <c r="H146" s="5">
+        <v>0</v>
+      </c>
+      <c r="I146" s="5">
+        <v>0</v>
+      </c>
+      <c r="J146" s="5">
+        <v>0</v>
+      </c>
       <c r="K146" s="9"/>
-      <c r="L146" s="9"/>
-      <c r="M146" s="9"/>
+      <c r="L146" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L145+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M146" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M145+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N146" s="5"/>
     </row>
     <row r="147" spans="1:14">
-      <c r="A147" s="5"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="5"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="12"/>
+      <c r="A147" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B147" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C147" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D147" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 29 周</v>
+      </c>
+      <c r="E147" s="4">
+        <v>44026</v>
+      </c>
+      <c r="F147" s="5">
+        <v>0</v>
+      </c>
+      <c r="G147" s="5">
+        <v>0</v>
+      </c>
+      <c r="H147" s="5">
+        <v>0</v>
+      </c>
+      <c r="I147" s="5">
+        <v>0</v>
+      </c>
+      <c r="J147" s="5">
+        <v>0</v>
+      </c>
       <c r="K147" s="9"/>
-      <c r="L147" s="9"/>
-      <c r="M147" s="9"/>
+      <c r="L147" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L146+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M147" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M146+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N147" s="5"/>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B148" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C148" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D148" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 29 周</v>
+      </c>
+      <c r="E148" s="4">
+        <v>44027</v>
+      </c>
+      <c r="F148" s="5">
+        <v>0</v>
+      </c>
+      <c r="G148" s="5">
+        <v>0</v>
+      </c>
+      <c r="H148" s="5">
+        <v>0</v>
+      </c>
+      <c r="I148" s="5">
+        <v>0</v>
+      </c>
+      <c r="J148" s="5">
+        <v>0</v>
+      </c>
+      <c r="K148" s="9"/>
+      <c r="L148" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L147+1)</f>
+        <v>4</v>
+      </c>
+      <c r="M148" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M147+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N148" s="5"/>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B149" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C149" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D149" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 29 周</v>
+      </c>
+      <c r="E149" s="4">
+        <v>44028</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0</v>
+      </c>
+      <c r="G149" s="5">
+        <v>0</v>
+      </c>
+      <c r="H149" s="5">
+        <v>0</v>
+      </c>
+      <c r="I149" s="5">
+        <v>0</v>
+      </c>
+      <c r="J149" s="5">
+        <v>0</v>
+      </c>
+      <c r="K149" s="9"/>
+      <c r="L149" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L148+1)</f>
+        <v>5</v>
+      </c>
+      <c r="M149" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M148+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N149" s="5"/>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B150" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C150" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D150" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 29 周</v>
+      </c>
+      <c r="E150" s="4">
+        <v>44029</v>
+      </c>
+      <c r="F150" s="5">
+        <v>0</v>
+      </c>
+      <c r="G150" s="5">
+        <v>0</v>
+      </c>
+      <c r="H150" s="5">
+        <v>0</v>
+      </c>
+      <c r="I150" s="5">
+        <v>0</v>
+      </c>
+      <c r="J150" s="5">
+        <v>0</v>
+      </c>
+      <c r="K150" s="9"/>
+      <c r="L150" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L149+1)</f>
+        <v>6</v>
+      </c>
+      <c r="M150" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M149+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N150" s="5"/>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B151" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C151" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D151" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 29 周</v>
+      </c>
+      <c r="E151" s="4">
+        <v>44030</v>
+      </c>
+      <c r="F151" s="5">
+        <v>0</v>
+      </c>
+      <c r="G151" s="5">
+        <v>0</v>
+      </c>
+      <c r="H151" s="5">
+        <v>0</v>
+      </c>
+      <c r="I151" s="5">
+        <v>1</v>
+      </c>
+      <c r="J151" s="5">
+        <v>0</v>
+      </c>
+      <c r="K151" s="9"/>
+      <c r="L151" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L150+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M151" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M150+1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N151" s="5"/>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B152" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C152" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D152" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 29 周</v>
+      </c>
+      <c r="E152" s="4">
+        <v>44031</v>
+      </c>
+      <c r="F152" s="5">
+        <v>1</v>
+      </c>
+      <c r="G152" s="5">
+        <v>0</v>
+      </c>
+      <c r="H152" s="5">
+        <v>0</v>
+      </c>
+      <c r="I152" s="5">
+        <v>0</v>
+      </c>
+      <c r="J152" s="5">
+        <v>0</v>
+      </c>
+      <c r="K152" s="9"/>
+      <c r="L152" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L151+1)</f>
+        <v>1</v>
+      </c>
+      <c r="M152" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M151+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N152" s="5"/>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B153" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C153" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D153" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 30 周</v>
+      </c>
+      <c r="E153" s="4">
+        <v>44032</v>
+      </c>
+      <c r="F153" s="5">
+        <v>0</v>
+      </c>
+      <c r="G153" s="5">
+        <v>0</v>
+      </c>
+      <c r="H153" s="5">
+        <v>0</v>
+      </c>
+      <c r="I153" s="5">
+        <v>0</v>
+      </c>
+      <c r="J153" s="5">
+        <v>0</v>
+      </c>
+      <c r="K153" s="9"/>
+      <c r="L153" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L152+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M153" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M152+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N153" s="5"/>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B154" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C154" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D154" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 30 周</v>
+      </c>
+      <c r="E154" s="4">
+        <v>44033</v>
+      </c>
+      <c r="F154" s="5">
+        <v>0</v>
+      </c>
+      <c r="G154" s="5">
+        <v>0</v>
+      </c>
+      <c r="H154" s="5">
+        <v>0</v>
+      </c>
+      <c r="I154" s="5">
+        <v>0</v>
+      </c>
+      <c r="J154" s="5">
+        <v>0</v>
+      </c>
+      <c r="K154" s="9"/>
+      <c r="L154" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L153+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M154" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M153+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N154" s="5"/>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B155" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C155" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D155" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 30 周</v>
+      </c>
+      <c r="E155" s="4">
+        <v>44034</v>
+      </c>
+      <c r="F155" s="5">
+        <v>0</v>
+      </c>
+      <c r="G155" s="5">
+        <v>0</v>
+      </c>
+      <c r="H155" s="5">
+        <v>0</v>
+      </c>
+      <c r="I155" s="5">
+        <v>0</v>
+      </c>
+      <c r="J155" s="5">
+        <v>0</v>
+      </c>
+      <c r="K155" s="9"/>
+      <c r="L155" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L154+1)</f>
+        <v>4</v>
+      </c>
+      <c r="M155" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M154+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N155" s="5"/>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B156" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C156" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D156" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 30 周</v>
+      </c>
+      <c r="E156" s="4">
+        <v>44035</v>
+      </c>
+      <c r="F156" s="5">
+        <v>0</v>
+      </c>
+      <c r="G156" s="5">
+        <v>0</v>
+      </c>
+      <c r="H156" s="5">
+        <v>0</v>
+      </c>
+      <c r="I156" s="5">
+        <v>0</v>
+      </c>
+      <c r="J156" s="5">
+        <v>0</v>
+      </c>
+      <c r="K156" s="9"/>
+      <c r="L156" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L155+1)</f>
+        <v>5</v>
+      </c>
+      <c r="M156" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M155+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N156" s="5"/>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B157" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C157" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D157" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 30 周</v>
+      </c>
+      <c r="E157" s="4">
+        <v>44036</v>
+      </c>
+      <c r="F157" s="5">
+        <v>0</v>
+      </c>
+      <c r="G157" s="5">
+        <v>0</v>
+      </c>
+      <c r="H157" s="5">
+        <v>0</v>
+      </c>
+      <c r="I157" s="5">
+        <v>0</v>
+      </c>
+      <c r="J157" s="5">
+        <v>0</v>
+      </c>
+      <c r="K157" s="9"/>
+      <c r="L157" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L156+1)</f>
+        <v>6</v>
+      </c>
+      <c r="M157" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M156+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N157" s="5"/>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B158" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C158" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D158" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 30 周</v>
+      </c>
+      <c r="E158" s="4">
+        <v>44037</v>
+      </c>
+      <c r="F158" s="5">
+        <v>0</v>
+      </c>
+      <c r="G158" s="5">
+        <v>0</v>
+      </c>
+      <c r="H158" s="5">
+        <v>0</v>
+      </c>
+      <c r="I158" s="5">
+        <v>0</v>
+      </c>
+      <c r="J158" s="5">
+        <v>0</v>
+      </c>
+      <c r="K158" s="9"/>
+      <c r="L158" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L157+1)</f>
+        <v>7</v>
+      </c>
+      <c r="M158" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M157+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N158" s="5"/>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B159" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C159" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D159" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 30 周</v>
+      </c>
+      <c r="E159" s="4">
+        <v>44038</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0</v>
+      </c>
+      <c r="G159" s="5">
+        <v>0</v>
+      </c>
+      <c r="H159" s="5">
+        <v>0</v>
+      </c>
+      <c r="I159" s="5">
+        <v>0</v>
+      </c>
+      <c r="J159" s="5">
+        <v>0</v>
+      </c>
+      <c r="K159" s="9"/>
+      <c r="L159" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L158+1)</f>
+        <v>8</v>
+      </c>
+      <c r="M159" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M158+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N159" s="5"/>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B160" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C160" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D160" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 31 周</v>
+      </c>
+      <c r="E160" s="4">
+        <v>44039</v>
+      </c>
+      <c r="F160" s="5">
+        <v>0</v>
+      </c>
+      <c r="G160" s="5">
+        <v>0</v>
+      </c>
+      <c r="H160" s="5">
+        <v>0</v>
+      </c>
+      <c r="I160" s="5">
+        <v>0</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0</v>
+      </c>
+      <c r="K160" s="9"/>
+      <c r="L160" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L159+1)</f>
+        <v>9</v>
+      </c>
+      <c r="M160" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M159+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N160" s="5"/>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B161" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C161" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D161" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 31 周</v>
+      </c>
+      <c r="E161" s="4">
+        <v>44040</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0</v>
+      </c>
+      <c r="G161" s="5">
+        <v>0</v>
+      </c>
+      <c r="H161" s="5">
+        <v>0</v>
+      </c>
+      <c r="I161" s="5">
+        <v>0</v>
+      </c>
+      <c r="J161" s="5">
+        <v>0</v>
+      </c>
+      <c r="K161" s="9"/>
+      <c r="L161" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L160+1)</f>
+        <v>10</v>
+      </c>
+      <c r="M161" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M160+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N161" s="5"/>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B162" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C162" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D162" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 31 周</v>
+      </c>
+      <c r="E162" s="4">
+        <v>44041</v>
+      </c>
+      <c r="F162" s="5">
+        <v>0</v>
+      </c>
+      <c r="G162" s="5">
+        <v>0</v>
+      </c>
+      <c r="H162" s="5">
+        <v>0</v>
+      </c>
+      <c r="I162" s="5">
+        <v>0</v>
+      </c>
+      <c r="J162" s="5">
+        <v>0</v>
+      </c>
+      <c r="K162" s="9"/>
+      <c r="L162" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L161+1)</f>
+        <v>11</v>
+      </c>
+      <c r="M162" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M161+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N162" s="5"/>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B163" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C163" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D163" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 31 周</v>
+      </c>
+      <c r="E163" s="4">
+        <v>44042</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0</v>
+      </c>
+      <c r="H163" s="5">
+        <v>0</v>
+      </c>
+      <c r="I163" s="5">
+        <v>0</v>
+      </c>
+      <c r="J163" s="5">
+        <v>0</v>
+      </c>
+      <c r="K163" s="9"/>
+      <c r="L163" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L162+1)</f>
+        <v>12</v>
+      </c>
+      <c r="M163" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M162+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N163" s="5"/>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B164" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C164" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>7 月</v>
+      </c>
+      <c r="D164" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 31 周</v>
+      </c>
+      <c r="E164" s="4">
+        <v>44043</v>
+      </c>
+      <c r="F164" s="5">
+        <v>0</v>
+      </c>
+      <c r="G164" s="5">
+        <v>0</v>
+      </c>
+      <c r="H164" s="5">
+        <v>0</v>
+      </c>
+      <c r="I164" s="5">
+        <v>0</v>
+      </c>
+      <c r="J164" s="5">
+        <v>0</v>
+      </c>
+      <c r="K164" s="9"/>
+      <c r="L164" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L163+1)</f>
+        <v>13</v>
+      </c>
+      <c r="M164" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M163+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N164" s="5"/>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B165" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C165" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D165" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 31 周</v>
+      </c>
+      <c r="E165" s="4">
+        <v>44044</v>
+      </c>
+      <c r="F165" s="5">
+        <v>0</v>
+      </c>
+      <c r="G165" s="5">
+        <v>0</v>
+      </c>
+      <c r="H165" s="5">
+        <v>0</v>
+      </c>
+      <c r="I165" s="5">
+        <v>0</v>
+      </c>
+      <c r="J165" s="5">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9"/>
+      <c r="L165" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L164+1)</f>
+        <v>14</v>
+      </c>
+      <c r="M165" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M164+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N165" s="5"/>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B166" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C166" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D166" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 31 周</v>
+      </c>
+      <c r="E166" s="4">
+        <v>44045</v>
+      </c>
+      <c r="F166" s="5">
+        <v>0</v>
+      </c>
+      <c r="G166" s="5">
+        <v>0</v>
+      </c>
+      <c r="H166" s="5">
+        <v>0</v>
+      </c>
+      <c r="I166" s="5">
+        <v>0</v>
+      </c>
+      <c r="J166" s="5">
+        <v>0</v>
+      </c>
+      <c r="K166" s="9"/>
+      <c r="L166" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L165+1)</f>
+        <v>15</v>
+      </c>
+      <c r="M166" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M165+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N166" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755AC74-4E69-7744-8649-4FBE7F86BE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AB7C7E-9F85-C743-B2CD-9D72F3F6EB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -889,7 +889,7 @@
   <dimension ref="A1:R166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+      <selection activeCell="I158" sqref="I158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" s="5">
         <v>0</v>
@@ -8281,11 +8281,11 @@
       <c r="K158" s="9"/>
       <c r="L158" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L157+1)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M158" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M157+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" s="5"/>
     </row>
@@ -8327,7 +8327,7 @@
       <c r="K159" s="9"/>
       <c r="L159" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L158+1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M159" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M158+1, 0)</f>
@@ -8373,7 +8373,7 @@
       <c r="K160" s="9"/>
       <c r="L160" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L159+1)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M160" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M159+1, 0)</f>
@@ -8419,7 +8419,7 @@
       <c r="K161" s="9"/>
       <c r="L161" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L160+1)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M161" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M160+1, 0)</f>
@@ -8465,7 +8465,7 @@
       <c r="K162" s="9"/>
       <c r="L162" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L161+1)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M162" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M161+1, 0)</f>
@@ -8511,7 +8511,7 @@
       <c r="K163" s="9"/>
       <c r="L163" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L162+1)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M163" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M162+1, 0)</f>
@@ -8557,7 +8557,7 @@
       <c r="K164" s="9"/>
       <c r="L164" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L163+1)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M164" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M163+1, 0)</f>
@@ -8603,7 +8603,7 @@
       <c r="K165" s="9"/>
       <c r="L165" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L164+1)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M165" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M164+1, 0)</f>
@@ -8649,7 +8649,7 @@
       <c r="K166" s="9"/>
       <c r="L166" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L165+1)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M166" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M165+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AB7C7E-9F85-C743-B2CD-9D72F3F6EB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF429FA7-E2E5-EB44-AC38-E41DBF1D5200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N166" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A4:N166" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N181" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A4:N181" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N145">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
@@ -886,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:R166"/>
+  <dimension ref="A1:R181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="I158" sqref="I158"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7948,7 +7948,7 @@
         <v>0</v>
       </c>
       <c r="H151" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" s="5">
         <v>1</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="H158" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" s="5">
         <v>1</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="H164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I164" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" s="5">
         <v>0</v>
@@ -8557,11 +8557,11 @@
       <c r="K164" s="9"/>
       <c r="L164" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L163+1)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M164" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M163+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N164" s="5"/>
     </row>
@@ -8603,7 +8603,7 @@
       <c r="K165" s="9"/>
       <c r="L165" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L164+1)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M165" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M164+1, 0)</f>
@@ -8649,13 +8649,703 @@
       <c r="K166" s="9"/>
       <c r="L166" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L165+1)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M166" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M165+1, 0)</f>
         <v>0</v>
       </c>
       <c r="N166" s="5"/>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B167" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C167" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D167" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 32 周</v>
+      </c>
+      <c r="E167" s="4">
+        <v>44046</v>
+      </c>
+      <c r="F167" s="5">
+        <v>0</v>
+      </c>
+      <c r="G167" s="5">
+        <v>0</v>
+      </c>
+      <c r="H167" s="5">
+        <v>0</v>
+      </c>
+      <c r="I167" s="5">
+        <v>0</v>
+      </c>
+      <c r="J167" s="5">
+        <v>0</v>
+      </c>
+      <c r="K167" s="9"/>
+      <c r="L167" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L166+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M167" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M166+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N167" s="5"/>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B168" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C168" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D168" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 32 周</v>
+      </c>
+      <c r="E168" s="4">
+        <v>44047</v>
+      </c>
+      <c r="F168" s="5">
+        <v>0</v>
+      </c>
+      <c r="G168" s="5">
+        <v>0</v>
+      </c>
+      <c r="H168" s="5">
+        <v>1</v>
+      </c>
+      <c r="I168" s="5">
+        <v>1</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0</v>
+      </c>
+      <c r="K168" s="9"/>
+      <c r="L168" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L167+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M168" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M167+1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N168" s="5"/>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B169" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C169" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D169" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 32 周</v>
+      </c>
+      <c r="E169" s="4">
+        <v>44048</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0</v>
+      </c>
+      <c r="G169" s="5">
+        <v>0</v>
+      </c>
+      <c r="H169" s="5">
+        <v>0</v>
+      </c>
+      <c r="I169" s="5">
+        <v>0</v>
+      </c>
+      <c r="J169" s="5">
+        <v>0</v>
+      </c>
+      <c r="K169" s="9"/>
+      <c r="L169" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L168+1)</f>
+        <v>1</v>
+      </c>
+      <c r="M169" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M168+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N169" s="5"/>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B170" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C170" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D170" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 32 周</v>
+      </c>
+      <c r="E170" s="4">
+        <v>44049</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0</v>
+      </c>
+      <c r="G170" s="5">
+        <v>0</v>
+      </c>
+      <c r="H170" s="5">
+        <v>0</v>
+      </c>
+      <c r="I170" s="5">
+        <v>0</v>
+      </c>
+      <c r="J170" s="5">
+        <v>0</v>
+      </c>
+      <c r="K170" s="9"/>
+      <c r="L170" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L169+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M170" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M169+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N170" s="5"/>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B171" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C171" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D171" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 32 周</v>
+      </c>
+      <c r="E171" s="4">
+        <v>44050</v>
+      </c>
+      <c r="F171" s="5">
+        <v>0</v>
+      </c>
+      <c r="G171" s="5">
+        <v>0</v>
+      </c>
+      <c r="H171" s="5">
+        <v>0</v>
+      </c>
+      <c r="I171" s="5">
+        <v>0</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0</v>
+      </c>
+      <c r="K171" s="9"/>
+      <c r="L171" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L170+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M171" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M170+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N171" s="5"/>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B172" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C172" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D172" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 32 周</v>
+      </c>
+      <c r="E172" s="4">
+        <v>44051</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0</v>
+      </c>
+      <c r="G172" s="5">
+        <v>0</v>
+      </c>
+      <c r="H172" s="5">
+        <v>0</v>
+      </c>
+      <c r="I172" s="5">
+        <v>0</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0</v>
+      </c>
+      <c r="K172" s="9"/>
+      <c r="L172" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L171+1)</f>
+        <v>4</v>
+      </c>
+      <c r="M172" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M171+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N172" s="5"/>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B173" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C173" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D173" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 32 周</v>
+      </c>
+      <c r="E173" s="4">
+        <v>44052</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0</v>
+      </c>
+      <c r="G173" s="5">
+        <v>0</v>
+      </c>
+      <c r="H173" s="5">
+        <v>0</v>
+      </c>
+      <c r="I173" s="5">
+        <v>0</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0</v>
+      </c>
+      <c r="K173" s="9"/>
+      <c r="L173" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L172+1)</f>
+        <v>5</v>
+      </c>
+      <c r="M173" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M172+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N173" s="5"/>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B174" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C174" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D174" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 33 周</v>
+      </c>
+      <c r="E174" s="4">
+        <v>44053</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0</v>
+      </c>
+      <c r="G174" s="5">
+        <v>0</v>
+      </c>
+      <c r="H174" s="5">
+        <v>0</v>
+      </c>
+      <c r="I174" s="5">
+        <v>0</v>
+      </c>
+      <c r="J174" s="5">
+        <v>0</v>
+      </c>
+      <c r="K174" s="9"/>
+      <c r="L174" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L173+1)</f>
+        <v>6</v>
+      </c>
+      <c r="M174" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M173+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N174" s="5"/>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B175" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C175" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D175" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 33 周</v>
+      </c>
+      <c r="E175" s="4">
+        <v>44054</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0</v>
+      </c>
+      <c r="G175" s="5">
+        <v>0</v>
+      </c>
+      <c r="H175" s="5">
+        <v>0</v>
+      </c>
+      <c r="I175" s="5">
+        <v>0</v>
+      </c>
+      <c r="J175" s="5">
+        <v>0</v>
+      </c>
+      <c r="K175" s="9"/>
+      <c r="L175" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L174+1)</f>
+        <v>7</v>
+      </c>
+      <c r="M175" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M174+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N175" s="5"/>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B176" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C176" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D176" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 33 周</v>
+      </c>
+      <c r="E176" s="4">
+        <v>44055</v>
+      </c>
+      <c r="F176" s="5">
+        <v>0</v>
+      </c>
+      <c r="G176" s="5">
+        <v>0</v>
+      </c>
+      <c r="H176" s="5">
+        <v>0</v>
+      </c>
+      <c r="I176" s="5">
+        <v>0</v>
+      </c>
+      <c r="J176" s="5">
+        <v>0</v>
+      </c>
+      <c r="K176" s="9"/>
+      <c r="L176" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L175+1)</f>
+        <v>8</v>
+      </c>
+      <c r="M176" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M175+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N176" s="5"/>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B177" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C177" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D177" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 33 周</v>
+      </c>
+      <c r="E177" s="4">
+        <v>44056</v>
+      </c>
+      <c r="F177" s="5">
+        <v>0</v>
+      </c>
+      <c r="G177" s="5">
+        <v>0</v>
+      </c>
+      <c r="H177" s="5">
+        <v>0</v>
+      </c>
+      <c r="I177" s="5">
+        <v>0</v>
+      </c>
+      <c r="J177" s="5">
+        <v>0</v>
+      </c>
+      <c r="K177" s="9"/>
+      <c r="L177" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L176+1)</f>
+        <v>9</v>
+      </c>
+      <c r="M177" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M176+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N177" s="5"/>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B178" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C178" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D178" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 33 周</v>
+      </c>
+      <c r="E178" s="4">
+        <v>44057</v>
+      </c>
+      <c r="F178" s="5">
+        <v>0</v>
+      </c>
+      <c r="G178" s="5">
+        <v>0</v>
+      </c>
+      <c r="H178" s="5">
+        <v>0</v>
+      </c>
+      <c r="I178" s="5">
+        <v>0</v>
+      </c>
+      <c r="J178" s="5">
+        <v>0</v>
+      </c>
+      <c r="K178" s="9"/>
+      <c r="L178" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L177+1)</f>
+        <v>10</v>
+      </c>
+      <c r="M178" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M177+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N178" s="5"/>
+    </row>
+    <row r="179" spans="1:14">
+      <c r="A179" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B179" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C179" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D179" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 33 周</v>
+      </c>
+      <c r="E179" s="4">
+        <v>44058</v>
+      </c>
+      <c r="F179" s="5">
+        <v>0</v>
+      </c>
+      <c r="G179" s="5">
+        <v>0</v>
+      </c>
+      <c r="H179" s="5">
+        <v>0</v>
+      </c>
+      <c r="I179" s="5">
+        <v>0</v>
+      </c>
+      <c r="J179" s="5">
+        <v>0</v>
+      </c>
+      <c r="K179" s="9"/>
+      <c r="L179" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L178+1)</f>
+        <v>11</v>
+      </c>
+      <c r="M179" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M178+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N179" s="5"/>
+    </row>
+    <row r="180" spans="1:14">
+      <c r="A180" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B180" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C180" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D180" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 33 周</v>
+      </c>
+      <c r="E180" s="4">
+        <v>44059</v>
+      </c>
+      <c r="F180" s="5">
+        <v>0</v>
+      </c>
+      <c r="G180" s="5">
+        <v>0</v>
+      </c>
+      <c r="H180" s="5">
+        <v>0</v>
+      </c>
+      <c r="I180" s="5">
+        <v>0</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0</v>
+      </c>
+      <c r="K180" s="9"/>
+      <c r="L180" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L179+1)</f>
+        <v>12</v>
+      </c>
+      <c r="M180" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M179+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N180" s="5"/>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="A181" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B181" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C181" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D181" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 34 周</v>
+      </c>
+      <c r="E181" s="4">
+        <v>44060</v>
+      </c>
+      <c r="F181" s="5">
+        <v>0</v>
+      </c>
+      <c r="G181" s="5">
+        <v>0</v>
+      </c>
+      <c r="H181" s="5">
+        <v>0</v>
+      </c>
+      <c r="I181" s="5">
+        <v>0</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0</v>
+      </c>
+      <c r="K181" s="9"/>
+      <c r="L181" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L180+1)</f>
+        <v>13</v>
+      </c>
+      <c r="M181" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M180+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N181" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF429FA7-E2E5-EB44-AC38-E41DBF1D5200}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A124267-5183-F54F-8319-0D1EA05C40D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -889,7 +889,7 @@
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="H164" sqref="H164"/>
+      <selection activeCell="I171" sqref="I171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8868,10 +8868,10 @@
         <v>0</v>
       </c>
       <c r="H171" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" s="5">
         <v>0</v>
@@ -8879,11 +8879,11 @@
       <c r="K171" s="9"/>
       <c r="L171" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L170+1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M171" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M170+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N171" s="5"/>
     </row>
@@ -8914,10 +8914,10 @@
         <v>0</v>
       </c>
       <c r="H172" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" s="5">
         <v>0</v>
@@ -8925,11 +8925,11 @@
       <c r="K172" s="9"/>
       <c r="L172" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L171+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M172" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M171+1, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N172" s="5"/>
     </row>
@@ -8971,7 +8971,7 @@
       <c r="K173" s="9"/>
       <c r="L173" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L172+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M173" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M172+1, 0)</f>
@@ -9017,7 +9017,7 @@
       <c r="K174" s="9"/>
       <c r="L174" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L173+1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M174" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M173+1, 0)</f>
@@ -9063,7 +9063,7 @@
       <c r="K175" s="9"/>
       <c r="L175" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L174+1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M175" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M174+1, 0)</f>
@@ -9109,7 +9109,7 @@
       <c r="K176" s="9"/>
       <c r="L176" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L175+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M176" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M175+1, 0)</f>
@@ -9155,7 +9155,7 @@
       <c r="K177" s="9"/>
       <c r="L177" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L176+1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M177" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M176+1, 0)</f>
@@ -9201,7 +9201,7 @@
       <c r="K178" s="9"/>
       <c r="L178" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L177+1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M178" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M177+1, 0)</f>
@@ -9247,7 +9247,7 @@
       <c r="K179" s="9"/>
       <c r="L179" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L178+1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M179" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M178+1, 0)</f>
@@ -9293,7 +9293,7 @@
       <c r="K180" s="9"/>
       <c r="L180" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L179+1)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M180" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M179+1, 0)</f>
@@ -9339,7 +9339,7 @@
       <c r="K181" s="9"/>
       <c r="L181" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L180+1)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M181" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M180+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A124267-5183-F54F-8319-0D1EA05C40D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644D96F-6F60-664D-810C-989B9992EF34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -889,7 +889,7 @@
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="I171" sqref="I171"/>
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9098,10 +9098,10 @@
         <v>0</v>
       </c>
       <c r="H176" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" s="5">
         <v>0</v>
@@ -9109,11 +9109,11 @@
       <c r="K176" s="9"/>
       <c r="L176" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L175+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M176" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M175+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N176" s="5"/>
     </row>
@@ -9155,7 +9155,7 @@
       <c r="K177" s="9"/>
       <c r="L177" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L176+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M177" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M176+1, 0)</f>
@@ -9201,7 +9201,7 @@
       <c r="K178" s="9"/>
       <c r="L178" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L177+1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M178" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M177+1, 0)</f>
@@ -9247,7 +9247,7 @@
       <c r="K179" s="9"/>
       <c r="L179" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L178+1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M179" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M178+1, 0)</f>
@@ -9293,7 +9293,7 @@
       <c r="K180" s="9"/>
       <c r="L180" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L179+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M180" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M179+1, 0)</f>
@@ -9339,7 +9339,7 @@
       <c r="K181" s="9"/>
       <c r="L181" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L180+1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M181" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M180+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644D96F-6F60-664D-810C-989B9992EF34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988206D-1458-7C4C-AC1D-659C62381B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -889,7 +889,7 @@
   <dimension ref="A1:R181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+      <selection activeCell="I180" sqref="I180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9282,10 +9282,10 @@
         <v>0</v>
       </c>
       <c r="H180" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" s="5">
         <v>0</v>
@@ -9293,11 +9293,11 @@
       <c r="K180" s="9"/>
       <c r="L180" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L179+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M180" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M179+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N180" s="5"/>
     </row>
@@ -9339,7 +9339,7 @@
       <c r="K181" s="9"/>
       <c r="L181" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L180+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M181" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M180+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988206D-1458-7C4C-AC1D-659C62381B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D1F87-E32B-F14C-9B2A-81CF13D316FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -552,8 +552,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N181" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A4:N181" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N201" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A4:N201" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N145">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
@@ -886,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:R181"/>
+  <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="I180" sqref="I180"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9347,6 +9347,926 @@
       </c>
       <c r="N181" s="5"/>
     </row>
+    <row r="182" spans="1:14">
+      <c r="A182" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B182" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C182" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D182" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 34 周</v>
+      </c>
+      <c r="E182" s="4">
+        <v>44061</v>
+      </c>
+      <c r="F182" s="5">
+        <v>0</v>
+      </c>
+      <c r="G182" s="5">
+        <v>0</v>
+      </c>
+      <c r="H182" s="5">
+        <v>0</v>
+      </c>
+      <c r="I182" s="5">
+        <v>0</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0</v>
+      </c>
+      <c r="K182" s="9"/>
+      <c r="L182" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L181+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M182" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M181+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N182" s="5"/>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="A183" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B183" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C183" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D183" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 34 周</v>
+      </c>
+      <c r="E183" s="4">
+        <v>44062</v>
+      </c>
+      <c r="F183" s="5">
+        <v>0</v>
+      </c>
+      <c r="G183" s="5">
+        <v>0</v>
+      </c>
+      <c r="H183" s="5">
+        <v>0</v>
+      </c>
+      <c r="I183" s="5">
+        <v>0</v>
+      </c>
+      <c r="J183" s="5">
+        <v>0</v>
+      </c>
+      <c r="K183" s="9"/>
+      <c r="L183" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L182+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M183" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M182+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N183" s="5"/>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="A184" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B184" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C184" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D184" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 34 周</v>
+      </c>
+      <c r="E184" s="4">
+        <v>44063</v>
+      </c>
+      <c r="F184" s="5">
+        <v>0</v>
+      </c>
+      <c r="G184" s="5">
+        <v>0</v>
+      </c>
+      <c r="H184" s="5">
+        <v>1</v>
+      </c>
+      <c r="I184" s="5">
+        <v>1</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0</v>
+      </c>
+      <c r="K184" s="9"/>
+      <c r="L184" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L183+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M184" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M183+1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N184" s="5"/>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="A185" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B185" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C185" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D185" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 34 周</v>
+      </c>
+      <c r="E185" s="4">
+        <v>44064</v>
+      </c>
+      <c r="F185" s="5">
+        <v>0</v>
+      </c>
+      <c r="G185" s="5">
+        <v>0</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0</v>
+      </c>
+      <c r="I185" s="5">
+        <v>0</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0</v>
+      </c>
+      <c r="K185" s="9"/>
+      <c r="L185" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L184+1)</f>
+        <v>1</v>
+      </c>
+      <c r="M185" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M184+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N185" s="5"/>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="A186" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B186" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C186" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D186" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 34 周</v>
+      </c>
+      <c r="E186" s="4">
+        <v>44065</v>
+      </c>
+      <c r="F186" s="5">
+        <v>0</v>
+      </c>
+      <c r="G186" s="5">
+        <v>0</v>
+      </c>
+      <c r="H186" s="5">
+        <v>0</v>
+      </c>
+      <c r="I186" s="5">
+        <v>0</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0</v>
+      </c>
+      <c r="K186" s="9"/>
+      <c r="L186" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L185+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M186" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M185+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N186" s="5"/>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="A187" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B187" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C187" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D187" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 34 周</v>
+      </c>
+      <c r="E187" s="4">
+        <v>44066</v>
+      </c>
+      <c r="F187" s="5">
+        <v>0</v>
+      </c>
+      <c r="G187" s="5">
+        <v>0</v>
+      </c>
+      <c r="H187" s="5">
+        <v>0</v>
+      </c>
+      <c r="I187" s="5">
+        <v>0</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0</v>
+      </c>
+      <c r="K187" s="9"/>
+      <c r="L187" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L186+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M187" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M186+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N187" s="5"/>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="A188" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B188" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C188" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D188" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 35 周</v>
+      </c>
+      <c r="E188" s="4">
+        <v>44067</v>
+      </c>
+      <c r="F188" s="5">
+        <v>0</v>
+      </c>
+      <c r="G188" s="5">
+        <v>0</v>
+      </c>
+      <c r="H188" s="5">
+        <v>0</v>
+      </c>
+      <c r="I188" s="5">
+        <v>0</v>
+      </c>
+      <c r="J188" s="5">
+        <v>0</v>
+      </c>
+      <c r="K188" s="9"/>
+      <c r="L188" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L187+1)</f>
+        <v>4</v>
+      </c>
+      <c r="M188" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M187+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N188" s="5"/>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="A189" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B189" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C189" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D189" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 35 周</v>
+      </c>
+      <c r="E189" s="4">
+        <v>44068</v>
+      </c>
+      <c r="F189" s="5">
+        <v>0</v>
+      </c>
+      <c r="G189" s="5">
+        <v>0</v>
+      </c>
+      <c r="H189" s="5">
+        <v>0</v>
+      </c>
+      <c r="I189" s="5">
+        <v>0</v>
+      </c>
+      <c r="J189" s="5">
+        <v>0</v>
+      </c>
+      <c r="K189" s="9"/>
+      <c r="L189" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L188+1)</f>
+        <v>5</v>
+      </c>
+      <c r="M189" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M188+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N189" s="5"/>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="A190" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B190" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C190" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D190" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 35 周</v>
+      </c>
+      <c r="E190" s="4">
+        <v>44069</v>
+      </c>
+      <c r="F190" s="5">
+        <v>0</v>
+      </c>
+      <c r="G190" s="5">
+        <v>0</v>
+      </c>
+      <c r="H190" s="5">
+        <v>0</v>
+      </c>
+      <c r="I190" s="5">
+        <v>0</v>
+      </c>
+      <c r="J190" s="5">
+        <v>0</v>
+      </c>
+      <c r="K190" s="9"/>
+      <c r="L190" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L189+1)</f>
+        <v>6</v>
+      </c>
+      <c r="M190" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M189+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N190" s="5"/>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="A191" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B191" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C191" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D191" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 35 周</v>
+      </c>
+      <c r="E191" s="4">
+        <v>44070</v>
+      </c>
+      <c r="F191" s="5">
+        <v>0</v>
+      </c>
+      <c r="G191" s="5">
+        <v>0</v>
+      </c>
+      <c r="H191" s="5">
+        <v>0</v>
+      </c>
+      <c r="I191" s="5">
+        <v>0</v>
+      </c>
+      <c r="J191" s="5">
+        <v>0</v>
+      </c>
+      <c r="K191" s="9"/>
+      <c r="L191" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L190+1)</f>
+        <v>7</v>
+      </c>
+      <c r="M191" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M190+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N191" s="5"/>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="A192" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B192" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C192" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D192" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 35 周</v>
+      </c>
+      <c r="E192" s="4">
+        <v>44071</v>
+      </c>
+      <c r="F192" s="5">
+        <v>0</v>
+      </c>
+      <c r="G192" s="5">
+        <v>0</v>
+      </c>
+      <c r="H192" s="5">
+        <v>0</v>
+      </c>
+      <c r="I192" s="5">
+        <v>0</v>
+      </c>
+      <c r="J192" s="5">
+        <v>0</v>
+      </c>
+      <c r="K192" s="9"/>
+      <c r="L192" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L191+1)</f>
+        <v>8</v>
+      </c>
+      <c r="M192" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M191+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N192" s="5"/>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="A193" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B193" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C193" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D193" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 35 周</v>
+      </c>
+      <c r="E193" s="4">
+        <v>44072</v>
+      </c>
+      <c r="F193" s="5">
+        <v>0</v>
+      </c>
+      <c r="G193" s="5">
+        <v>0</v>
+      </c>
+      <c r="H193" s="5">
+        <v>0</v>
+      </c>
+      <c r="I193" s="5">
+        <v>0</v>
+      </c>
+      <c r="J193" s="5">
+        <v>0</v>
+      </c>
+      <c r="K193" s="9"/>
+      <c r="L193" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L192+1)</f>
+        <v>9</v>
+      </c>
+      <c r="M193" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M192+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N193" s="5"/>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B194" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C194" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D194" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 35 周</v>
+      </c>
+      <c r="E194" s="4">
+        <v>44073</v>
+      </c>
+      <c r="F194" s="5">
+        <v>0</v>
+      </c>
+      <c r="G194" s="5">
+        <v>0</v>
+      </c>
+      <c r="H194" s="5">
+        <v>0</v>
+      </c>
+      <c r="I194" s="5">
+        <v>0</v>
+      </c>
+      <c r="J194" s="5">
+        <v>0</v>
+      </c>
+      <c r="K194" s="9"/>
+      <c r="L194" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L193+1)</f>
+        <v>10</v>
+      </c>
+      <c r="M194" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M193+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N194" s="5"/>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="A195" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B195" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 3 季度</v>
+      </c>
+      <c r="C195" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>8 月</v>
+      </c>
+      <c r="D195" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 36 周</v>
+      </c>
+      <c r="E195" s="4">
+        <v>44074</v>
+      </c>
+      <c r="F195" s="5">
+        <v>0</v>
+      </c>
+      <c r="G195" s="5">
+        <v>0</v>
+      </c>
+      <c r="H195" s="5">
+        <v>0</v>
+      </c>
+      <c r="I195" s="5">
+        <v>0</v>
+      </c>
+      <c r="J195" s="5">
+        <v>0</v>
+      </c>
+      <c r="K195" s="9"/>
+      <c r="L195" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L194+1)</f>
+        <v>11</v>
+      </c>
+      <c r="M195" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M194+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N195" s="5"/>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B196" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C196" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D196" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 36 周</v>
+      </c>
+      <c r="E196" s="4">
+        <v>44075</v>
+      </c>
+      <c r="F196" s="5">
+        <v>0</v>
+      </c>
+      <c r="G196" s="5">
+        <v>0</v>
+      </c>
+      <c r="H196" s="5">
+        <v>0</v>
+      </c>
+      <c r="I196" s="5">
+        <v>0</v>
+      </c>
+      <c r="J196" s="5">
+        <v>0</v>
+      </c>
+      <c r="K196" s="9"/>
+      <c r="L196" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L195+1)</f>
+        <v>12</v>
+      </c>
+      <c r="M196" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M195+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N196" s="5"/>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="A197" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B197" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C197" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D197" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 36 周</v>
+      </c>
+      <c r="E197" s="4">
+        <v>44076</v>
+      </c>
+      <c r="F197" s="5">
+        <v>0</v>
+      </c>
+      <c r="G197" s="5">
+        <v>0</v>
+      </c>
+      <c r="H197" s="5">
+        <v>0</v>
+      </c>
+      <c r="I197" s="5">
+        <v>0</v>
+      </c>
+      <c r="J197" s="5">
+        <v>0</v>
+      </c>
+      <c r="K197" s="9"/>
+      <c r="L197" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L196+1)</f>
+        <v>13</v>
+      </c>
+      <c r="M197" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M196+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N197" s="5"/>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="A198" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B198" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C198" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D198" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 36 周</v>
+      </c>
+      <c r="E198" s="4">
+        <v>44077</v>
+      </c>
+      <c r="F198" s="5">
+        <v>0</v>
+      </c>
+      <c r="G198" s="5">
+        <v>0</v>
+      </c>
+      <c r="H198" s="5">
+        <v>0</v>
+      </c>
+      <c r="I198" s="5">
+        <v>0</v>
+      </c>
+      <c r="J198" s="5">
+        <v>0</v>
+      </c>
+      <c r="K198" s="9"/>
+      <c r="L198" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L197+1)</f>
+        <v>14</v>
+      </c>
+      <c r="M198" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M197+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N198" s="5"/>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="A199" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B199" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C199" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D199" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 36 周</v>
+      </c>
+      <c r="E199" s="4">
+        <v>44078</v>
+      </c>
+      <c r="F199" s="5">
+        <v>0</v>
+      </c>
+      <c r="G199" s="5">
+        <v>0</v>
+      </c>
+      <c r="H199" s="5">
+        <v>0</v>
+      </c>
+      <c r="I199" s="5">
+        <v>0</v>
+      </c>
+      <c r="J199" s="5">
+        <v>0</v>
+      </c>
+      <c r="K199" s="9"/>
+      <c r="L199" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L198+1)</f>
+        <v>15</v>
+      </c>
+      <c r="M199" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M198+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N199" s="5"/>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B200" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C200" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D200" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 36 周</v>
+      </c>
+      <c r="E200" s="4">
+        <v>44079</v>
+      </c>
+      <c r="F200" s="5">
+        <v>0</v>
+      </c>
+      <c r="G200" s="5">
+        <v>0</v>
+      </c>
+      <c r="H200" s="5">
+        <v>0</v>
+      </c>
+      <c r="I200" s="5">
+        <v>0</v>
+      </c>
+      <c r="J200" s="5">
+        <v>0</v>
+      </c>
+      <c r="K200" s="9"/>
+      <c r="L200" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L199+1)</f>
+        <v>16</v>
+      </c>
+      <c r="M200" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M199+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N200" s="5"/>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="A201" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B201" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C201" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D201" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 36 周</v>
+      </c>
+      <c r="E201" s="4">
+        <v>44080</v>
+      </c>
+      <c r="F201" s="5">
+        <v>0</v>
+      </c>
+      <c r="G201" s="5">
+        <v>0</v>
+      </c>
+      <c r="H201" s="5">
+        <v>0</v>
+      </c>
+      <c r="I201" s="5">
+        <v>0</v>
+      </c>
+      <c r="J201" s="5">
+        <v>0</v>
+      </c>
+      <c r="K201" s="9"/>
+      <c r="L201" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L200+1)</f>
+        <v>17</v>
+      </c>
+      <c r="M201" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M200+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N201" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N3"/>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49D1F87-E32B-F14C-9B2A-81CF13D316FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6D95D-D556-E44C-8B09-3BA3250380AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="I199" sqref="I199"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9926,10 +9926,10 @@
         <v>0</v>
       </c>
       <c r="H194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" s="5">
         <v>0</v>
@@ -9937,11 +9937,11 @@
       <c r="K194" s="9"/>
       <c r="L194" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L193+1)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M194" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M193+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194" s="5"/>
     </row>
@@ -9983,7 +9983,7 @@
       <c r="K195" s="9"/>
       <c r="L195" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L194+1)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M195" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M194+1, 0)</f>
@@ -10029,7 +10029,7 @@
       <c r="K196" s="9"/>
       <c r="L196" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L195+1)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M196" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M195+1, 0)</f>
@@ -10075,7 +10075,7 @@
       <c r="K197" s="9"/>
       <c r="L197" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L196+1)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M197" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M196+1, 0)</f>
@@ -10121,7 +10121,7 @@
       <c r="K198" s="9"/>
       <c r="L198" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L197+1)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M198" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M197+1, 0)</f>
@@ -10167,7 +10167,7 @@
       <c r="K199" s="9"/>
       <c r="L199" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L198+1)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M199" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M198+1, 0)</f>
@@ -10213,7 +10213,7 @@
       <c r="K200" s="9"/>
       <c r="L200" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L199+1)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M200" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M199+1, 0)</f>
@@ -10259,7 +10259,7 @@
       <c r="K201" s="9"/>
       <c r="L201" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L200+1)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M201" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M200+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A6D95D-D556-E44C-8B09-3BA3250380AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35A34A-7D1F-D54F-BB98-8459823CE00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -105,11 +105,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -174,6 +175,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -233,6 +241,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,8 +575,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N201" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A4:N201" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DA116044-F9E7-1B4C-A35A-5C183A5296A1}" name="records" displayName="records" ref="A4:N319" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A4:N319" xr:uid="{B97808FE-FDC5-9849-A57E-25C657A820BF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:N145">
     <sortCondition ref="E5:E58"/>
     <sortCondition ref="F5:F58"/>
@@ -886,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
-  <dimension ref="A1:R201"/>
+  <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="I245" sqref="I245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10267,6 +10290,5149 @@
       </c>
       <c r="N201" s="5"/>
     </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B202" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C202" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D202" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 37 周</v>
+      </c>
+      <c r="E202" s="4">
+        <v>44081</v>
+      </c>
+      <c r="F202" s="5">
+        <v>0</v>
+      </c>
+      <c r="G202" s="5">
+        <v>0</v>
+      </c>
+      <c r="H202" s="5">
+        <v>0</v>
+      </c>
+      <c r="I202" s="5">
+        <v>0</v>
+      </c>
+      <c r="J202" s="5">
+        <v>0</v>
+      </c>
+      <c r="K202" s="9"/>
+      <c r="L202" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L201+1)</f>
+        <v>8</v>
+      </c>
+      <c r="M202" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M201+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N202" s="5"/>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="A203" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B203" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C203" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D203" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 37 周</v>
+      </c>
+      <c r="E203" s="4">
+        <v>44082</v>
+      </c>
+      <c r="F203" s="5">
+        <v>0</v>
+      </c>
+      <c r="G203" s="5">
+        <v>0</v>
+      </c>
+      <c r="H203" s="5">
+        <v>0</v>
+      </c>
+      <c r="I203" s="5">
+        <v>0</v>
+      </c>
+      <c r="J203" s="5">
+        <v>0</v>
+      </c>
+      <c r="K203" s="9"/>
+      <c r="L203" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L202+1)</f>
+        <v>9</v>
+      </c>
+      <c r="M203" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M202+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N203" s="5"/>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="A204" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B204" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C204" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D204" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 37 周</v>
+      </c>
+      <c r="E204" s="4">
+        <v>44083</v>
+      </c>
+      <c r="F204" s="5">
+        <v>0</v>
+      </c>
+      <c r="G204" s="5">
+        <v>0</v>
+      </c>
+      <c r="H204" s="5">
+        <v>0</v>
+      </c>
+      <c r="I204" s="5">
+        <v>0</v>
+      </c>
+      <c r="J204" s="5">
+        <v>0</v>
+      </c>
+      <c r="K204" s="9"/>
+      <c r="L204" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L203+1)</f>
+        <v>10</v>
+      </c>
+      <c r="M204" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M203+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N204" s="5"/>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="A205" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B205" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C205" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D205" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 37 周</v>
+      </c>
+      <c r="E205" s="4">
+        <v>44084</v>
+      </c>
+      <c r="F205" s="5">
+        <v>0</v>
+      </c>
+      <c r="G205" s="5">
+        <v>0</v>
+      </c>
+      <c r="H205" s="5">
+        <v>0</v>
+      </c>
+      <c r="I205" s="5">
+        <v>0</v>
+      </c>
+      <c r="J205" s="5">
+        <v>0</v>
+      </c>
+      <c r="K205" s="9"/>
+      <c r="L205" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L204+1)</f>
+        <v>11</v>
+      </c>
+      <c r="M205" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M204+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N205" s="5"/>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B206" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C206" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D206" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 37 周</v>
+      </c>
+      <c r="E206" s="4">
+        <v>44085</v>
+      </c>
+      <c r="F206" s="5">
+        <v>0</v>
+      </c>
+      <c r="G206" s="5">
+        <v>0</v>
+      </c>
+      <c r="H206" s="5">
+        <v>0</v>
+      </c>
+      <c r="I206" s="5">
+        <v>0</v>
+      </c>
+      <c r="J206" s="5">
+        <v>0</v>
+      </c>
+      <c r="K206" s="9"/>
+      <c r="L206" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L205+1)</f>
+        <v>12</v>
+      </c>
+      <c r="M206" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M205+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N206" s="5"/>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="A207" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B207" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C207" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D207" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 37 周</v>
+      </c>
+      <c r="E207" s="4">
+        <v>44086</v>
+      </c>
+      <c r="F207" s="5">
+        <v>0</v>
+      </c>
+      <c r="G207" s="5">
+        <v>0</v>
+      </c>
+      <c r="H207" s="5">
+        <v>0</v>
+      </c>
+      <c r="I207" s="5">
+        <v>0</v>
+      </c>
+      <c r="J207" s="5">
+        <v>0</v>
+      </c>
+      <c r="K207" s="9"/>
+      <c r="L207" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L206+1)</f>
+        <v>13</v>
+      </c>
+      <c r="M207" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M206+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N207" s="5"/>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="A208" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B208" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C208" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D208" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 37 周</v>
+      </c>
+      <c r="E208" s="4">
+        <v>44087</v>
+      </c>
+      <c r="F208" s="5">
+        <v>0</v>
+      </c>
+      <c r="G208" s="5">
+        <v>0</v>
+      </c>
+      <c r="H208" s="5">
+        <v>0</v>
+      </c>
+      <c r="I208" s="5">
+        <v>0</v>
+      </c>
+      <c r="J208" s="5">
+        <v>0</v>
+      </c>
+      <c r="K208" s="9"/>
+      <c r="L208" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L207+1)</f>
+        <v>14</v>
+      </c>
+      <c r="M208" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M207+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N208" s="5"/>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="A209" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B209" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C209" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D209" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 38 周</v>
+      </c>
+      <c r="E209" s="4">
+        <v>44088</v>
+      </c>
+      <c r="F209" s="5">
+        <v>0</v>
+      </c>
+      <c r="G209" s="5">
+        <v>0</v>
+      </c>
+      <c r="H209" s="5">
+        <v>0</v>
+      </c>
+      <c r="I209" s="5">
+        <v>0</v>
+      </c>
+      <c r="J209" s="5">
+        <v>0</v>
+      </c>
+      <c r="K209" s="9"/>
+      <c r="L209" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L208+1)</f>
+        <v>15</v>
+      </c>
+      <c r="M209" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M208+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N209" s="5"/>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="A210" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B210" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C210" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D210" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 38 周</v>
+      </c>
+      <c r="E210" s="4">
+        <v>44089</v>
+      </c>
+      <c r="F210" s="5">
+        <v>0</v>
+      </c>
+      <c r="G210" s="5">
+        <v>0</v>
+      </c>
+      <c r="H210" s="5">
+        <v>0</v>
+      </c>
+      <c r="I210" s="5">
+        <v>0</v>
+      </c>
+      <c r="J210" s="5">
+        <v>0</v>
+      </c>
+      <c r="K210" s="9"/>
+      <c r="L210" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L209+1)</f>
+        <v>16</v>
+      </c>
+      <c r="M210" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M209+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N210" s="5"/>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="A211" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B211" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C211" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D211" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 38 周</v>
+      </c>
+      <c r="E211" s="4">
+        <v>44090</v>
+      </c>
+      <c r="F211" s="5">
+        <v>0</v>
+      </c>
+      <c r="G211" s="5">
+        <v>0</v>
+      </c>
+      <c r="H211" s="5">
+        <v>0</v>
+      </c>
+      <c r="I211" s="5">
+        <v>0</v>
+      </c>
+      <c r="J211" s="5">
+        <v>0</v>
+      </c>
+      <c r="K211" s="9"/>
+      <c r="L211" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L210+1)</f>
+        <v>17</v>
+      </c>
+      <c r="M211" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M210+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N211" s="5"/>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="A212" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B212" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C212" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D212" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 38 周</v>
+      </c>
+      <c r="E212" s="4">
+        <v>44091</v>
+      </c>
+      <c r="F212" s="5">
+        <v>0</v>
+      </c>
+      <c r="G212" s="5">
+        <v>0</v>
+      </c>
+      <c r="H212" s="5">
+        <v>0</v>
+      </c>
+      <c r="I212" s="5">
+        <v>0</v>
+      </c>
+      <c r="J212" s="5">
+        <v>0</v>
+      </c>
+      <c r="K212" s="9"/>
+      <c r="L212" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L211+1)</f>
+        <v>18</v>
+      </c>
+      <c r="M212" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M211+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N212" s="5"/>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="A213" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B213" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C213" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D213" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 38 周</v>
+      </c>
+      <c r="E213" s="4">
+        <v>44092</v>
+      </c>
+      <c r="F213" s="5">
+        <v>0</v>
+      </c>
+      <c r="G213" s="5">
+        <v>0</v>
+      </c>
+      <c r="H213" s="5">
+        <v>0</v>
+      </c>
+      <c r="I213" s="5">
+        <v>0</v>
+      </c>
+      <c r="J213" s="5">
+        <v>0</v>
+      </c>
+      <c r="K213" s="9"/>
+      <c r="L213" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L212+1)</f>
+        <v>19</v>
+      </c>
+      <c r="M213" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M212+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N213" s="5"/>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="A214" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B214" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C214" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D214" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 38 周</v>
+      </c>
+      <c r="E214" s="4">
+        <v>44093</v>
+      </c>
+      <c r="F214" s="5">
+        <v>0</v>
+      </c>
+      <c r="G214" s="5">
+        <v>0</v>
+      </c>
+      <c r="H214" s="5">
+        <v>0</v>
+      </c>
+      <c r="I214" s="5">
+        <v>0</v>
+      </c>
+      <c r="J214" s="5">
+        <v>0</v>
+      </c>
+      <c r="K214" s="9"/>
+      <c r="L214" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L213+1)</f>
+        <v>20</v>
+      </c>
+      <c r="M214" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M213+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N214" s="5"/>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="A215" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B215" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C215" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D215" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 38 周</v>
+      </c>
+      <c r="E215" s="4">
+        <v>44094</v>
+      </c>
+      <c r="F215" s="5">
+        <v>0</v>
+      </c>
+      <c r="G215" s="5">
+        <v>0</v>
+      </c>
+      <c r="H215" s="5">
+        <v>0</v>
+      </c>
+      <c r="I215" s="5">
+        <v>0</v>
+      </c>
+      <c r="J215" s="5">
+        <v>0</v>
+      </c>
+      <c r="K215" s="9"/>
+      <c r="L215" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L214+1)</f>
+        <v>21</v>
+      </c>
+      <c r="M215" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M214+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N215" s="5"/>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="A216" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B216" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C216" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D216" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 39 周</v>
+      </c>
+      <c r="E216" s="4">
+        <v>44095</v>
+      </c>
+      <c r="F216" s="5">
+        <v>0</v>
+      </c>
+      <c r="G216" s="5">
+        <v>0</v>
+      </c>
+      <c r="H216" s="5">
+        <v>0</v>
+      </c>
+      <c r="I216" s="5">
+        <v>0</v>
+      </c>
+      <c r="J216" s="5">
+        <v>0</v>
+      </c>
+      <c r="K216" s="9"/>
+      <c r="L216" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L215+1)</f>
+        <v>22</v>
+      </c>
+      <c r="M216" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M215+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N216" s="5"/>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="A217" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B217" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C217" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D217" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 39 周</v>
+      </c>
+      <c r="E217" s="4">
+        <v>44096</v>
+      </c>
+      <c r="F217" s="5">
+        <v>0</v>
+      </c>
+      <c r="G217" s="5">
+        <v>0</v>
+      </c>
+      <c r="H217" s="5">
+        <v>0</v>
+      </c>
+      <c r="I217" s="5">
+        <v>0</v>
+      </c>
+      <c r="J217" s="5">
+        <v>0</v>
+      </c>
+      <c r="K217" s="9"/>
+      <c r="L217" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L216+1)</f>
+        <v>23</v>
+      </c>
+      <c r="M217" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M216+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N217" s="5"/>
+    </row>
+    <row r="218" spans="1:14">
+      <c r="A218" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B218" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C218" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D218" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 39 周</v>
+      </c>
+      <c r="E218" s="4">
+        <v>44097</v>
+      </c>
+      <c r="F218" s="5">
+        <v>0</v>
+      </c>
+      <c r="G218" s="5">
+        <v>0</v>
+      </c>
+      <c r="H218" s="5">
+        <v>0</v>
+      </c>
+      <c r="I218" s="5">
+        <v>0</v>
+      </c>
+      <c r="J218" s="5">
+        <v>0</v>
+      </c>
+      <c r="K218" s="9"/>
+      <c r="L218" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L217+1)</f>
+        <v>24</v>
+      </c>
+      <c r="M218" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M217+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N218" s="5"/>
+    </row>
+    <row r="219" spans="1:14">
+      <c r="A219" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B219" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C219" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D219" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 39 周</v>
+      </c>
+      <c r="E219" s="4">
+        <v>44098</v>
+      </c>
+      <c r="F219" s="5">
+        <v>0</v>
+      </c>
+      <c r="G219" s="5">
+        <v>0</v>
+      </c>
+      <c r="H219" s="5">
+        <v>0</v>
+      </c>
+      <c r="I219" s="5">
+        <v>0</v>
+      </c>
+      <c r="J219" s="5">
+        <v>0</v>
+      </c>
+      <c r="K219" s="9"/>
+      <c r="L219" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L218+1)</f>
+        <v>25</v>
+      </c>
+      <c r="M219" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M218+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N219" s="5"/>
+    </row>
+    <row r="220" spans="1:14">
+      <c r="A220" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B220" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C220" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D220" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 39 周</v>
+      </c>
+      <c r="E220" s="4">
+        <v>44099</v>
+      </c>
+      <c r="F220" s="5">
+        <v>0</v>
+      </c>
+      <c r="G220" s="5">
+        <v>0</v>
+      </c>
+      <c r="H220" s="5">
+        <v>0</v>
+      </c>
+      <c r="I220" s="5">
+        <v>0</v>
+      </c>
+      <c r="J220" s="5">
+        <v>0</v>
+      </c>
+      <c r="K220" s="9"/>
+      <c r="L220" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L219+1)</f>
+        <v>26</v>
+      </c>
+      <c r="M220" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M219+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N220" s="5"/>
+    </row>
+    <row r="221" spans="1:14">
+      <c r="A221" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B221" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C221" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D221" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 39 周</v>
+      </c>
+      <c r="E221" s="4">
+        <v>44100</v>
+      </c>
+      <c r="F221" s="5">
+        <v>0</v>
+      </c>
+      <c r="G221" s="5">
+        <v>0</v>
+      </c>
+      <c r="H221" s="5">
+        <v>0</v>
+      </c>
+      <c r="I221" s="5">
+        <v>0</v>
+      </c>
+      <c r="J221" s="5">
+        <v>0</v>
+      </c>
+      <c r="K221" s="9"/>
+      <c r="L221" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L220+1)</f>
+        <v>27</v>
+      </c>
+      <c r="M221" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M220+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N221" s="5"/>
+    </row>
+    <row r="222" spans="1:14">
+      <c r="A222" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B222" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C222" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D222" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 39 周</v>
+      </c>
+      <c r="E222" s="4">
+        <v>44101</v>
+      </c>
+      <c r="F222" s="5">
+        <v>0</v>
+      </c>
+      <c r="G222" s="5">
+        <v>0</v>
+      </c>
+      <c r="H222" s="5">
+        <v>0</v>
+      </c>
+      <c r="I222" s="5">
+        <v>0</v>
+      </c>
+      <c r="J222" s="5">
+        <v>0</v>
+      </c>
+      <c r="K222" s="9"/>
+      <c r="L222" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L221+1)</f>
+        <v>28</v>
+      </c>
+      <c r="M222" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M221+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N222" s="5"/>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B223" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C223" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D223" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 40 周</v>
+      </c>
+      <c r="E223" s="4">
+        <v>44102</v>
+      </c>
+      <c r="F223" s="5">
+        <v>0</v>
+      </c>
+      <c r="G223" s="5">
+        <v>0</v>
+      </c>
+      <c r="H223" s="5">
+        <v>0</v>
+      </c>
+      <c r="I223" s="5">
+        <v>0</v>
+      </c>
+      <c r="J223" s="5">
+        <v>0</v>
+      </c>
+      <c r="K223" s="9"/>
+      <c r="L223" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L222+1)</f>
+        <v>29</v>
+      </c>
+      <c r="M223" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M222+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N223" s="5"/>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B224" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C224" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D224" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 40 周</v>
+      </c>
+      <c r="E224" s="4">
+        <v>44103</v>
+      </c>
+      <c r="F224" s="5">
+        <v>0</v>
+      </c>
+      <c r="G224" s="5">
+        <v>0</v>
+      </c>
+      <c r="H224" s="5">
+        <v>0</v>
+      </c>
+      <c r="I224" s="5">
+        <v>0</v>
+      </c>
+      <c r="J224" s="5">
+        <v>0</v>
+      </c>
+      <c r="K224" s="9"/>
+      <c r="L224" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L223+1)</f>
+        <v>30</v>
+      </c>
+      <c r="M224" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M223+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N224" s="5"/>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B225" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C225" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>9 月</v>
+      </c>
+      <c r="D225" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 40 周</v>
+      </c>
+      <c r="E225" s="4">
+        <v>44104</v>
+      </c>
+      <c r="F225" s="5">
+        <v>0</v>
+      </c>
+      <c r="G225" s="5">
+        <v>0</v>
+      </c>
+      <c r="H225" s="5">
+        <v>0</v>
+      </c>
+      <c r="I225" s="5">
+        <v>0</v>
+      </c>
+      <c r="J225" s="5">
+        <v>0</v>
+      </c>
+      <c r="K225" s="9"/>
+      <c r="L225" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L224+1)</f>
+        <v>31</v>
+      </c>
+      <c r="M225" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M224+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N225" s="5"/>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B226" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C226" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D226" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 40 周</v>
+      </c>
+      <c r="E226" s="4">
+        <v>44105</v>
+      </c>
+      <c r="F226" s="5">
+        <v>0</v>
+      </c>
+      <c r="G226" s="5">
+        <v>0</v>
+      </c>
+      <c r="H226" s="5">
+        <v>0</v>
+      </c>
+      <c r="I226" s="5">
+        <v>0</v>
+      </c>
+      <c r="J226" s="5">
+        <v>0</v>
+      </c>
+      <c r="K226" s="9"/>
+      <c r="L226" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L225+1)</f>
+        <v>32</v>
+      </c>
+      <c r="M226" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M225+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N226" s="5"/>
+    </row>
+    <row r="227" spans="1:14">
+      <c r="A227" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B227" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C227" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D227" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 40 周</v>
+      </c>
+      <c r="E227" s="4">
+        <v>44106</v>
+      </c>
+      <c r="F227" s="5">
+        <v>0</v>
+      </c>
+      <c r="G227" s="5">
+        <v>0</v>
+      </c>
+      <c r="H227" s="5">
+        <v>0</v>
+      </c>
+      <c r="I227" s="5">
+        <v>0</v>
+      </c>
+      <c r="J227" s="5">
+        <v>0</v>
+      </c>
+      <c r="K227" s="9"/>
+      <c r="L227" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L226+1)</f>
+        <v>33</v>
+      </c>
+      <c r="M227" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M226+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N227" s="5"/>
+    </row>
+    <row r="228" spans="1:14">
+      <c r="A228" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B228" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C228" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D228" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 40 周</v>
+      </c>
+      <c r="E228" s="4">
+        <v>44107</v>
+      </c>
+      <c r="F228" s="5">
+        <v>0</v>
+      </c>
+      <c r="G228" s="5">
+        <v>0</v>
+      </c>
+      <c r="H228" s="5">
+        <v>0</v>
+      </c>
+      <c r="I228" s="5">
+        <v>0</v>
+      </c>
+      <c r="J228" s="5">
+        <v>0</v>
+      </c>
+      <c r="K228" s="9"/>
+      <c r="L228" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L227+1)</f>
+        <v>34</v>
+      </c>
+      <c r="M228" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M227+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N228" s="5"/>
+    </row>
+    <row r="229" spans="1:14">
+      <c r="A229" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B229" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C229" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D229" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 40 周</v>
+      </c>
+      <c r="E229" s="4">
+        <v>44108</v>
+      </c>
+      <c r="F229" s="5">
+        <v>0</v>
+      </c>
+      <c r="G229" s="5">
+        <v>0</v>
+      </c>
+      <c r="H229" s="5">
+        <v>0</v>
+      </c>
+      <c r="I229" s="5">
+        <v>0</v>
+      </c>
+      <c r="J229" s="5">
+        <v>0</v>
+      </c>
+      <c r="K229" s="9"/>
+      <c r="L229" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L228+1)</f>
+        <v>35</v>
+      </c>
+      <c r="M229" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M228+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N229" s="5"/>
+    </row>
+    <row r="230" spans="1:14">
+      <c r="A230" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B230" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C230" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D230" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 41 周</v>
+      </c>
+      <c r="E230" s="4">
+        <v>44109</v>
+      </c>
+      <c r="F230" s="5">
+        <v>0</v>
+      </c>
+      <c r="G230" s="5">
+        <v>0</v>
+      </c>
+      <c r="H230" s="5">
+        <v>0</v>
+      </c>
+      <c r="I230" s="5">
+        <v>0</v>
+      </c>
+      <c r="J230" s="5">
+        <v>0</v>
+      </c>
+      <c r="K230" s="9"/>
+      <c r="L230" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L229+1)</f>
+        <v>36</v>
+      </c>
+      <c r="M230" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M229+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N230" s="5"/>
+    </row>
+    <row r="231" spans="1:14">
+      <c r="A231" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B231" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C231" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D231" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 41 周</v>
+      </c>
+      <c r="E231" s="4">
+        <v>44110</v>
+      </c>
+      <c r="F231" s="5">
+        <v>0</v>
+      </c>
+      <c r="G231" s="5">
+        <v>0</v>
+      </c>
+      <c r="H231" s="5">
+        <v>0</v>
+      </c>
+      <c r="I231" s="5">
+        <v>0</v>
+      </c>
+      <c r="J231" s="5">
+        <v>0</v>
+      </c>
+      <c r="K231" s="9"/>
+      <c r="L231" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L230+1)</f>
+        <v>37</v>
+      </c>
+      <c r="M231" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M230+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N231" s="5"/>
+    </row>
+    <row r="232" spans="1:14">
+      <c r="A232" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B232" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C232" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D232" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 41 周</v>
+      </c>
+      <c r="E232" s="4">
+        <v>44111</v>
+      </c>
+      <c r="F232" s="5">
+        <v>0</v>
+      </c>
+      <c r="G232" s="5">
+        <v>0</v>
+      </c>
+      <c r="H232" s="5">
+        <v>0</v>
+      </c>
+      <c r="I232" s="5">
+        <v>0</v>
+      </c>
+      <c r="J232" s="5">
+        <v>0</v>
+      </c>
+      <c r="K232" s="9"/>
+      <c r="L232" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L231+1)</f>
+        <v>38</v>
+      </c>
+      <c r="M232" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M231+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N232" s="5"/>
+    </row>
+    <row r="233" spans="1:14">
+      <c r="A233" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B233" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C233" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D233" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 41 周</v>
+      </c>
+      <c r="E233" s="4">
+        <v>44112</v>
+      </c>
+      <c r="F233" s="5">
+        <v>0</v>
+      </c>
+      <c r="G233" s="5">
+        <v>0</v>
+      </c>
+      <c r="H233" s="5">
+        <v>0</v>
+      </c>
+      <c r="I233" s="5">
+        <v>0</v>
+      </c>
+      <c r="J233" s="5">
+        <v>0</v>
+      </c>
+      <c r="K233" s="9"/>
+      <c r="L233" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L232+1)</f>
+        <v>39</v>
+      </c>
+      <c r="M233" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M232+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N233" s="5"/>
+    </row>
+    <row r="234" spans="1:14">
+      <c r="A234" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B234" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C234" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D234" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 41 周</v>
+      </c>
+      <c r="E234" s="4">
+        <v>44113</v>
+      </c>
+      <c r="F234" s="5">
+        <v>0</v>
+      </c>
+      <c r="G234" s="5">
+        <v>0</v>
+      </c>
+      <c r="H234" s="5">
+        <v>0</v>
+      </c>
+      <c r="I234" s="5">
+        <v>0</v>
+      </c>
+      <c r="J234" s="5">
+        <v>0</v>
+      </c>
+      <c r="K234" s="9"/>
+      <c r="L234" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L233+1)</f>
+        <v>40</v>
+      </c>
+      <c r="M234" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M233+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N234" s="5"/>
+    </row>
+    <row r="235" spans="1:14">
+      <c r="A235" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B235" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C235" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D235" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 41 周</v>
+      </c>
+      <c r="E235" s="4">
+        <v>44114</v>
+      </c>
+      <c r="F235" s="5">
+        <v>0</v>
+      </c>
+      <c r="G235" s="5">
+        <v>0</v>
+      </c>
+      <c r="H235" s="5">
+        <v>0</v>
+      </c>
+      <c r="I235" s="5">
+        <v>0</v>
+      </c>
+      <c r="J235" s="5">
+        <v>0</v>
+      </c>
+      <c r="K235" s="9"/>
+      <c r="L235" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L234+1)</f>
+        <v>41</v>
+      </c>
+      <c r="M235" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M234+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N235" s="5"/>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B236" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C236" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D236" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 41 周</v>
+      </c>
+      <c r="E236" s="4">
+        <v>44115</v>
+      </c>
+      <c r="F236" s="5">
+        <v>0</v>
+      </c>
+      <c r="G236" s="5">
+        <v>0</v>
+      </c>
+      <c r="H236" s="5">
+        <v>0</v>
+      </c>
+      <c r="I236" s="5">
+        <v>0</v>
+      </c>
+      <c r="J236" s="5">
+        <v>0</v>
+      </c>
+      <c r="K236" s="9"/>
+      <c r="L236" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L235+1)</f>
+        <v>42</v>
+      </c>
+      <c r="M236" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M235+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N236" s="5"/>
+    </row>
+    <row r="237" spans="1:14">
+      <c r="A237" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B237" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C237" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D237" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 42 周</v>
+      </c>
+      <c r="E237" s="4">
+        <v>44116</v>
+      </c>
+      <c r="F237" s="5">
+        <v>0</v>
+      </c>
+      <c r="G237" s="5">
+        <v>0</v>
+      </c>
+      <c r="H237" s="5">
+        <v>0</v>
+      </c>
+      <c r="I237" s="5">
+        <v>0</v>
+      </c>
+      <c r="J237" s="5">
+        <v>0</v>
+      </c>
+      <c r="K237" s="9"/>
+      <c r="L237" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L236+1)</f>
+        <v>43</v>
+      </c>
+      <c r="M237" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M236+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N237" s="5"/>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B238" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C238" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D238" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 42 周</v>
+      </c>
+      <c r="E238" s="4">
+        <v>44117</v>
+      </c>
+      <c r="F238" s="5">
+        <v>0</v>
+      </c>
+      <c r="G238" s="5">
+        <v>0</v>
+      </c>
+      <c r="H238" s="5">
+        <v>0</v>
+      </c>
+      <c r="I238" s="5">
+        <v>0</v>
+      </c>
+      <c r="J238" s="5">
+        <v>0</v>
+      </c>
+      <c r="K238" s="9"/>
+      <c r="L238" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L237+1)</f>
+        <v>44</v>
+      </c>
+      <c r="M238" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M237+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N238" s="5"/>
+    </row>
+    <row r="239" spans="1:14">
+      <c r="A239" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B239" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C239" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D239" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 42 周</v>
+      </c>
+      <c r="E239" s="4">
+        <v>44118</v>
+      </c>
+      <c r="F239" s="5">
+        <v>0</v>
+      </c>
+      <c r="G239" s="5">
+        <v>0</v>
+      </c>
+      <c r="H239" s="5">
+        <v>0</v>
+      </c>
+      <c r="I239" s="5">
+        <v>0</v>
+      </c>
+      <c r="J239" s="5">
+        <v>0</v>
+      </c>
+      <c r="K239" s="9"/>
+      <c r="L239" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L238+1)</f>
+        <v>45</v>
+      </c>
+      <c r="M239" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M238+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N239" s="5"/>
+    </row>
+    <row r="240" spans="1:14">
+      <c r="A240" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B240" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C240" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D240" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 42 周</v>
+      </c>
+      <c r="E240" s="4">
+        <v>44119</v>
+      </c>
+      <c r="F240" s="5">
+        <v>0</v>
+      </c>
+      <c r="G240" s="5">
+        <v>0</v>
+      </c>
+      <c r="H240" s="5">
+        <v>0</v>
+      </c>
+      <c r="I240" s="5">
+        <v>0</v>
+      </c>
+      <c r="J240" s="5">
+        <v>0</v>
+      </c>
+      <c r="K240" s="9"/>
+      <c r="L240" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L239+1)</f>
+        <v>46</v>
+      </c>
+      <c r="M240" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M239+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N240" s="5"/>
+    </row>
+    <row r="241" spans="1:14">
+      <c r="A241" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B241" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C241" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D241" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 42 周</v>
+      </c>
+      <c r="E241" s="4">
+        <v>44120</v>
+      </c>
+      <c r="F241" s="5">
+        <v>0</v>
+      </c>
+      <c r="G241" s="5">
+        <v>0</v>
+      </c>
+      <c r="H241" s="5">
+        <v>0</v>
+      </c>
+      <c r="I241" s="5">
+        <v>0</v>
+      </c>
+      <c r="J241" s="5">
+        <v>0</v>
+      </c>
+      <c r="K241" s="9"/>
+      <c r="L241" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L240+1)</f>
+        <v>47</v>
+      </c>
+      <c r="M241" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M240+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N241" s="5"/>
+    </row>
+    <row r="242" spans="1:14">
+      <c r="A242" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B242" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C242" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D242" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 42 周</v>
+      </c>
+      <c r="E242" s="4">
+        <v>44121</v>
+      </c>
+      <c r="F242" s="5">
+        <v>0</v>
+      </c>
+      <c r="G242" s="5">
+        <v>0</v>
+      </c>
+      <c r="H242" s="5">
+        <v>0</v>
+      </c>
+      <c r="I242" s="5">
+        <v>0</v>
+      </c>
+      <c r="J242" s="5">
+        <v>0</v>
+      </c>
+      <c r="K242" s="9"/>
+      <c r="L242" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L241+1)</f>
+        <v>48</v>
+      </c>
+      <c r="M242" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M241+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N242" s="5"/>
+    </row>
+    <row r="243" spans="1:14">
+      <c r="A243" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B243" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C243" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D243" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 42 周</v>
+      </c>
+      <c r="E243" s="4">
+        <v>44122</v>
+      </c>
+      <c r="F243" s="5">
+        <v>0</v>
+      </c>
+      <c r="G243" s="5">
+        <v>0</v>
+      </c>
+      <c r="H243" s="5">
+        <v>0</v>
+      </c>
+      <c r="I243" s="5">
+        <v>0</v>
+      </c>
+      <c r="J243" s="5">
+        <v>0</v>
+      </c>
+      <c r="K243" s="9"/>
+      <c r="L243" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L242+1)</f>
+        <v>49</v>
+      </c>
+      <c r="M243" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M242+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N243" s="5"/>
+    </row>
+    <row r="244" spans="1:14">
+      <c r="A244" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B244" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C244" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D244" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 43 周</v>
+      </c>
+      <c r="E244" s="4">
+        <v>44123</v>
+      </c>
+      <c r="F244" s="5">
+        <v>0</v>
+      </c>
+      <c r="G244" s="5">
+        <v>0</v>
+      </c>
+      <c r="H244" s="5">
+        <v>0</v>
+      </c>
+      <c r="I244" s="5">
+        <v>0</v>
+      </c>
+      <c r="J244" s="5">
+        <v>0</v>
+      </c>
+      <c r="K244" s="9"/>
+      <c r="L244" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L243+1)</f>
+        <v>50</v>
+      </c>
+      <c r="M244" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M243+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N244" s="5"/>
+    </row>
+    <row r="245" spans="1:14">
+      <c r="A245" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B245" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C245" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D245" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 43 周</v>
+      </c>
+      <c r="E245" s="4">
+        <v>44124</v>
+      </c>
+      <c r="F245" s="5">
+        <v>0</v>
+      </c>
+      <c r="G245" s="5">
+        <v>0</v>
+      </c>
+      <c r="H245" s="5">
+        <v>1</v>
+      </c>
+      <c r="I245" s="5">
+        <v>1</v>
+      </c>
+      <c r="J245" s="5">
+        <v>0</v>
+      </c>
+      <c r="K245" s="9"/>
+      <c r="L245" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L244+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M245" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M244+1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N245" s="5"/>
+    </row>
+    <row r="246" spans="1:14">
+      <c r="A246" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B246" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C246" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D246" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 43 周</v>
+      </c>
+      <c r="E246" s="4">
+        <v>44125</v>
+      </c>
+      <c r="F246" s="5">
+        <v>0</v>
+      </c>
+      <c r="G246" s="5">
+        <v>0</v>
+      </c>
+      <c r="H246" s="5">
+        <v>0</v>
+      </c>
+      <c r="I246" s="5">
+        <v>0</v>
+      </c>
+      <c r="J246" s="5">
+        <v>0</v>
+      </c>
+      <c r="K246" s="9"/>
+      <c r="L246" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L245+1)</f>
+        <v>1</v>
+      </c>
+      <c r="M246" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M245+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N246" s="5"/>
+    </row>
+    <row r="247" spans="1:14">
+      <c r="A247" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B247" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C247" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D247" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 43 周</v>
+      </c>
+      <c r="E247" s="4">
+        <v>44126</v>
+      </c>
+      <c r="F247" s="5">
+        <v>0</v>
+      </c>
+      <c r="G247" s="5">
+        <v>0</v>
+      </c>
+      <c r="H247" s="5">
+        <v>0</v>
+      </c>
+      <c r="I247" s="5">
+        <v>0</v>
+      </c>
+      <c r="J247" s="5">
+        <v>0</v>
+      </c>
+      <c r="K247" s="9"/>
+      <c r="L247" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L246+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M247" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M246+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N247" s="5"/>
+    </row>
+    <row r="248" spans="1:14">
+      <c r="A248" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B248" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C248" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D248" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 43 周</v>
+      </c>
+      <c r="E248" s="4">
+        <v>44127</v>
+      </c>
+      <c r="F248" s="5">
+        <v>0</v>
+      </c>
+      <c r="G248" s="5">
+        <v>0</v>
+      </c>
+      <c r="H248" s="5">
+        <v>0</v>
+      </c>
+      <c r="I248" s="5">
+        <v>0</v>
+      </c>
+      <c r="J248" s="5">
+        <v>0</v>
+      </c>
+      <c r="K248" s="9"/>
+      <c r="L248" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L247+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M248" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M247+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N248" s="5"/>
+    </row>
+    <row r="249" spans="1:14">
+      <c r="A249" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B249" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C249" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D249" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 43 周</v>
+      </c>
+      <c r="E249" s="4">
+        <v>44128</v>
+      </c>
+      <c r="F249" s="5">
+        <v>0</v>
+      </c>
+      <c r="G249" s="5">
+        <v>0</v>
+      </c>
+      <c r="H249" s="5">
+        <v>0</v>
+      </c>
+      <c r="I249" s="5">
+        <v>0</v>
+      </c>
+      <c r="J249" s="5">
+        <v>0</v>
+      </c>
+      <c r="K249" s="9"/>
+      <c r="L249" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L248+1)</f>
+        <v>4</v>
+      </c>
+      <c r="M249" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M248+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N249" s="5"/>
+    </row>
+    <row r="250" spans="1:14">
+      <c r="A250" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B250" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C250" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D250" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 43 周</v>
+      </c>
+      <c r="E250" s="4">
+        <v>44129</v>
+      </c>
+      <c r="F250" s="5">
+        <v>0</v>
+      </c>
+      <c r="G250" s="5">
+        <v>0</v>
+      </c>
+      <c r="H250" s="5">
+        <v>0</v>
+      </c>
+      <c r="I250" s="5">
+        <v>0</v>
+      </c>
+      <c r="J250" s="5">
+        <v>0</v>
+      </c>
+      <c r="K250" s="9"/>
+      <c r="L250" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L249+1)</f>
+        <v>5</v>
+      </c>
+      <c r="M250" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M249+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N250" s="5"/>
+    </row>
+    <row r="251" spans="1:14">
+      <c r="A251" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B251" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C251" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D251" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 44 周</v>
+      </c>
+      <c r="E251" s="4">
+        <v>44130</v>
+      </c>
+      <c r="F251" s="5">
+        <v>0</v>
+      </c>
+      <c r="G251" s="5">
+        <v>0</v>
+      </c>
+      <c r="H251" s="5">
+        <v>0</v>
+      </c>
+      <c r="I251" s="5">
+        <v>0</v>
+      </c>
+      <c r="J251" s="5">
+        <v>0</v>
+      </c>
+      <c r="K251" s="9"/>
+      <c r="L251" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L250+1)</f>
+        <v>6</v>
+      </c>
+      <c r="M251" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M250+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N251" s="5"/>
+    </row>
+    <row r="252" spans="1:14">
+      <c r="A252" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B252" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C252" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D252" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 44 周</v>
+      </c>
+      <c r="E252" s="4">
+        <v>44131</v>
+      </c>
+      <c r="F252" s="5">
+        <v>0</v>
+      </c>
+      <c r="G252" s="5">
+        <v>0</v>
+      </c>
+      <c r="H252" s="5">
+        <v>0</v>
+      </c>
+      <c r="I252" s="5">
+        <v>0</v>
+      </c>
+      <c r="J252" s="5">
+        <v>0</v>
+      </c>
+      <c r="K252" s="9"/>
+      <c r="L252" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L251+1)</f>
+        <v>7</v>
+      </c>
+      <c r="M252" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M251+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N252" s="5"/>
+    </row>
+    <row r="253" spans="1:14">
+      <c r="A253" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B253" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C253" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D253" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 44 周</v>
+      </c>
+      <c r="E253" s="4">
+        <v>44132</v>
+      </c>
+      <c r="F253" s="5">
+        <v>0</v>
+      </c>
+      <c r="G253" s="5">
+        <v>0</v>
+      </c>
+      <c r="H253" s="5">
+        <v>0</v>
+      </c>
+      <c r="I253" s="5">
+        <v>0</v>
+      </c>
+      <c r="J253" s="5">
+        <v>0</v>
+      </c>
+      <c r="K253" s="9"/>
+      <c r="L253" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L252+1)</f>
+        <v>8</v>
+      </c>
+      <c r="M253" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M252+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N253" s="5"/>
+    </row>
+    <row r="254" spans="1:14">
+      <c r="A254" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B254" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C254" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D254" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 44 周</v>
+      </c>
+      <c r="E254" s="4">
+        <v>44133</v>
+      </c>
+      <c r="F254" s="5">
+        <v>0</v>
+      </c>
+      <c r="G254" s="5">
+        <v>0</v>
+      </c>
+      <c r="H254" s="5">
+        <v>0</v>
+      </c>
+      <c r="I254" s="5">
+        <v>0</v>
+      </c>
+      <c r="J254" s="5">
+        <v>0</v>
+      </c>
+      <c r="K254" s="9"/>
+      <c r="L254" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L253+1)</f>
+        <v>9</v>
+      </c>
+      <c r="M254" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M253+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N254" s="5"/>
+    </row>
+    <row r="255" spans="1:14">
+      <c r="A255" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B255" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C255" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D255" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 44 周</v>
+      </c>
+      <c r="E255" s="4">
+        <v>44134</v>
+      </c>
+      <c r="F255" s="5">
+        <v>0</v>
+      </c>
+      <c r="G255" s="5">
+        <v>0</v>
+      </c>
+      <c r="H255" s="5">
+        <v>0</v>
+      </c>
+      <c r="I255" s="5">
+        <v>0</v>
+      </c>
+      <c r="J255" s="5">
+        <v>0</v>
+      </c>
+      <c r="K255" s="9"/>
+      <c r="L255" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L254+1)</f>
+        <v>10</v>
+      </c>
+      <c r="M255" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M254+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N255" s="5"/>
+    </row>
+    <row r="256" spans="1:14">
+      <c r="A256" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B256" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C256" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>10 月</v>
+      </c>
+      <c r="D256" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 44 周</v>
+      </c>
+      <c r="E256" s="4">
+        <v>44135</v>
+      </c>
+      <c r="F256" s="5">
+        <v>0</v>
+      </c>
+      <c r="G256" s="5">
+        <v>0</v>
+      </c>
+      <c r="H256" s="5">
+        <v>0</v>
+      </c>
+      <c r="I256" s="5">
+        <v>0</v>
+      </c>
+      <c r="J256" s="5">
+        <v>0</v>
+      </c>
+      <c r="K256" s="9"/>
+      <c r="L256" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L255+1)</f>
+        <v>11</v>
+      </c>
+      <c r="M256" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M255+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N256" s="5"/>
+    </row>
+    <row r="257" spans="1:14">
+      <c r="A257" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B257" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C257" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D257" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 44 周</v>
+      </c>
+      <c r="E257" s="4">
+        <v>44136</v>
+      </c>
+      <c r="F257" s="5">
+        <v>0</v>
+      </c>
+      <c r="G257" s="5">
+        <v>0</v>
+      </c>
+      <c r="H257" s="5">
+        <v>0</v>
+      </c>
+      <c r="I257" s="5">
+        <v>0</v>
+      </c>
+      <c r="J257" s="5">
+        <v>0</v>
+      </c>
+      <c r="K257" s="9"/>
+      <c r="L257" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L256+1)</f>
+        <v>12</v>
+      </c>
+      <c r="M257" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M256+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N257" s="5"/>
+    </row>
+    <row r="258" spans="1:14">
+      <c r="A258" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B258" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C258" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D258" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 45 周</v>
+      </c>
+      <c r="E258" s="4">
+        <v>44137</v>
+      </c>
+      <c r="F258" s="5">
+        <v>0</v>
+      </c>
+      <c r="G258" s="5">
+        <v>0</v>
+      </c>
+      <c r="H258" s="5">
+        <v>0</v>
+      </c>
+      <c r="I258" s="5">
+        <v>0</v>
+      </c>
+      <c r="J258" s="5">
+        <v>0</v>
+      </c>
+      <c r="K258" s="9"/>
+      <c r="L258" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L257+1)</f>
+        <v>13</v>
+      </c>
+      <c r="M258" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M257+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N258" s="5"/>
+    </row>
+    <row r="259" spans="1:14">
+      <c r="A259" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B259" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C259" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D259" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 45 周</v>
+      </c>
+      <c r="E259" s="4">
+        <v>44138</v>
+      </c>
+      <c r="F259" s="5">
+        <v>0</v>
+      </c>
+      <c r="G259" s="5">
+        <v>0</v>
+      </c>
+      <c r="H259" s="5">
+        <v>0</v>
+      </c>
+      <c r="I259" s="5">
+        <v>0</v>
+      </c>
+      <c r="J259" s="5">
+        <v>0</v>
+      </c>
+      <c r="K259" s="9"/>
+      <c r="L259" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L258+1)</f>
+        <v>14</v>
+      </c>
+      <c r="M259" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M258+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N259" s="5"/>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B260" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C260" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D260" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 45 周</v>
+      </c>
+      <c r="E260" s="4">
+        <v>44139</v>
+      </c>
+      <c r="F260" s="5">
+        <v>0</v>
+      </c>
+      <c r="G260" s="5">
+        <v>0</v>
+      </c>
+      <c r="H260" s="5">
+        <v>0</v>
+      </c>
+      <c r="I260" s="5">
+        <v>0</v>
+      </c>
+      <c r="J260" s="5">
+        <v>0</v>
+      </c>
+      <c r="K260" s="9"/>
+      <c r="L260" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L259+1)</f>
+        <v>15</v>
+      </c>
+      <c r="M260" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M259+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N260" s="5"/>
+    </row>
+    <row r="261" spans="1:14">
+      <c r="A261" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B261" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C261" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D261" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 45 周</v>
+      </c>
+      <c r="E261" s="4">
+        <v>44140</v>
+      </c>
+      <c r="F261" s="5">
+        <v>0</v>
+      </c>
+      <c r="G261" s="5">
+        <v>0</v>
+      </c>
+      <c r="H261" s="5">
+        <v>0</v>
+      </c>
+      <c r="I261" s="5">
+        <v>0</v>
+      </c>
+      <c r="J261" s="5">
+        <v>0</v>
+      </c>
+      <c r="K261" s="9"/>
+      <c r="L261" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L260+1)</f>
+        <v>16</v>
+      </c>
+      <c r="M261" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M260+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N261" s="5"/>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="A262" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B262" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C262" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D262" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 45 周</v>
+      </c>
+      <c r="E262" s="4">
+        <v>44141</v>
+      </c>
+      <c r="F262" s="5">
+        <v>0</v>
+      </c>
+      <c r="G262" s="5">
+        <v>0</v>
+      </c>
+      <c r="H262" s="5">
+        <v>0</v>
+      </c>
+      <c r="I262" s="5">
+        <v>0</v>
+      </c>
+      <c r="J262" s="5">
+        <v>0</v>
+      </c>
+      <c r="K262" s="9"/>
+      <c r="L262" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L261+1)</f>
+        <v>17</v>
+      </c>
+      <c r="M262" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M261+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N262" s="5"/>
+    </row>
+    <row r="263" spans="1:14">
+      <c r="A263" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B263" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C263" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D263" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 45 周</v>
+      </c>
+      <c r="E263" s="4">
+        <v>44142</v>
+      </c>
+      <c r="F263" s="5">
+        <v>0</v>
+      </c>
+      <c r="G263" s="5">
+        <v>0</v>
+      </c>
+      <c r="H263" s="5">
+        <v>0</v>
+      </c>
+      <c r="I263" s="5">
+        <v>0</v>
+      </c>
+      <c r="J263" s="5">
+        <v>0</v>
+      </c>
+      <c r="K263" s="9"/>
+      <c r="L263" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L262+1)</f>
+        <v>18</v>
+      </c>
+      <c r="M263" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M262+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N263" s="5"/>
+    </row>
+    <row r="264" spans="1:14">
+      <c r="A264" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B264" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C264" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D264" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 45 周</v>
+      </c>
+      <c r="E264" s="4">
+        <v>44143</v>
+      </c>
+      <c r="F264" s="5">
+        <v>0</v>
+      </c>
+      <c r="G264" s="5">
+        <v>0</v>
+      </c>
+      <c r="H264" s="5">
+        <v>0</v>
+      </c>
+      <c r="I264" s="5">
+        <v>0</v>
+      </c>
+      <c r="J264" s="5">
+        <v>0</v>
+      </c>
+      <c r="K264" s="9"/>
+      <c r="L264" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L263+1)</f>
+        <v>19</v>
+      </c>
+      <c r="M264" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M263+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N264" s="5"/>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="A265" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B265" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C265" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D265" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 46 周</v>
+      </c>
+      <c r="E265" s="4">
+        <v>44144</v>
+      </c>
+      <c r="F265" s="5">
+        <v>0</v>
+      </c>
+      <c r="G265" s="5">
+        <v>0</v>
+      </c>
+      <c r="H265" s="5">
+        <v>0</v>
+      </c>
+      <c r="I265" s="5">
+        <v>0</v>
+      </c>
+      <c r="J265" s="5">
+        <v>0</v>
+      </c>
+      <c r="K265" s="9"/>
+      <c r="L265" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L264+1)</f>
+        <v>20</v>
+      </c>
+      <c r="M265" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M264+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N265" s="5"/>
+    </row>
+    <row r="266" spans="1:14">
+      <c r="A266" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B266" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C266" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D266" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 46 周</v>
+      </c>
+      <c r="E266" s="4">
+        <v>44145</v>
+      </c>
+      <c r="F266" s="5">
+        <v>0</v>
+      </c>
+      <c r="G266" s="5">
+        <v>0</v>
+      </c>
+      <c r="H266" s="5">
+        <v>0</v>
+      </c>
+      <c r="I266" s="5">
+        <v>0</v>
+      </c>
+      <c r="J266" s="5">
+        <v>0</v>
+      </c>
+      <c r="K266" s="9"/>
+      <c r="L266" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L265+1)</f>
+        <v>21</v>
+      </c>
+      <c r="M266" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M265+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N266" s="5"/>
+    </row>
+    <row r="267" spans="1:14">
+      <c r="A267" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B267" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C267" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D267" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 46 周</v>
+      </c>
+      <c r="E267" s="4">
+        <v>44146</v>
+      </c>
+      <c r="F267" s="5">
+        <v>0</v>
+      </c>
+      <c r="G267" s="5">
+        <v>0</v>
+      </c>
+      <c r="H267" s="5">
+        <v>0</v>
+      </c>
+      <c r="I267" s="5">
+        <v>0</v>
+      </c>
+      <c r="J267" s="5">
+        <v>0</v>
+      </c>
+      <c r="K267" s="9"/>
+      <c r="L267" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L266+1)</f>
+        <v>22</v>
+      </c>
+      <c r="M267" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M266+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N267" s="5"/>
+    </row>
+    <row r="268" spans="1:14">
+      <c r="A268" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B268" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C268" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D268" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 46 周</v>
+      </c>
+      <c r="E268" s="4">
+        <v>44147</v>
+      </c>
+      <c r="F268" s="5">
+        <v>0</v>
+      </c>
+      <c r="G268" s="5">
+        <v>0</v>
+      </c>
+      <c r="H268" s="5">
+        <v>0</v>
+      </c>
+      <c r="I268" s="5">
+        <v>0</v>
+      </c>
+      <c r="J268" s="5">
+        <v>0</v>
+      </c>
+      <c r="K268" s="9"/>
+      <c r="L268" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L267+1)</f>
+        <v>23</v>
+      </c>
+      <c r="M268" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M267+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N268" s="5"/>
+    </row>
+    <row r="269" spans="1:14">
+      <c r="A269" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B269" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C269" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D269" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 46 周</v>
+      </c>
+      <c r="E269" s="4">
+        <v>44148</v>
+      </c>
+      <c r="F269" s="5">
+        <v>0</v>
+      </c>
+      <c r="G269" s="5">
+        <v>0</v>
+      </c>
+      <c r="H269" s="5">
+        <v>0</v>
+      </c>
+      <c r="I269" s="5">
+        <v>0</v>
+      </c>
+      <c r="J269" s="5">
+        <v>0</v>
+      </c>
+      <c r="K269" s="9"/>
+      <c r="L269" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L268+1)</f>
+        <v>24</v>
+      </c>
+      <c r="M269" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M268+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N269" s="5"/>
+    </row>
+    <row r="270" spans="1:14">
+      <c r="A270" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B270" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C270" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D270" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 46 周</v>
+      </c>
+      <c r="E270" s="4">
+        <v>44149</v>
+      </c>
+      <c r="F270" s="5">
+        <v>0</v>
+      </c>
+      <c r="G270" s="5">
+        <v>0</v>
+      </c>
+      <c r="H270" s="5">
+        <v>0</v>
+      </c>
+      <c r="I270" s="5">
+        <v>0</v>
+      </c>
+      <c r="J270" s="5">
+        <v>0</v>
+      </c>
+      <c r="K270" s="9"/>
+      <c r="L270" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L269+1)</f>
+        <v>25</v>
+      </c>
+      <c r="M270" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M269+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N270" s="5"/>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="A271" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B271" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C271" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D271" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 46 周</v>
+      </c>
+      <c r="E271" s="4">
+        <v>44150</v>
+      </c>
+      <c r="F271" s="5">
+        <v>0</v>
+      </c>
+      <c r="G271" s="5">
+        <v>0</v>
+      </c>
+      <c r="H271" s="5">
+        <v>0</v>
+      </c>
+      <c r="I271" s="5">
+        <v>0</v>
+      </c>
+      <c r="J271" s="5">
+        <v>0</v>
+      </c>
+      <c r="K271" s="9"/>
+      <c r="L271" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L270+1)</f>
+        <v>26</v>
+      </c>
+      <c r="M271" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M270+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N271" s="5"/>
+    </row>
+    <row r="272" spans="1:14">
+      <c r="A272" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B272" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C272" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D272" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 47 周</v>
+      </c>
+      <c r="E272" s="4">
+        <v>44151</v>
+      </c>
+      <c r="F272" s="5">
+        <v>0</v>
+      </c>
+      <c r="G272" s="5">
+        <v>0</v>
+      </c>
+      <c r="H272" s="5">
+        <v>0</v>
+      </c>
+      <c r="I272" s="5">
+        <v>0</v>
+      </c>
+      <c r="J272" s="5">
+        <v>0</v>
+      </c>
+      <c r="K272" s="9"/>
+      <c r="L272" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L271+1)</f>
+        <v>27</v>
+      </c>
+      <c r="M272" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M271+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N272" s="5"/>
+    </row>
+    <row r="273" spans="1:14">
+      <c r="A273" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B273" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C273" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D273" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 47 周</v>
+      </c>
+      <c r="E273" s="4">
+        <v>44152</v>
+      </c>
+      <c r="F273" s="5">
+        <v>0</v>
+      </c>
+      <c r="G273" s="5">
+        <v>0</v>
+      </c>
+      <c r="H273" s="5">
+        <v>0</v>
+      </c>
+      <c r="I273" s="5">
+        <v>0</v>
+      </c>
+      <c r="J273" s="5">
+        <v>0</v>
+      </c>
+      <c r="K273" s="9"/>
+      <c r="L273" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L272+1)</f>
+        <v>28</v>
+      </c>
+      <c r="M273" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M272+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N273" s="5"/>
+    </row>
+    <row r="274" spans="1:14">
+      <c r="A274" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B274" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C274" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D274" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 47 周</v>
+      </c>
+      <c r="E274" s="4">
+        <v>44153</v>
+      </c>
+      <c r="F274" s="5">
+        <v>0</v>
+      </c>
+      <c r="G274" s="5">
+        <v>0</v>
+      </c>
+      <c r="H274" s="5">
+        <v>0</v>
+      </c>
+      <c r="I274" s="5">
+        <v>0</v>
+      </c>
+      <c r="J274" s="5">
+        <v>0</v>
+      </c>
+      <c r="K274" s="9"/>
+      <c r="L274" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L273+1)</f>
+        <v>29</v>
+      </c>
+      <c r="M274" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M273+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N274" s="5"/>
+    </row>
+    <row r="275" spans="1:14">
+      <c r="A275" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B275" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C275" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D275" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 47 周</v>
+      </c>
+      <c r="E275" s="4">
+        <v>44154</v>
+      </c>
+      <c r="F275" s="5">
+        <v>0</v>
+      </c>
+      <c r="G275" s="5">
+        <v>0</v>
+      </c>
+      <c r="H275" s="5">
+        <v>0</v>
+      </c>
+      <c r="I275" s="5">
+        <v>0</v>
+      </c>
+      <c r="J275" s="5">
+        <v>0</v>
+      </c>
+      <c r="K275" s="9"/>
+      <c r="L275" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L274+1)</f>
+        <v>30</v>
+      </c>
+      <c r="M275" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M274+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N275" s="5"/>
+    </row>
+    <row r="276" spans="1:14">
+      <c r="A276" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B276" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C276" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D276" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 47 周</v>
+      </c>
+      <c r="E276" s="4">
+        <v>44155</v>
+      </c>
+      <c r="F276" s="5">
+        <v>0</v>
+      </c>
+      <c r="G276" s="5">
+        <v>0</v>
+      </c>
+      <c r="H276" s="5">
+        <v>0</v>
+      </c>
+      <c r="I276" s="5">
+        <v>0</v>
+      </c>
+      <c r="J276" s="5">
+        <v>0</v>
+      </c>
+      <c r="K276" s="9"/>
+      <c r="L276" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L275+1)</f>
+        <v>31</v>
+      </c>
+      <c r="M276" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M275+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N276" s="5"/>
+    </row>
+    <row r="277" spans="1:14">
+      <c r="A277" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B277" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C277" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D277" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 47 周</v>
+      </c>
+      <c r="E277" s="4">
+        <v>44156</v>
+      </c>
+      <c r="F277" s="5">
+        <v>0</v>
+      </c>
+      <c r="G277" s="5">
+        <v>0</v>
+      </c>
+      <c r="H277" s="5">
+        <v>0</v>
+      </c>
+      <c r="I277" s="5">
+        <v>0</v>
+      </c>
+      <c r="J277" s="5">
+        <v>0</v>
+      </c>
+      <c r="K277" s="9"/>
+      <c r="L277" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L276+1)</f>
+        <v>32</v>
+      </c>
+      <c r="M277" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M276+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N277" s="5"/>
+    </row>
+    <row r="278" spans="1:14">
+      <c r="A278" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B278" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C278" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D278" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 47 周</v>
+      </c>
+      <c r="E278" s="4">
+        <v>44157</v>
+      </c>
+      <c r="F278" s="5">
+        <v>0</v>
+      </c>
+      <c r="G278" s="5">
+        <v>0</v>
+      </c>
+      <c r="H278" s="5">
+        <v>0</v>
+      </c>
+      <c r="I278" s="5">
+        <v>0</v>
+      </c>
+      <c r="J278" s="5">
+        <v>0</v>
+      </c>
+      <c r="K278" s="9"/>
+      <c r="L278" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L277+1)</f>
+        <v>33</v>
+      </c>
+      <c r="M278" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M277+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N278" s="5"/>
+    </row>
+    <row r="279" spans="1:14">
+      <c r="A279" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B279" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C279" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D279" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 48 周</v>
+      </c>
+      <c r="E279" s="4">
+        <v>44158</v>
+      </c>
+      <c r="F279" s="5">
+        <v>0</v>
+      </c>
+      <c r="G279" s="5">
+        <v>0</v>
+      </c>
+      <c r="H279" s="5">
+        <v>0</v>
+      </c>
+      <c r="I279" s="5">
+        <v>0</v>
+      </c>
+      <c r="J279" s="5">
+        <v>0</v>
+      </c>
+      <c r="K279" s="9"/>
+      <c r="L279" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L278+1)</f>
+        <v>34</v>
+      </c>
+      <c r="M279" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M278+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N279" s="5"/>
+    </row>
+    <row r="280" spans="1:14">
+      <c r="A280" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B280" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C280" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D280" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 48 周</v>
+      </c>
+      <c r="E280" s="4">
+        <v>44159</v>
+      </c>
+      <c r="F280" s="5">
+        <v>0</v>
+      </c>
+      <c r="G280" s="5">
+        <v>0</v>
+      </c>
+      <c r="H280" s="5">
+        <v>0</v>
+      </c>
+      <c r="I280" s="5">
+        <v>0</v>
+      </c>
+      <c r="J280" s="5">
+        <v>0</v>
+      </c>
+      <c r="K280" s="9"/>
+      <c r="L280" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L279+1)</f>
+        <v>35</v>
+      </c>
+      <c r="M280" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M279+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N280" s="5"/>
+    </row>
+    <row r="281" spans="1:14">
+      <c r="A281" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B281" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C281" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D281" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 48 周</v>
+      </c>
+      <c r="E281" s="4">
+        <v>44160</v>
+      </c>
+      <c r="F281" s="5">
+        <v>0</v>
+      </c>
+      <c r="G281" s="5">
+        <v>0</v>
+      </c>
+      <c r="H281" s="5">
+        <v>0</v>
+      </c>
+      <c r="I281" s="5">
+        <v>0</v>
+      </c>
+      <c r="J281" s="5">
+        <v>0</v>
+      </c>
+      <c r="K281" s="9"/>
+      <c r="L281" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L280+1)</f>
+        <v>36</v>
+      </c>
+      <c r="M281" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M280+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N281" s="5"/>
+    </row>
+    <row r="282" spans="1:14">
+      <c r="A282" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B282" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C282" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D282" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 48 周</v>
+      </c>
+      <c r="E282" s="4">
+        <v>44161</v>
+      </c>
+      <c r="F282" s="5">
+        <v>0</v>
+      </c>
+      <c r="G282" s="5">
+        <v>0</v>
+      </c>
+      <c r="H282" s="5">
+        <v>0</v>
+      </c>
+      <c r="I282" s="5">
+        <v>0</v>
+      </c>
+      <c r="J282" s="5">
+        <v>0</v>
+      </c>
+      <c r="K282" s="9"/>
+      <c r="L282" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L281+1)</f>
+        <v>37</v>
+      </c>
+      <c r="M282" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M281+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N282" s="5"/>
+    </row>
+    <row r="283" spans="1:14">
+      <c r="A283" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B283" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C283" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D283" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 48 周</v>
+      </c>
+      <c r="E283" s="4">
+        <v>44162</v>
+      </c>
+      <c r="F283" s="5">
+        <v>0</v>
+      </c>
+      <c r="G283" s="5">
+        <v>0</v>
+      </c>
+      <c r="H283" s="5">
+        <v>0</v>
+      </c>
+      <c r="I283" s="5">
+        <v>0</v>
+      </c>
+      <c r="J283" s="5">
+        <v>0</v>
+      </c>
+      <c r="K283" s="9"/>
+      <c r="L283" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L282+1)</f>
+        <v>38</v>
+      </c>
+      <c r="M283" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M282+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N283" s="5"/>
+    </row>
+    <row r="284" spans="1:14">
+      <c r="A284" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B284" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C284" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D284" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 48 周</v>
+      </c>
+      <c r="E284" s="4">
+        <v>44163</v>
+      </c>
+      <c r="F284" s="5">
+        <v>0</v>
+      </c>
+      <c r="G284" s="5">
+        <v>0</v>
+      </c>
+      <c r="H284" s="5">
+        <v>0</v>
+      </c>
+      <c r="I284" s="5">
+        <v>0</v>
+      </c>
+      <c r="J284" s="5">
+        <v>0</v>
+      </c>
+      <c r="K284" s="9"/>
+      <c r="L284" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L283+1)</f>
+        <v>39</v>
+      </c>
+      <c r="M284" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M283+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N284" s="5"/>
+    </row>
+    <row r="285" spans="1:14">
+      <c r="A285" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B285" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C285" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D285" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 48 周</v>
+      </c>
+      <c r="E285" s="4">
+        <v>44164</v>
+      </c>
+      <c r="F285" s="5">
+        <v>0</v>
+      </c>
+      <c r="G285" s="5">
+        <v>0</v>
+      </c>
+      <c r="H285" s="5">
+        <v>0</v>
+      </c>
+      <c r="I285" s="5">
+        <v>0</v>
+      </c>
+      <c r="J285" s="5">
+        <v>0</v>
+      </c>
+      <c r="K285" s="9"/>
+      <c r="L285" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L284+1)</f>
+        <v>40</v>
+      </c>
+      <c r="M285" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M284+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N285" s="5"/>
+    </row>
+    <row r="286" spans="1:14">
+      <c r="A286" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B286" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 4 季度</v>
+      </c>
+      <c r="C286" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>11 月</v>
+      </c>
+      <c r="D286" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 49 周</v>
+      </c>
+      <c r="E286" s="4">
+        <v>44165</v>
+      </c>
+      <c r="F286" s="5">
+        <v>0</v>
+      </c>
+      <c r="G286" s="5">
+        <v>0</v>
+      </c>
+      <c r="H286" s="5">
+        <v>0</v>
+      </c>
+      <c r="I286" s="5">
+        <v>0</v>
+      </c>
+      <c r="J286" s="5">
+        <v>0</v>
+      </c>
+      <c r="K286" s="9"/>
+      <c r="L286" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L285+1)</f>
+        <v>41</v>
+      </c>
+      <c r="M286" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M285+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N286" s="5"/>
+    </row>
+    <row r="287" spans="1:14">
+      <c r="A287" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B287" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C287" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D287" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 49 周</v>
+      </c>
+      <c r="E287" s="4">
+        <v>44166</v>
+      </c>
+      <c r="F287" s="5">
+        <v>0</v>
+      </c>
+      <c r="G287" s="5">
+        <v>0</v>
+      </c>
+      <c r="H287" s="5">
+        <v>0</v>
+      </c>
+      <c r="I287" s="5">
+        <v>0</v>
+      </c>
+      <c r="J287" s="5">
+        <v>0</v>
+      </c>
+      <c r="K287" s="9"/>
+      <c r="L287" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L286+1)</f>
+        <v>42</v>
+      </c>
+      <c r="M287" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M286+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N287" s="5"/>
+    </row>
+    <row r="288" spans="1:14">
+      <c r="A288" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B288" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C288" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D288" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 49 周</v>
+      </c>
+      <c r="E288" s="4">
+        <v>44167</v>
+      </c>
+      <c r="F288" s="5">
+        <v>0</v>
+      </c>
+      <c r="G288" s="5">
+        <v>0</v>
+      </c>
+      <c r="H288" s="5">
+        <v>0</v>
+      </c>
+      <c r="I288" s="5">
+        <v>0</v>
+      </c>
+      <c r="J288" s="5">
+        <v>0</v>
+      </c>
+      <c r="K288" s="9"/>
+      <c r="L288" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L287+1)</f>
+        <v>43</v>
+      </c>
+      <c r="M288" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M287+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N288" s="5"/>
+    </row>
+    <row r="289" spans="1:14">
+      <c r="A289" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B289" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C289" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D289" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 49 周</v>
+      </c>
+      <c r="E289" s="4">
+        <v>44168</v>
+      </c>
+      <c r="F289" s="5">
+        <v>0</v>
+      </c>
+      <c r="G289" s="5">
+        <v>0</v>
+      </c>
+      <c r="H289" s="5">
+        <v>0</v>
+      </c>
+      <c r="I289" s="5">
+        <v>0</v>
+      </c>
+      <c r="J289" s="5">
+        <v>0</v>
+      </c>
+      <c r="K289" s="9"/>
+      <c r="L289" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L288+1)</f>
+        <v>44</v>
+      </c>
+      <c r="M289" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M288+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N289" s="5"/>
+    </row>
+    <row r="290" spans="1:14">
+      <c r="A290" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B290" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C290" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D290" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 49 周</v>
+      </c>
+      <c r="E290" s="4">
+        <v>44169</v>
+      </c>
+      <c r="F290" s="5">
+        <v>0</v>
+      </c>
+      <c r="G290" s="5">
+        <v>0</v>
+      </c>
+      <c r="H290" s="5">
+        <v>0</v>
+      </c>
+      <c r="I290" s="5">
+        <v>0</v>
+      </c>
+      <c r="J290" s="5">
+        <v>0</v>
+      </c>
+      <c r="K290" s="9"/>
+      <c r="L290" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L289+1)</f>
+        <v>45</v>
+      </c>
+      <c r="M290" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M289+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N290" s="5"/>
+    </row>
+    <row r="291" spans="1:14">
+      <c r="A291" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B291" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C291" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D291" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 49 周</v>
+      </c>
+      <c r="E291" s="4">
+        <v>44170</v>
+      </c>
+      <c r="F291" s="5">
+        <v>0</v>
+      </c>
+      <c r="G291" s="5">
+        <v>0</v>
+      </c>
+      <c r="H291" s="5">
+        <v>0</v>
+      </c>
+      <c r="I291" s="5">
+        <v>0</v>
+      </c>
+      <c r="J291" s="5">
+        <v>0</v>
+      </c>
+      <c r="K291" s="9"/>
+      <c r="L291" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L290+1)</f>
+        <v>46</v>
+      </c>
+      <c r="M291" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M290+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N291" s="5"/>
+    </row>
+    <row r="292" spans="1:14">
+      <c r="A292" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B292" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C292" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D292" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 49 周</v>
+      </c>
+      <c r="E292" s="4">
+        <v>44171</v>
+      </c>
+      <c r="F292" s="5">
+        <v>0</v>
+      </c>
+      <c r="G292" s="5">
+        <v>0</v>
+      </c>
+      <c r="H292" s="5">
+        <v>0</v>
+      </c>
+      <c r="I292" s="5">
+        <v>0</v>
+      </c>
+      <c r="J292" s="5">
+        <v>0</v>
+      </c>
+      <c r="K292" s="9"/>
+      <c r="L292" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L291+1)</f>
+        <v>47</v>
+      </c>
+      <c r="M292" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M291+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N292" s="5"/>
+    </row>
+    <row r="293" spans="1:14">
+      <c r="A293" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B293" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C293" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D293" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 50 周</v>
+      </c>
+      <c r="E293" s="4">
+        <v>44172</v>
+      </c>
+      <c r="F293" s="5">
+        <v>0</v>
+      </c>
+      <c r="G293" s="5">
+        <v>0</v>
+      </c>
+      <c r="H293" s="5">
+        <v>0</v>
+      </c>
+      <c r="I293" s="5">
+        <v>0</v>
+      </c>
+      <c r="J293" s="5">
+        <v>0</v>
+      </c>
+      <c r="K293" s="9"/>
+      <c r="L293" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L292+1)</f>
+        <v>48</v>
+      </c>
+      <c r="M293" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M292+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N293" s="5"/>
+    </row>
+    <row r="294" spans="1:14">
+      <c r="A294" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B294" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C294" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D294" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 50 周</v>
+      </c>
+      <c r="E294" s="4">
+        <v>44173</v>
+      </c>
+      <c r="F294" s="5">
+        <v>0</v>
+      </c>
+      <c r="G294" s="5">
+        <v>0</v>
+      </c>
+      <c r="H294" s="5">
+        <v>0</v>
+      </c>
+      <c r="I294" s="5">
+        <v>0</v>
+      </c>
+      <c r="J294" s="5">
+        <v>0</v>
+      </c>
+      <c r="K294" s="9"/>
+      <c r="L294" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L293+1)</f>
+        <v>49</v>
+      </c>
+      <c r="M294" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M293+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N294" s="5"/>
+    </row>
+    <row r="295" spans="1:14">
+      <c r="A295" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B295" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C295" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D295" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 50 周</v>
+      </c>
+      <c r="E295" s="4">
+        <v>44174</v>
+      </c>
+      <c r="F295" s="5">
+        <v>0</v>
+      </c>
+      <c r="G295" s="5">
+        <v>0</v>
+      </c>
+      <c r="H295" s="5">
+        <v>0</v>
+      </c>
+      <c r="I295" s="5">
+        <v>0</v>
+      </c>
+      <c r="J295" s="5">
+        <v>0</v>
+      </c>
+      <c r="K295" s="9"/>
+      <c r="L295" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L294+1)</f>
+        <v>50</v>
+      </c>
+      <c r="M295" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M294+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N295" s="5"/>
+    </row>
+    <row r="296" spans="1:14">
+      <c r="A296" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B296" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C296" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D296" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 50 周</v>
+      </c>
+      <c r="E296" s="4">
+        <v>44175</v>
+      </c>
+      <c r="F296" s="5">
+        <v>0</v>
+      </c>
+      <c r="G296" s="5">
+        <v>0</v>
+      </c>
+      <c r="H296" s="5">
+        <v>0</v>
+      </c>
+      <c r="I296" s="5">
+        <v>0</v>
+      </c>
+      <c r="J296" s="5">
+        <v>0</v>
+      </c>
+      <c r="K296" s="9"/>
+      <c r="L296" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L295+1)</f>
+        <v>51</v>
+      </c>
+      <c r="M296" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M295+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N296" s="5"/>
+    </row>
+    <row r="297" spans="1:14">
+      <c r="A297" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B297" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C297" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D297" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 50 周</v>
+      </c>
+      <c r="E297" s="4">
+        <v>44176</v>
+      </c>
+      <c r="F297" s="5">
+        <v>0</v>
+      </c>
+      <c r="G297" s="5">
+        <v>0</v>
+      </c>
+      <c r="H297" s="5">
+        <v>0</v>
+      </c>
+      <c r="I297" s="5">
+        <v>0</v>
+      </c>
+      <c r="J297" s="5">
+        <v>0</v>
+      </c>
+      <c r="K297" s="9"/>
+      <c r="L297" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L296+1)</f>
+        <v>52</v>
+      </c>
+      <c r="M297" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M296+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N297" s="5"/>
+    </row>
+    <row r="298" spans="1:14">
+      <c r="A298" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B298" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C298" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D298" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 50 周</v>
+      </c>
+      <c r="E298" s="4">
+        <v>44177</v>
+      </c>
+      <c r="F298" s="5">
+        <v>0</v>
+      </c>
+      <c r="G298" s="5">
+        <v>0</v>
+      </c>
+      <c r="H298" s="5">
+        <v>0</v>
+      </c>
+      <c r="I298" s="5">
+        <v>0</v>
+      </c>
+      <c r="J298" s="5">
+        <v>0</v>
+      </c>
+      <c r="K298" s="9"/>
+      <c r="L298" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L297+1)</f>
+        <v>53</v>
+      </c>
+      <c r="M298" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M297+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N298" s="5"/>
+    </row>
+    <row r="299" spans="1:14">
+      <c r="A299" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B299" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C299" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D299" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 50 周</v>
+      </c>
+      <c r="E299" s="4">
+        <v>44178</v>
+      </c>
+      <c r="F299" s="5">
+        <v>0</v>
+      </c>
+      <c r="G299" s="5">
+        <v>0</v>
+      </c>
+      <c r="H299" s="5">
+        <v>0</v>
+      </c>
+      <c r="I299" s="5">
+        <v>0</v>
+      </c>
+      <c r="J299" s="5">
+        <v>0</v>
+      </c>
+      <c r="K299" s="9"/>
+      <c r="L299" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L298+1)</f>
+        <v>54</v>
+      </c>
+      <c r="M299" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M298+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N299" s="5"/>
+    </row>
+    <row r="300" spans="1:14">
+      <c r="A300" s="5" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>2020 年</v>
+      </c>
+      <c r="B300" s="4" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 5 季度</v>
+      </c>
+      <c r="C300" s="4" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>12 月</v>
+      </c>
+      <c r="D300" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 51 周</v>
+      </c>
+      <c r="E300" s="4">
+        <v>44179</v>
+      </c>
+      <c r="F300" s="5">
+        <v>0</v>
+      </c>
+      <c r="G300" s="5">
+        <v>0</v>
+      </c>
+      <c r="H300" s="5">
+        <v>0</v>
+      </c>
+      <c r="I300" s="5">
+        <v>0</v>
+      </c>
+      <c r="J300" s="5">
+        <v>0</v>
+      </c>
+      <c r="K300" s="9"/>
+      <c r="L300" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L299+1)</f>
+        <v>55</v>
+      </c>
+      <c r="M300" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M299+1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="N300" s="5"/>
+    </row>
+    <row r="301" spans="1:14">
+      <c r="A301" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B301" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C301" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D301" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="14"/>
+      <c r="I301" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J301" s="15"/>
+      <c r="K301" s="16"/>
+      <c r="L301" s="9"/>
+      <c r="M301" s="9"/>
+      <c r="N301" s="12"/>
+    </row>
+    <row r="302" spans="1:14">
+      <c r="A302" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B302" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C302" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D302" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+      <c r="G302" s="5"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J302" s="15"/>
+      <c r="K302" s="16"/>
+      <c r="L302" s="9"/>
+      <c r="M302" s="9"/>
+      <c r="N302" s="12"/>
+    </row>
+    <row r="303" spans="1:14">
+      <c r="A303" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B303" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C303" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D303" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E303" s="13"/>
+      <c r="F303" s="13"/>
+      <c r="G303" s="5"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J303" s="15"/>
+      <c r="K303" s="16"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="9"/>
+      <c r="N303" s="12"/>
+    </row>
+    <row r="304" spans="1:14">
+      <c r="A304" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B304" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C304" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D304" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E304" s="13"/>
+      <c r="F304" s="13"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="14"/>
+      <c r="I304" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J304" s="15"/>
+      <c r="K304" s="16"/>
+      <c r="L304" s="9"/>
+      <c r="M304" s="9"/>
+      <c r="N304" s="12"/>
+    </row>
+    <row r="305" spans="1:14">
+      <c r="A305" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B305" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C305" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D305" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E305" s="13"/>
+      <c r="F305" s="13"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="14"/>
+      <c r="I305" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J305" s="15"/>
+      <c r="K305" s="16"/>
+      <c r="L305" s="9"/>
+      <c r="M305" s="9"/>
+      <c r="N305" s="12"/>
+    </row>
+    <row r="306" spans="1:14">
+      <c r="A306" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B306" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C306" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D306" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E306" s="13"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="14"/>
+      <c r="I306" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J306" s="15"/>
+      <c r="K306" s="16"/>
+      <c r="L306" s="9"/>
+      <c r="M306" s="9"/>
+      <c r="N306" s="12"/>
+    </row>
+    <row r="307" spans="1:14">
+      <c r="A307" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B307" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C307" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D307" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E307" s="13"/>
+      <c r="F307" s="13"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="14"/>
+      <c r="I307" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J307" s="15"/>
+      <c r="K307" s="16"/>
+      <c r="L307" s="9"/>
+      <c r="M307" s="9"/>
+      <c r="N307" s="12"/>
+    </row>
+    <row r="308" spans="1:14">
+      <c r="A308" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B308" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C308" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D308" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E308" s="13"/>
+      <c r="F308" s="13"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="14"/>
+      <c r="I308" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J308" s="15"/>
+      <c r="K308" s="16"/>
+      <c r="L308" s="9"/>
+      <c r="M308" s="9"/>
+      <c r="N308" s="12"/>
+    </row>
+    <row r="309" spans="1:14">
+      <c r="A309" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B309" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C309" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D309" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E309" s="13"/>
+      <c r="F309" s="13"/>
+      <c r="G309" s="5"/>
+      <c r="H309" s="14"/>
+      <c r="I309" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J309" s="15"/>
+      <c r="K309" s="16"/>
+      <c r="L309" s="9"/>
+      <c r="M309" s="9"/>
+      <c r="N309" s="12"/>
+    </row>
+    <row r="310" spans="1:14">
+      <c r="A310" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B310" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C310" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D310" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E310" s="13"/>
+      <c r="F310" s="13"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J310" s="15"/>
+      <c r="K310" s="16"/>
+      <c r="L310" s="9"/>
+      <c r="M310" s="9"/>
+      <c r="N310" s="12"/>
+    </row>
+    <row r="311" spans="1:14">
+      <c r="A311" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B311" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C311" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D311" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E311" s="13"/>
+      <c r="F311" s="13"/>
+      <c r="G311" s="5"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J311" s="15"/>
+      <c r="K311" s="16"/>
+      <c r="L311" s="9"/>
+      <c r="M311" s="9"/>
+      <c r="N311" s="12"/>
+    </row>
+    <row r="312" spans="1:14">
+      <c r="A312" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B312" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C312" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D312" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E312" s="13"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="5"/>
+      <c r="H312" s="14"/>
+      <c r="I312" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J312" s="15"/>
+      <c r="K312" s="16"/>
+      <c r="L312" s="9"/>
+      <c r="M312" s="9"/>
+      <c r="N312" s="12"/>
+    </row>
+    <row r="313" spans="1:14">
+      <c r="A313" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B313" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C313" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D313" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E313" s="13"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="5"/>
+      <c r="H313" s="14"/>
+      <c r="I313" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J313" s="15"/>
+      <c r="K313" s="16"/>
+      <c r="L313" s="9"/>
+      <c r="M313" s="9"/>
+      <c r="N313" s="12"/>
+    </row>
+    <row r="314" spans="1:14">
+      <c r="A314" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B314" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C314" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D314" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="5"/>
+      <c r="H314" s="14"/>
+      <c r="I314" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J314" s="15"/>
+      <c r="K314" s="16"/>
+      <c r="L314" s="9"/>
+      <c r="M314" s="9"/>
+      <c r="N314" s="12"/>
+    </row>
+    <row r="315" spans="1:14">
+      <c r="A315" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B315" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C315" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D315" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E315" s="13"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="5"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J315" s="15"/>
+      <c r="K315" s="16"/>
+      <c r="L315" s="9"/>
+      <c r="M315" s="9"/>
+      <c r="N315" s="12"/>
+    </row>
+    <row r="316" spans="1:14">
+      <c r="A316" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B316" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C316" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D316" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E316" s="13"/>
+      <c r="F316" s="13"/>
+      <c r="G316" s="5"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J316" s="15"/>
+      <c r="K316" s="16"/>
+      <c r="L316" s="9"/>
+      <c r="M316" s="9"/>
+      <c r="N316" s="12"/>
+    </row>
+    <row r="317" spans="1:14">
+      <c r="A317" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B317" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C317" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D317" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E317" s="13"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="5"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J317" s="15"/>
+      <c r="K317" s="16"/>
+      <c r="L317" s="9"/>
+      <c r="M317" s="9"/>
+      <c r="N317" s="12"/>
+    </row>
+    <row r="318" spans="1:14">
+      <c r="A318" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B318" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C318" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D318" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E318" s="13"/>
+      <c r="F318" s="13"/>
+      <c r="G318" s="5"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J318" s="15"/>
+      <c r="K318" s="16"/>
+      <c r="L318" s="9"/>
+      <c r="M318" s="9"/>
+      <c r="N318" s="12"/>
+    </row>
+    <row r="319" spans="1:14">
+      <c r="A319" s="12" t="str">
+        <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
+        <v>1900 年</v>
+      </c>
+      <c r="B319" s="13" t="str">
+        <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
+        <v>第 1 季度</v>
+      </c>
+      <c r="C319" s="13" t="str">
+        <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
+        <v>1 月</v>
+      </c>
+      <c r="D319" s="13" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 1 周</v>
+      </c>
+      <c r="E319" s="13"/>
+      <c r="F319" s="13"/>
+      <c r="G319" s="5"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="14">
+        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
+        <v>0</v>
+      </c>
+      <c r="J319" s="15"/>
+      <c r="K319" s="16"/>
+      <c r="L319" s="9"/>
+      <c r="M319" s="9"/>
+      <c r="N319" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N3"/>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35A34A-7D1F-D54F-BB98-8459823CE00C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC19E54-516A-924B-A957-238EE62F6E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -239,9 +239,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +253,9 @@
     </xf>
     <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,7 +912,7 @@
   <dimension ref="A1:R319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="I245" sqref="I245"/>
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -932,55 +932,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1">
-      <c r="A1" s="11" t="str">
+      <c r="A1" s="16" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
         <v>总分: -20.933</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="23" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="23" customHeight="1">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:18" ht="18">
       <c r="A4" s="6" t="s">
@@ -12525,10 +12525,10 @@
         <v>0</v>
       </c>
       <c r="H250" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J250" s="5">
         <v>0</v>
@@ -12536,11 +12536,11 @@
       <c r="K250" s="9"/>
       <c r="L250" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L249+1)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M250" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M249+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N250" s="5"/>
     </row>
@@ -12582,7 +12582,7 @@
       <c r="K251" s="9"/>
       <c r="L251" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L250+1)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M251" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M250+1, 0)</f>
@@ -12628,7 +12628,7 @@
       <c r="K252" s="9"/>
       <c r="L252" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L251+1)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M252" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M251+1, 0)</f>
@@ -12674,7 +12674,7 @@
       <c r="K253" s="9"/>
       <c r="L253" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L252+1)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M253" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M252+1, 0)</f>
@@ -12720,7 +12720,7 @@
       <c r="K254" s="9"/>
       <c r="L254" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L253+1)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M254" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M253+1, 0)</f>
@@ -12766,7 +12766,7 @@
       <c r="K255" s="9"/>
       <c r="L255" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L254+1)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M255" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M254+1, 0)</f>
@@ -12812,7 +12812,7 @@
       <c r="K256" s="9"/>
       <c r="L256" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L255+1)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="M256" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M255+1, 0)</f>
@@ -12858,7 +12858,7 @@
       <c r="K257" s="9"/>
       <c r="L257" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L256+1)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M257" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M256+1, 0)</f>
@@ -12904,7 +12904,7 @@
       <c r="K258" s="9"/>
       <c r="L258" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L257+1)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M258" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M257+1, 0)</f>
@@ -12950,7 +12950,7 @@
       <c r="K259" s="9"/>
       <c r="L259" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L258+1)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M259" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M258+1, 0)</f>
@@ -12996,7 +12996,7 @@
       <c r="K260" s="9"/>
       <c r="L260" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L259+1)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M260" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M259+1, 0)</f>
@@ -13042,7 +13042,7 @@
       <c r="K261" s="9"/>
       <c r="L261" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L260+1)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="M261" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M260+1, 0)</f>
@@ -13088,7 +13088,7 @@
       <c r="K262" s="9"/>
       <c r="L262" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L261+1)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M262" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M261+1, 0)</f>
@@ -13134,7 +13134,7 @@
       <c r="K263" s="9"/>
       <c r="L263" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L262+1)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M263" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M262+1, 0)</f>
@@ -13180,7 +13180,7 @@
       <c r="K264" s="9"/>
       <c r="L264" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L263+1)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M264" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M263+1, 0)</f>
@@ -13226,7 +13226,7 @@
       <c r="K265" s="9"/>
       <c r="L265" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L264+1)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M265" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M264+1, 0)</f>
@@ -13272,7 +13272,7 @@
       <c r="K266" s="9"/>
       <c r="L266" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L265+1)</f>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M266" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M265+1, 0)</f>
@@ -13318,7 +13318,7 @@
       <c r="K267" s="9"/>
       <c r="L267" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L266+1)</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M267" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M266+1, 0)</f>
@@ -13364,7 +13364,7 @@
       <c r="K268" s="9"/>
       <c r="L268" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L267+1)</f>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M268" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M267+1, 0)</f>
@@ -13410,7 +13410,7 @@
       <c r="K269" s="9"/>
       <c r="L269" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L268+1)</f>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M269" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M268+1, 0)</f>
@@ -13456,7 +13456,7 @@
       <c r="K270" s="9"/>
       <c r="L270" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L269+1)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M270" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M269+1, 0)</f>
@@ -13502,7 +13502,7 @@
       <c r="K271" s="9"/>
       <c r="L271" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L270+1)</f>
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M271" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M270+1, 0)</f>
@@ -13548,7 +13548,7 @@
       <c r="K272" s="9"/>
       <c r="L272" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L271+1)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M272" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M271+1, 0)</f>
@@ -13594,7 +13594,7 @@
       <c r="K273" s="9"/>
       <c r="L273" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L272+1)</f>
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M273" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M272+1, 0)</f>
@@ -13640,7 +13640,7 @@
       <c r="K274" s="9"/>
       <c r="L274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L273+1)</f>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M273+1, 0)</f>
@@ -13686,7 +13686,7 @@
       <c r="K275" s="9"/>
       <c r="L275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L274+1)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M274+1, 0)</f>
@@ -13732,7 +13732,7 @@
       <c r="K276" s="9"/>
       <c r="L276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L275+1)</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M275+1, 0)</f>
@@ -13778,7 +13778,7 @@
       <c r="K277" s="9"/>
       <c r="L277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L276+1)</f>
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M276+1, 0)</f>
@@ -13824,7 +13824,7 @@
       <c r="K278" s="9"/>
       <c r="L278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L277+1)</f>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M277+1, 0)</f>
@@ -13870,7 +13870,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L278+1)</f>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M278+1, 0)</f>
@@ -13916,7 +13916,7 @@
       <c r="K280" s="9"/>
       <c r="L280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L279+1)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M279+1, 0)</f>
@@ -13962,7 +13962,7 @@
       <c r="K281" s="9"/>
       <c r="L281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L280+1)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M280+1, 0)</f>
@@ -14008,7 +14008,7 @@
       <c r="K282" s="9"/>
       <c r="L282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L281+1)</f>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M281+1, 0)</f>
@@ -14054,7 +14054,7 @@
       <c r="K283" s="9"/>
       <c r="L283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L282+1)</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M282+1, 0)</f>
@@ -14100,7 +14100,7 @@
       <c r="K284" s="9"/>
       <c r="L284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L283+1)</f>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M283+1, 0)</f>
@@ -14146,7 +14146,7 @@
       <c r="K285" s="9"/>
       <c r="L285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L284+1)</f>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M284+1, 0)</f>
@@ -14192,7 +14192,7 @@
       <c r="K286" s="9"/>
       <c r="L286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L285+1)</f>
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M285+1, 0)</f>
@@ -14238,7 +14238,7 @@
       <c r="K287" s="9"/>
       <c r="L287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L286+1)</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M286+1, 0)</f>
@@ -14284,7 +14284,7 @@
       <c r="K288" s="9"/>
       <c r="L288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L287+1)</f>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M287+1, 0)</f>
@@ -14330,7 +14330,7 @@
       <c r="K289" s="9"/>
       <c r="L289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L288+1)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M288+1, 0)</f>
@@ -14376,7 +14376,7 @@
       <c r="K290" s="9"/>
       <c r="L290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L289+1)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M289+1, 0)</f>
@@ -14422,7 +14422,7 @@
       <c r="K291" s="9"/>
       <c r="L291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L290+1)</f>
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M290+1, 0)</f>
@@ -14468,7 +14468,7 @@
       <c r="K292" s="9"/>
       <c r="L292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L291+1)</f>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M291+1, 0)</f>
@@ -14514,7 +14514,7 @@
       <c r="K293" s="9"/>
       <c r="L293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L292+1)</f>
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="M293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M292+1, 0)</f>
@@ -14560,7 +14560,7 @@
       <c r="K294" s="9"/>
       <c r="L294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L293+1)</f>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M293+1, 0)</f>
@@ -14606,7 +14606,7 @@
       <c r="K295" s="9"/>
       <c r="L295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L294+1)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M294+1, 0)</f>
@@ -14652,7 +14652,7 @@
       <c r="K296" s="9"/>
       <c r="L296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L295+1)</f>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M295+1, 0)</f>
@@ -14698,7 +14698,7 @@
       <c r="K297" s="9"/>
       <c r="L297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L296+1)</f>
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="M297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M296+1, 0)</f>
@@ -14744,7 +14744,7 @@
       <c r="K298" s="9"/>
       <c r="L298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L297+1)</f>
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M297+1, 0)</f>
@@ -14790,7 +14790,7 @@
       <c r="K299" s="9"/>
       <c r="L299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L298+1)</f>
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M298+1, 0)</f>
@@ -14836,7 +14836,7 @@
       <c r="K300" s="9"/>
       <c r="L300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L299+1)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M299+1, 0)</f>
@@ -14845,593 +14845,593 @@
       <c r="N300" s="5"/>
     </row>
     <row r="301" spans="1:14">
-      <c r="A301" s="12" t="str">
+      <c r="A301" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B301" s="13" t="str">
+      <c r="B301" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C301" s="13" t="str">
+      <c r="C301" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D301" s="13" t="str">
+      <c r="D301" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E301" s="13"/>
-      <c r="F301" s="13"/>
+      <c r="E301" s="12"/>
+      <c r="F301" s="12"/>
       <c r="G301" s="5"/>
-      <c r="H301" s="14"/>
-      <c r="I301" s="14">
+      <c r="H301" s="13"/>
+      <c r="I301" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J301" s="15"/>
-      <c r="K301" s="16"/>
+      <c r="J301" s="14"/>
+      <c r="K301" s="15"/>
       <c r="L301" s="9"/>
       <c r="M301" s="9"/>
-      <c r="N301" s="12"/>
+      <c r="N301" s="11"/>
     </row>
     <row r="302" spans="1:14">
-      <c r="A302" s="12" t="str">
+      <c r="A302" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B302" s="13" t="str">
+      <c r="B302" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C302" s="13" t="str">
+      <c r="C302" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D302" s="13" t="str">
+      <c r="D302" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E302" s="13"/>
-      <c r="F302" s="13"/>
+      <c r="E302" s="12"/>
+      <c r="F302" s="12"/>
       <c r="G302" s="5"/>
-      <c r="H302" s="14"/>
-      <c r="I302" s="14">
+      <c r="H302" s="13"/>
+      <c r="I302" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J302" s="15"/>
-      <c r="K302" s="16"/>
+      <c r="J302" s="14"/>
+      <c r="K302" s="15"/>
       <c r="L302" s="9"/>
       <c r="M302" s="9"/>
-      <c r="N302" s="12"/>
+      <c r="N302" s="11"/>
     </row>
     <row r="303" spans="1:14">
-      <c r="A303" s="12" t="str">
+      <c r="A303" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B303" s="13" t="str">
+      <c r="B303" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C303" s="13" t="str">
+      <c r="C303" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D303" s="13" t="str">
+      <c r="D303" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E303" s="13"/>
-      <c r="F303" s="13"/>
+      <c r="E303" s="12"/>
+      <c r="F303" s="12"/>
       <c r="G303" s="5"/>
-      <c r="H303" s="14"/>
-      <c r="I303" s="14">
+      <c r="H303" s="13"/>
+      <c r="I303" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J303" s="15"/>
-      <c r="K303" s="16"/>
+      <c r="J303" s="14"/>
+      <c r="K303" s="15"/>
       <c r="L303" s="9"/>
       <c r="M303" s="9"/>
-      <c r="N303" s="12"/>
+      <c r="N303" s="11"/>
     </row>
     <row r="304" spans="1:14">
-      <c r="A304" s="12" t="str">
+      <c r="A304" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B304" s="13" t="str">
+      <c r="B304" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C304" s="13" t="str">
+      <c r="C304" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D304" s="13" t="str">
+      <c r="D304" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E304" s="13"/>
-      <c r="F304" s="13"/>
+      <c r="E304" s="12"/>
+      <c r="F304" s="12"/>
       <c r="G304" s="5"/>
-      <c r="H304" s="14"/>
-      <c r="I304" s="14">
+      <c r="H304" s="13"/>
+      <c r="I304" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J304" s="15"/>
-      <c r="K304" s="16"/>
+      <c r="J304" s="14"/>
+      <c r="K304" s="15"/>
       <c r="L304" s="9"/>
       <c r="M304" s="9"/>
-      <c r="N304" s="12"/>
+      <c r="N304" s="11"/>
     </row>
     <row r="305" spans="1:14">
-      <c r="A305" s="12" t="str">
+      <c r="A305" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B305" s="13" t="str">
+      <c r="B305" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C305" s="13" t="str">
+      <c r="C305" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D305" s="13" t="str">
+      <c r="D305" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E305" s="13"/>
-      <c r="F305" s="13"/>
+      <c r="E305" s="12"/>
+      <c r="F305" s="12"/>
       <c r="G305" s="5"/>
-      <c r="H305" s="14"/>
-      <c r="I305" s="14">
+      <c r="H305" s="13"/>
+      <c r="I305" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J305" s="15"/>
-      <c r="K305" s="16"/>
+      <c r="J305" s="14"/>
+      <c r="K305" s="15"/>
       <c r="L305" s="9"/>
       <c r="M305" s="9"/>
-      <c r="N305" s="12"/>
+      <c r="N305" s="11"/>
     </row>
     <row r="306" spans="1:14">
-      <c r="A306" s="12" t="str">
+      <c r="A306" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B306" s="13" t="str">
+      <c r="B306" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C306" s="13" t="str">
+      <c r="C306" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D306" s="13" t="str">
+      <c r="D306" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E306" s="13"/>
-      <c r="F306" s="13"/>
+      <c r="E306" s="12"/>
+      <c r="F306" s="12"/>
       <c r="G306" s="5"/>
-      <c r="H306" s="14"/>
-      <c r="I306" s="14">
+      <c r="H306" s="13"/>
+      <c r="I306" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J306" s="15"/>
-      <c r="K306" s="16"/>
+      <c r="J306" s="14"/>
+      <c r="K306" s="15"/>
       <c r="L306" s="9"/>
       <c r="M306" s="9"/>
-      <c r="N306" s="12"/>
+      <c r="N306" s="11"/>
     </row>
     <row r="307" spans="1:14">
-      <c r="A307" s="12" t="str">
+      <c r="A307" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B307" s="13" t="str">
+      <c r="B307" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C307" s="13" t="str">
+      <c r="C307" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D307" s="13" t="str">
+      <c r="D307" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E307" s="13"/>
-      <c r="F307" s="13"/>
+      <c r="E307" s="12"/>
+      <c r="F307" s="12"/>
       <c r="G307" s="5"/>
-      <c r="H307" s="14"/>
-      <c r="I307" s="14">
+      <c r="H307" s="13"/>
+      <c r="I307" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J307" s="15"/>
-      <c r="K307" s="16"/>
+      <c r="J307" s="14"/>
+      <c r="K307" s="15"/>
       <c r="L307" s="9"/>
       <c r="M307" s="9"/>
-      <c r="N307" s="12"/>
+      <c r="N307" s="11"/>
     </row>
     <row r="308" spans="1:14">
-      <c r="A308" s="12" t="str">
+      <c r="A308" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B308" s="13" t="str">
+      <c r="B308" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C308" s="13" t="str">
+      <c r="C308" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D308" s="13" t="str">
+      <c r="D308" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E308" s="13"/>
-      <c r="F308" s="13"/>
+      <c r="E308" s="12"/>
+      <c r="F308" s="12"/>
       <c r="G308" s="5"/>
-      <c r="H308" s="14"/>
-      <c r="I308" s="14">
+      <c r="H308" s="13"/>
+      <c r="I308" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J308" s="15"/>
-      <c r="K308" s="16"/>
+      <c r="J308" s="14"/>
+      <c r="K308" s="15"/>
       <c r="L308" s="9"/>
       <c r="M308" s="9"/>
-      <c r="N308" s="12"/>
+      <c r="N308" s="11"/>
     </row>
     <row r="309" spans="1:14">
-      <c r="A309" s="12" t="str">
+      <c r="A309" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B309" s="13" t="str">
+      <c r="B309" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C309" s="13" t="str">
+      <c r="C309" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D309" s="13" t="str">
+      <c r="D309" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E309" s="13"/>
-      <c r="F309" s="13"/>
+      <c r="E309" s="12"/>
+      <c r="F309" s="12"/>
       <c r="G309" s="5"/>
-      <c r="H309" s="14"/>
-      <c r="I309" s="14">
+      <c r="H309" s="13"/>
+      <c r="I309" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J309" s="15"/>
-      <c r="K309" s="16"/>
+      <c r="J309" s="14"/>
+      <c r="K309" s="15"/>
       <c r="L309" s="9"/>
       <c r="M309" s="9"/>
-      <c r="N309" s="12"/>
+      <c r="N309" s="11"/>
     </row>
     <row r="310" spans="1:14">
-      <c r="A310" s="12" t="str">
+      <c r="A310" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B310" s="13" t="str">
+      <c r="B310" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C310" s="13" t="str">
+      <c r="C310" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D310" s="13" t="str">
+      <c r="D310" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E310" s="13"/>
-      <c r="F310" s="13"/>
+      <c r="E310" s="12"/>
+      <c r="F310" s="12"/>
       <c r="G310" s="5"/>
-      <c r="H310" s="14"/>
-      <c r="I310" s="14">
+      <c r="H310" s="13"/>
+      <c r="I310" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J310" s="15"/>
-      <c r="K310" s="16"/>
+      <c r="J310" s="14"/>
+      <c r="K310" s="15"/>
       <c r="L310" s="9"/>
       <c r="M310" s="9"/>
-      <c r="N310" s="12"/>
+      <c r="N310" s="11"/>
     </row>
     <row r="311" spans="1:14">
-      <c r="A311" s="12" t="str">
+      <c r="A311" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B311" s="13" t="str">
+      <c r="B311" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C311" s="13" t="str">
+      <c r="C311" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D311" s="13" t="str">
+      <c r="D311" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E311" s="13"/>
-      <c r="F311" s="13"/>
+      <c r="E311" s="12"/>
+      <c r="F311" s="12"/>
       <c r="G311" s="5"/>
-      <c r="H311" s="14"/>
-      <c r="I311" s="14">
+      <c r="H311" s="13"/>
+      <c r="I311" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J311" s="15"/>
-      <c r="K311" s="16"/>
+      <c r="J311" s="14"/>
+      <c r="K311" s="15"/>
       <c r="L311" s="9"/>
       <c r="M311" s="9"/>
-      <c r="N311" s="12"/>
+      <c r="N311" s="11"/>
     </row>
     <row r="312" spans="1:14">
-      <c r="A312" s="12" t="str">
+      <c r="A312" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B312" s="13" t="str">
+      <c r="B312" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C312" s="13" t="str">
+      <c r="C312" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D312" s="13" t="str">
+      <c r="D312" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E312" s="13"/>
-      <c r="F312" s="13"/>
+      <c r="E312" s="12"/>
+      <c r="F312" s="12"/>
       <c r="G312" s="5"/>
-      <c r="H312" s="14"/>
-      <c r="I312" s="14">
+      <c r="H312" s="13"/>
+      <c r="I312" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J312" s="15"/>
-      <c r="K312" s="16"/>
+      <c r="J312" s="14"/>
+      <c r="K312" s="15"/>
       <c r="L312" s="9"/>
       <c r="M312" s="9"/>
-      <c r="N312" s="12"/>
+      <c r="N312" s="11"/>
     </row>
     <row r="313" spans="1:14">
-      <c r="A313" s="12" t="str">
+      <c r="A313" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B313" s="13" t="str">
+      <c r="B313" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C313" s="13" t="str">
+      <c r="C313" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D313" s="13" t="str">
+      <c r="D313" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E313" s="13"/>
-      <c r="F313" s="13"/>
+      <c r="E313" s="12"/>
+      <c r="F313" s="12"/>
       <c r="G313" s="5"/>
-      <c r="H313" s="14"/>
-      <c r="I313" s="14">
+      <c r="H313" s="13"/>
+      <c r="I313" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J313" s="15"/>
-      <c r="K313" s="16"/>
+      <c r="J313" s="14"/>
+      <c r="K313" s="15"/>
       <c r="L313" s="9"/>
       <c r="M313" s="9"/>
-      <c r="N313" s="12"/>
+      <c r="N313" s="11"/>
     </row>
     <row r="314" spans="1:14">
-      <c r="A314" s="12" t="str">
+      <c r="A314" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B314" s="13" t="str">
+      <c r="B314" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C314" s="13" t="str">
+      <c r="C314" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D314" s="13" t="str">
+      <c r="D314" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E314" s="13"/>
-      <c r="F314" s="13"/>
+      <c r="E314" s="12"/>
+      <c r="F314" s="12"/>
       <c r="G314" s="5"/>
-      <c r="H314" s="14"/>
-      <c r="I314" s="14">
+      <c r="H314" s="13"/>
+      <c r="I314" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J314" s="15"/>
-      <c r="K314" s="16"/>
+      <c r="J314" s="14"/>
+      <c r="K314" s="15"/>
       <c r="L314" s="9"/>
       <c r="M314" s="9"/>
-      <c r="N314" s="12"/>
+      <c r="N314" s="11"/>
     </row>
     <row r="315" spans="1:14">
-      <c r="A315" s="12" t="str">
+      <c r="A315" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B315" s="13" t="str">
+      <c r="B315" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C315" s="13" t="str">
+      <c r="C315" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D315" s="13" t="str">
+      <c r="D315" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E315" s="13"/>
-      <c r="F315" s="13"/>
+      <c r="E315" s="12"/>
+      <c r="F315" s="12"/>
       <c r="G315" s="5"/>
-      <c r="H315" s="14"/>
-      <c r="I315" s="14">
+      <c r="H315" s="13"/>
+      <c r="I315" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J315" s="15"/>
-      <c r="K315" s="16"/>
+      <c r="J315" s="14"/>
+      <c r="K315" s="15"/>
       <c r="L315" s="9"/>
       <c r="M315" s="9"/>
-      <c r="N315" s="12"/>
+      <c r="N315" s="11"/>
     </row>
     <row r="316" spans="1:14">
-      <c r="A316" s="12" t="str">
+      <c r="A316" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B316" s="13" t="str">
+      <c r="B316" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C316" s="13" t="str">
+      <c r="C316" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D316" s="13" t="str">
+      <c r="D316" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E316" s="13"/>
-      <c r="F316" s="13"/>
+      <c r="E316" s="12"/>
+      <c r="F316" s="12"/>
       <c r="G316" s="5"/>
-      <c r="H316" s="14"/>
-      <c r="I316" s="14">
+      <c r="H316" s="13"/>
+      <c r="I316" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J316" s="15"/>
-      <c r="K316" s="16"/>
+      <c r="J316" s="14"/>
+      <c r="K316" s="15"/>
       <c r="L316" s="9"/>
       <c r="M316" s="9"/>
-      <c r="N316" s="12"/>
+      <c r="N316" s="11"/>
     </row>
     <row r="317" spans="1:14">
-      <c r="A317" s="12" t="str">
+      <c r="A317" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B317" s="13" t="str">
+      <c r="B317" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C317" s="13" t="str">
+      <c r="C317" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D317" s="13" t="str">
+      <c r="D317" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E317" s="13"/>
-      <c r="F317" s="13"/>
+      <c r="E317" s="12"/>
+      <c r="F317" s="12"/>
       <c r="G317" s="5"/>
-      <c r="H317" s="14"/>
-      <c r="I317" s="14">
+      <c r="H317" s="13"/>
+      <c r="I317" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J317" s="15"/>
-      <c r="K317" s="16"/>
+      <c r="J317" s="14"/>
+      <c r="K317" s="15"/>
       <c r="L317" s="9"/>
       <c r="M317" s="9"/>
-      <c r="N317" s="12"/>
+      <c r="N317" s="11"/>
     </row>
     <row r="318" spans="1:14">
-      <c r="A318" s="12" t="str">
+      <c r="A318" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B318" s="13" t="str">
+      <c r="B318" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C318" s="13" t="str">
+      <c r="C318" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D318" s="13" t="str">
+      <c r="D318" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E318" s="13"/>
-      <c r="F318" s="13"/>
+      <c r="E318" s="12"/>
+      <c r="F318" s="12"/>
       <c r="G318" s="5"/>
-      <c r="H318" s="14"/>
-      <c r="I318" s="14">
+      <c r="H318" s="13"/>
+      <c r="I318" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J318" s="15"/>
-      <c r="K318" s="16"/>
+      <c r="J318" s="14"/>
+      <c r="K318" s="15"/>
       <c r="L318" s="9"/>
       <c r="M318" s="9"/>
-      <c r="N318" s="12"/>
+      <c r="N318" s="11"/>
     </row>
     <row r="319" spans="1:14">
-      <c r="A319" s="12" t="str">
+      <c r="A319" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
         <v>1900 年</v>
       </c>
-      <c r="B319" s="13" t="str">
+      <c r="B319" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
         <v>第 1 季度</v>
       </c>
-      <c r="C319" s="13" t="str">
+      <c r="C319" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D319" s="13" t="str">
+      <c r="D319" s="12" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E319" s="13"/>
-      <c r="F319" s="13"/>
+      <c r="E319" s="12"/>
+      <c r="F319" s="12"/>
       <c r="G319" s="5"/>
-      <c r="H319" s="14"/>
-      <c r="I319" s="14">
+      <c r="H319" s="13"/>
+      <c r="I319" s="13">
         <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
         <v>0</v>
       </c>
-      <c r="J319" s="15"/>
-      <c r="K319" s="16"/>
+      <c r="J319" s="14"/>
+      <c r="K319" s="15"/>
       <c r="L319" s="9"/>
       <c r="M319" s="9"/>
-      <c r="N319" s="12"/>
+      <c r="N319" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC19E54-516A-924B-A957-238EE62F6E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8E213-F377-9440-9C44-D699B6B76D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="H250" sqref="H250"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="I254" sqref="I254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12709,10 +12709,10 @@
         <v>0</v>
       </c>
       <c r="H254" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" s="5">
         <v>0</v>
@@ -12720,11 +12720,11 @@
       <c r="K254" s="9"/>
       <c r="L254" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L253+1)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M254" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M253+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N254" s="5"/>
     </row>
@@ -12766,7 +12766,7 @@
       <c r="K255" s="9"/>
       <c r="L255" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L254+1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M255" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M254+1, 0)</f>
@@ -12812,7 +12812,7 @@
       <c r="K256" s="9"/>
       <c r="L256" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L255+1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M256" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M255+1, 0)</f>
@@ -12858,7 +12858,7 @@
       <c r="K257" s="9"/>
       <c r="L257" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L256+1)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M257" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M256+1, 0)</f>
@@ -12904,7 +12904,7 @@
       <c r="K258" s="9"/>
       <c r="L258" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L257+1)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M258" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M257+1, 0)</f>
@@ -12950,7 +12950,7 @@
       <c r="K259" s="9"/>
       <c r="L259" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L258+1)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M259" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M258+1, 0)</f>
@@ -12996,7 +12996,7 @@
       <c r="K260" s="9"/>
       <c r="L260" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L259+1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M260" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M259+1, 0)</f>
@@ -13042,7 +13042,7 @@
       <c r="K261" s="9"/>
       <c r="L261" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L260+1)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M261" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M260+1, 0)</f>
@@ -13088,7 +13088,7 @@
       <c r="K262" s="9"/>
       <c r="L262" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L261+1)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M262" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M261+1, 0)</f>
@@ -13134,7 +13134,7 @@
       <c r="K263" s="9"/>
       <c r="L263" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L262+1)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M263" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M262+1, 0)</f>
@@ -13180,7 +13180,7 @@
       <c r="K264" s="9"/>
       <c r="L264" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L263+1)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M264" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M263+1, 0)</f>
@@ -13226,7 +13226,7 @@
       <c r="K265" s="9"/>
       <c r="L265" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L264+1)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M265" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M264+1, 0)</f>
@@ -13272,7 +13272,7 @@
       <c r="K266" s="9"/>
       <c r="L266" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L265+1)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M266" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M265+1, 0)</f>
@@ -13318,7 +13318,7 @@
       <c r="K267" s="9"/>
       <c r="L267" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L266+1)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M267" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M266+1, 0)</f>
@@ -13364,7 +13364,7 @@
       <c r="K268" s="9"/>
       <c r="L268" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L267+1)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M268" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M267+1, 0)</f>
@@ -13410,7 +13410,7 @@
       <c r="K269" s="9"/>
       <c r="L269" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L268+1)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M269" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M268+1, 0)</f>
@@ -13456,7 +13456,7 @@
       <c r="K270" s="9"/>
       <c r="L270" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L269+1)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M270" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M269+1, 0)</f>
@@ -13502,7 +13502,7 @@
       <c r="K271" s="9"/>
       <c r="L271" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L270+1)</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M271" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M270+1, 0)</f>
@@ -13548,7 +13548,7 @@
       <c r="K272" s="9"/>
       <c r="L272" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L271+1)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M272" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M271+1, 0)</f>
@@ -13594,7 +13594,7 @@
       <c r="K273" s="9"/>
       <c r="L273" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L272+1)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M273" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M272+1, 0)</f>
@@ -13640,7 +13640,7 @@
       <c r="K274" s="9"/>
       <c r="L274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L273+1)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M273+1, 0)</f>
@@ -13686,7 +13686,7 @@
       <c r="K275" s="9"/>
       <c r="L275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L274+1)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M274+1, 0)</f>
@@ -13732,7 +13732,7 @@
       <c r="K276" s="9"/>
       <c r="L276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L275+1)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M275+1, 0)</f>
@@ -13778,7 +13778,7 @@
       <c r="K277" s="9"/>
       <c r="L277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L276+1)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M276+1, 0)</f>
@@ -13824,7 +13824,7 @@
       <c r="K278" s="9"/>
       <c r="L278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L277+1)</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M277+1, 0)</f>
@@ -13870,7 +13870,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L278+1)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M278+1, 0)</f>
@@ -13916,7 +13916,7 @@
       <c r="K280" s="9"/>
       <c r="L280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L279+1)</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M279+1, 0)</f>
@@ -13962,7 +13962,7 @@
       <c r="K281" s="9"/>
       <c r="L281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L280+1)</f>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M280+1, 0)</f>
@@ -14008,7 +14008,7 @@
       <c r="K282" s="9"/>
       <c r="L282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L281+1)</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M281+1, 0)</f>
@@ -14054,7 +14054,7 @@
       <c r="K283" s="9"/>
       <c r="L283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L282+1)</f>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M282+1, 0)</f>
@@ -14100,7 +14100,7 @@
       <c r="K284" s="9"/>
       <c r="L284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L283+1)</f>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M283+1, 0)</f>
@@ -14146,7 +14146,7 @@
       <c r="K285" s="9"/>
       <c r="L285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L284+1)</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M284+1, 0)</f>
@@ -14192,7 +14192,7 @@
       <c r="K286" s="9"/>
       <c r="L286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L285+1)</f>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M285+1, 0)</f>
@@ -14238,7 +14238,7 @@
       <c r="K287" s="9"/>
       <c r="L287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L286+1)</f>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M286+1, 0)</f>
@@ -14284,7 +14284,7 @@
       <c r="K288" s="9"/>
       <c r="L288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L287+1)</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M287+1, 0)</f>
@@ -14330,7 +14330,7 @@
       <c r="K289" s="9"/>
       <c r="L289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L288+1)</f>
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M288+1, 0)</f>
@@ -14376,7 +14376,7 @@
       <c r="K290" s="9"/>
       <c r="L290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L289+1)</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M289+1, 0)</f>
@@ -14422,7 +14422,7 @@
       <c r="K291" s="9"/>
       <c r="L291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L290+1)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M290+1, 0)</f>
@@ -14468,7 +14468,7 @@
       <c r="K292" s="9"/>
       <c r="L292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L291+1)</f>
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M291+1, 0)</f>
@@ -14514,7 +14514,7 @@
       <c r="K293" s="9"/>
       <c r="L293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L292+1)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M292+1, 0)</f>
@@ -14560,7 +14560,7 @@
       <c r="K294" s="9"/>
       <c r="L294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L293+1)</f>
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M293+1, 0)</f>
@@ -14606,7 +14606,7 @@
       <c r="K295" s="9"/>
       <c r="L295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L294+1)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M294+1, 0)</f>
@@ -14652,7 +14652,7 @@
       <c r="K296" s="9"/>
       <c r="L296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L295+1)</f>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M295+1, 0)</f>
@@ -14698,7 +14698,7 @@
       <c r="K297" s="9"/>
       <c r="L297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L296+1)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M296+1, 0)</f>
@@ -14744,7 +14744,7 @@
       <c r="K298" s="9"/>
       <c r="L298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L297+1)</f>
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M297+1, 0)</f>
@@ -14790,7 +14790,7 @@
       <c r="K299" s="9"/>
       <c r="L299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L298+1)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M298+1, 0)</f>
@@ -14836,7 +14836,7 @@
       <c r="K300" s="9"/>
       <c r="L300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L299+1)</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M299+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD8E213-F377-9440-9C44-D699B6B76D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587F1800-0B63-F841-A18D-C49D97F26F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="I254" sqref="I254"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="H261" sqref="H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13031,10 +13031,10 @@
         <v>0</v>
       </c>
       <c r="H261" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J261" s="5">
         <v>0</v>
@@ -13042,11 +13042,11 @@
       <c r="K261" s="9"/>
       <c r="L261" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L260+1)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M261" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M260+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N261" s="5"/>
     </row>
@@ -13088,7 +13088,7 @@
       <c r="K262" s="9"/>
       <c r="L262" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L261+1)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M262" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M261+1, 0)</f>
@@ -13134,7 +13134,7 @@
       <c r="K263" s="9"/>
       <c r="L263" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L262+1)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M263" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M262+1, 0)</f>
@@ -13180,7 +13180,7 @@
       <c r="K264" s="9"/>
       <c r="L264" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L263+1)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M264" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M263+1, 0)</f>
@@ -13226,7 +13226,7 @@
       <c r="K265" s="9"/>
       <c r="L265" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L264+1)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M265" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M264+1, 0)</f>
@@ -13272,7 +13272,7 @@
       <c r="K266" s="9"/>
       <c r="L266" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L265+1)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M266" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M265+1, 0)</f>
@@ -13318,7 +13318,7 @@
       <c r="K267" s="9"/>
       <c r="L267" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L266+1)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M267" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M266+1, 0)</f>
@@ -13364,7 +13364,7 @@
       <c r="K268" s="9"/>
       <c r="L268" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L267+1)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M268" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M267+1, 0)</f>
@@ -13410,7 +13410,7 @@
       <c r="K269" s="9"/>
       <c r="L269" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L268+1)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M269" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M268+1, 0)</f>
@@ -13456,7 +13456,7 @@
       <c r="K270" s="9"/>
       <c r="L270" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L269+1)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M270" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M269+1, 0)</f>
@@ -13502,7 +13502,7 @@
       <c r="K271" s="9"/>
       <c r="L271" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L270+1)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M271" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M270+1, 0)</f>
@@ -13548,7 +13548,7 @@
       <c r="K272" s="9"/>
       <c r="L272" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L271+1)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M272" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M271+1, 0)</f>
@@ -13594,7 +13594,7 @@
       <c r="K273" s="9"/>
       <c r="L273" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L272+1)</f>
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M273" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M272+1, 0)</f>
@@ -13640,7 +13640,7 @@
       <c r="K274" s="9"/>
       <c r="L274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L273+1)</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M273+1, 0)</f>
@@ -13686,7 +13686,7 @@
       <c r="K275" s="9"/>
       <c r="L275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L274+1)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M274+1, 0)</f>
@@ -13732,7 +13732,7 @@
       <c r="K276" s="9"/>
       <c r="L276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L275+1)</f>
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M275+1, 0)</f>
@@ -13778,7 +13778,7 @@
       <c r="K277" s="9"/>
       <c r="L277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L276+1)</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M276+1, 0)</f>
@@ -13824,7 +13824,7 @@
       <c r="K278" s="9"/>
       <c r="L278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L277+1)</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M277+1, 0)</f>
@@ -13870,7 +13870,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L278+1)</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M278+1, 0)</f>
@@ -13916,7 +13916,7 @@
       <c r="K280" s="9"/>
       <c r="L280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L279+1)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M279+1, 0)</f>
@@ -13962,7 +13962,7 @@
       <c r="K281" s="9"/>
       <c r="L281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L280+1)</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M280+1, 0)</f>
@@ -14008,7 +14008,7 @@
       <c r="K282" s="9"/>
       <c r="L282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L281+1)</f>
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M281+1, 0)</f>
@@ -14054,7 +14054,7 @@
       <c r="K283" s="9"/>
       <c r="L283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L282+1)</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M282+1, 0)</f>
@@ -14100,7 +14100,7 @@
       <c r="K284" s="9"/>
       <c r="L284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L283+1)</f>
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M283+1, 0)</f>
@@ -14146,7 +14146,7 @@
       <c r="K285" s="9"/>
       <c r="L285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L284+1)</f>
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M284+1, 0)</f>
@@ -14192,7 +14192,7 @@
       <c r="K286" s="9"/>
       <c r="L286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L285+1)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M285+1, 0)</f>
@@ -14238,7 +14238,7 @@
       <c r="K287" s="9"/>
       <c r="L287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L286+1)</f>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M286+1, 0)</f>
@@ -14284,7 +14284,7 @@
       <c r="K288" s="9"/>
       <c r="L288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L287+1)</f>
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M287+1, 0)</f>
@@ -14330,7 +14330,7 @@
       <c r="K289" s="9"/>
       <c r="L289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L288+1)</f>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M288+1, 0)</f>
@@ -14376,7 +14376,7 @@
       <c r="K290" s="9"/>
       <c r="L290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L289+1)</f>
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M289+1, 0)</f>
@@ -14422,7 +14422,7 @@
       <c r="K291" s="9"/>
       <c r="L291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L290+1)</f>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M290+1, 0)</f>
@@ -14468,7 +14468,7 @@
       <c r="K292" s="9"/>
       <c r="L292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L291+1)</f>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M291+1, 0)</f>
@@ -14514,7 +14514,7 @@
       <c r="K293" s="9"/>
       <c r="L293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L292+1)</f>
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M292+1, 0)</f>
@@ -14560,7 +14560,7 @@
       <c r="K294" s="9"/>
       <c r="L294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L293+1)</f>
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M293+1, 0)</f>
@@ -14606,7 +14606,7 @@
       <c r="K295" s="9"/>
       <c r="L295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L294+1)</f>
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M294+1, 0)</f>
@@ -14652,7 +14652,7 @@
       <c r="K296" s="9"/>
       <c r="L296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L295+1)</f>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M295+1, 0)</f>
@@ -14698,7 +14698,7 @@
       <c r="K297" s="9"/>
       <c r="L297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L296+1)</f>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M296+1, 0)</f>
@@ -14744,7 +14744,7 @@
       <c r="K298" s="9"/>
       <c r="L298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L297+1)</f>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M297+1, 0)</f>
@@ -14790,7 +14790,7 @@
       <c r="K299" s="9"/>
       <c r="L299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L298+1)</f>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M298+1, 0)</f>
@@ -14836,7 +14836,7 @@
       <c r="K300" s="9"/>
       <c r="L300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L299+1)</f>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M299+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587F1800-0B63-F841-A18D-C49D97F26F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BAE1C3-5726-FD4E-A4DD-BBB0C5DFF185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -912,7 +912,7 @@
   <dimension ref="A1:R319"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="H261" sqref="H261"/>
+      <selection activeCell="I264" sqref="I264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13169,10 +13169,10 @@
         <v>0</v>
       </c>
       <c r="H264" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" s="5">
         <v>0</v>
@@ -13180,11 +13180,11 @@
       <c r="K264" s="9"/>
       <c r="L264" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L263+1)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M264" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M263+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N264" s="5"/>
     </row>
@@ -13226,7 +13226,7 @@
       <c r="K265" s="9"/>
       <c r="L265" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L264+1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M265" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M264+1, 0)</f>
@@ -13272,7 +13272,7 @@
       <c r="K266" s="9"/>
       <c r="L266" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L265+1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M266" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M265+1, 0)</f>
@@ -13318,7 +13318,7 @@
       <c r="K267" s="9"/>
       <c r="L267" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L266+1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M267" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M266+1, 0)</f>
@@ -13364,7 +13364,7 @@
       <c r="K268" s="9"/>
       <c r="L268" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L267+1)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M268" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M267+1, 0)</f>
@@ -13410,7 +13410,7 @@
       <c r="K269" s="9"/>
       <c r="L269" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L268+1)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M269" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M268+1, 0)</f>
@@ -13456,7 +13456,7 @@
       <c r="K270" s="9"/>
       <c r="L270" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L269+1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M270" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M269+1, 0)</f>
@@ -13502,7 +13502,7 @@
       <c r="K271" s="9"/>
       <c r="L271" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L270+1)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M271" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M270+1, 0)</f>
@@ -13548,7 +13548,7 @@
       <c r="K272" s="9"/>
       <c r="L272" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L271+1)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M272" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M271+1, 0)</f>
@@ -13594,7 +13594,7 @@
       <c r="K273" s="9"/>
       <c r="L273" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L272+1)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M273" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M272+1, 0)</f>
@@ -13640,7 +13640,7 @@
       <c r="K274" s="9"/>
       <c r="L274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L273+1)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M273+1, 0)</f>
@@ -13686,7 +13686,7 @@
       <c r="K275" s="9"/>
       <c r="L275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L274+1)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M274+1, 0)</f>
@@ -13732,7 +13732,7 @@
       <c r="K276" s="9"/>
       <c r="L276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L275+1)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M275+1, 0)</f>
@@ -13778,7 +13778,7 @@
       <c r="K277" s="9"/>
       <c r="L277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L276+1)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M276+1, 0)</f>
@@ -13824,7 +13824,7 @@
       <c r="K278" s="9"/>
       <c r="L278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L277+1)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M277+1, 0)</f>
@@ -13870,7 +13870,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L278+1)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M278+1, 0)</f>
@@ -13916,7 +13916,7 @@
       <c r="K280" s="9"/>
       <c r="L280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L279+1)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M279+1, 0)</f>
@@ -13962,7 +13962,7 @@
       <c r="K281" s="9"/>
       <c r="L281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L280+1)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M280+1, 0)</f>
@@ -14008,7 +14008,7 @@
       <c r="K282" s="9"/>
       <c r="L282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L281+1)</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M281+1, 0)</f>
@@ -14054,7 +14054,7 @@
       <c r="K283" s="9"/>
       <c r="L283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L282+1)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M282+1, 0)</f>
@@ -14100,7 +14100,7 @@
       <c r="K284" s="9"/>
       <c r="L284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L283+1)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M283+1, 0)</f>
@@ -14146,7 +14146,7 @@
       <c r="K285" s="9"/>
       <c r="L285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L284+1)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M284+1, 0)</f>
@@ -14192,7 +14192,7 @@
       <c r="K286" s="9"/>
       <c r="L286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L285+1)</f>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M285+1, 0)</f>
@@ -14238,7 +14238,7 @@
       <c r="K287" s="9"/>
       <c r="L287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L286+1)</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M286+1, 0)</f>
@@ -14284,7 +14284,7 @@
       <c r="K288" s="9"/>
       <c r="L288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L287+1)</f>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M287+1, 0)</f>
@@ -14330,7 +14330,7 @@
       <c r="K289" s="9"/>
       <c r="L289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L288+1)</f>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M288+1, 0)</f>
@@ -14376,7 +14376,7 @@
       <c r="K290" s="9"/>
       <c r="L290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L289+1)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M289+1, 0)</f>
@@ -14422,7 +14422,7 @@
       <c r="K291" s="9"/>
       <c r="L291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L290+1)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M290+1, 0)</f>
@@ -14468,7 +14468,7 @@
       <c r="K292" s="9"/>
       <c r="L292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L291+1)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M291+1, 0)</f>
@@ -14514,7 +14514,7 @@
       <c r="K293" s="9"/>
       <c r="L293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L292+1)</f>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M292+1, 0)</f>
@@ -14560,7 +14560,7 @@
       <c r="K294" s="9"/>
       <c r="L294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L293+1)</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M293+1, 0)</f>
@@ -14606,7 +14606,7 @@
       <c r="K295" s="9"/>
       <c r="L295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L294+1)</f>
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M294+1, 0)</f>
@@ -14652,7 +14652,7 @@
       <c r="K296" s="9"/>
       <c r="L296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L295+1)</f>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M295+1, 0)</f>
@@ -14698,7 +14698,7 @@
       <c r="K297" s="9"/>
       <c r="L297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L296+1)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M296+1, 0)</f>
@@ -14744,7 +14744,7 @@
       <c r="K298" s="9"/>
       <c r="L298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L297+1)</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M297+1, 0)</f>
@@ -14790,7 +14790,7 @@
       <c r="K299" s="9"/>
       <c r="L299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L298+1)</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M298+1, 0)</f>
@@ -14836,7 +14836,7 @@
       <c r="K300" s="9"/>
       <c r="L300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L299+1)</f>
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M299+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BAE1C3-5726-FD4E-A4DD-BBB0C5DFF185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E128269-B2A6-7B47-8DF6-CCB113FB4D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="I264" sqref="I264"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="I274" sqref="I274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
       <c r="I274" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J274" s="5">
         <v>0</v>
@@ -13640,11 +13640,11 @@
       <c r="K274" s="9"/>
       <c r="L274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L273+1)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M274" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M273+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N274" s="5"/>
     </row>
@@ -13686,7 +13686,7 @@
       <c r="K275" s="9"/>
       <c r="L275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L274+1)</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M275" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M274+1, 0)</f>
@@ -13732,7 +13732,7 @@
       <c r="K276" s="9"/>
       <c r="L276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L275+1)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M276" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M275+1, 0)</f>
@@ -13778,7 +13778,7 @@
       <c r="K277" s="9"/>
       <c r="L277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L276+1)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M277" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M276+1, 0)</f>
@@ -13824,7 +13824,7 @@
       <c r="K278" s="9"/>
       <c r="L278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L277+1)</f>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M278" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M277+1, 0)</f>
@@ -13870,7 +13870,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L278+1)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M279" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M278+1, 0)</f>
@@ -13916,7 +13916,7 @@
       <c r="K280" s="9"/>
       <c r="L280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L279+1)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="M280" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M279+1, 0)</f>
@@ -13962,7 +13962,7 @@
       <c r="K281" s="9"/>
       <c r="L281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L280+1)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M281" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M280+1, 0)</f>
@@ -14008,7 +14008,7 @@
       <c r="K282" s="9"/>
       <c r="L282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L281+1)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M282" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M281+1, 0)</f>
@@ -14054,7 +14054,7 @@
       <c r="K283" s="9"/>
       <c r="L283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L282+1)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M283" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M282+1, 0)</f>
@@ -14100,7 +14100,7 @@
       <c r="K284" s="9"/>
       <c r="L284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L283+1)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M284" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M283+1, 0)</f>
@@ -14146,7 +14146,7 @@
       <c r="K285" s="9"/>
       <c r="L285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L284+1)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M285" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M284+1, 0)</f>
@@ -14192,7 +14192,7 @@
       <c r="K286" s="9"/>
       <c r="L286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L285+1)</f>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="M286" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M285+1, 0)</f>
@@ -14238,7 +14238,7 @@
       <c r="K287" s="9"/>
       <c r="L287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L286+1)</f>
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M287" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M286+1, 0)</f>
@@ -14284,7 +14284,7 @@
       <c r="K288" s="9"/>
       <c r="L288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L287+1)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="M288" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M287+1, 0)</f>
@@ -14330,7 +14330,7 @@
       <c r="K289" s="9"/>
       <c r="L289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L288+1)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M289" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M288+1, 0)</f>
@@ -14376,7 +14376,7 @@
       <c r="K290" s="9"/>
       <c r="L290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L289+1)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M289+1, 0)</f>
@@ -14422,7 +14422,7 @@
       <c r="K291" s="9"/>
       <c r="L291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L290+1)</f>
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M290+1, 0)</f>
@@ -14468,7 +14468,7 @@
       <c r="K292" s="9"/>
       <c r="L292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L291+1)</f>
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M291+1, 0)</f>
@@ -14514,7 +14514,7 @@
       <c r="K293" s="9"/>
       <c r="L293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L292+1)</f>
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M292+1, 0)</f>
@@ -14560,7 +14560,7 @@
       <c r="K294" s="9"/>
       <c r="L294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L293+1)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M293+1, 0)</f>
@@ -14606,7 +14606,7 @@
       <c r="K295" s="9"/>
       <c r="L295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L294+1)</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M294+1, 0)</f>
@@ -14652,7 +14652,7 @@
       <c r="K296" s="9"/>
       <c r="L296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L295+1)</f>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M295+1, 0)</f>
@@ -14698,7 +14698,7 @@
       <c r="K297" s="9"/>
       <c r="L297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L296+1)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M296+1, 0)</f>
@@ -14744,7 +14744,7 @@
       <c r="K298" s="9"/>
       <c r="L298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L297+1)</f>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M297+1, 0)</f>
@@ -14790,7 +14790,7 @@
       <c r="K299" s="9"/>
       <c r="L299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L298+1)</f>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M298+1, 0)</f>
@@ -14836,7 +14836,7 @@
       <c r="K300" s="9"/>
       <c r="L300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L299+1)</f>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M299+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E128269-B2A6-7B47-8DF6-CCB113FB4D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B7397E-510B-1145-85C2-3AD76433DD7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="I274" sqref="I274"/>
+    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="H292" sqref="H292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14365,10 +14365,10 @@
         <v>0</v>
       </c>
       <c r="H290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I290" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J290" s="5">
         <v>0</v>
@@ -14376,11 +14376,11 @@
       <c r="K290" s="9"/>
       <c r="L290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L289+1)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M290" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M289+1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N290" s="5"/>
     </row>
@@ -14411,10 +14411,10 @@
         <v>0</v>
       </c>
       <c r="H291" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J291" s="5">
         <v>0</v>
@@ -14422,11 +14422,11 @@
       <c r="K291" s="9"/>
       <c r="L291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L290+1)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M291" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M290+1, 0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N291" s="5"/>
     </row>
@@ -14457,10 +14457,10 @@
         <v>0</v>
       </c>
       <c r="H292" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I292" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" s="5">
         <v>0</v>
@@ -14468,11 +14468,11 @@
       <c r="K292" s="9"/>
       <c r="L292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L291+1)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M292" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M291+1, 0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N292" s="5"/>
     </row>
@@ -14514,7 +14514,7 @@
       <c r="K293" s="9"/>
       <c r="L293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L292+1)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M293" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M292+1, 0)</f>
@@ -14560,7 +14560,7 @@
       <c r="K294" s="9"/>
       <c r="L294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L293+1)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="M294" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M293+1, 0)</f>
@@ -14606,7 +14606,7 @@
       <c r="K295" s="9"/>
       <c r="L295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L294+1)</f>
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="M295" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M294+1, 0)</f>
@@ -14652,7 +14652,7 @@
       <c r="K296" s="9"/>
       <c r="L296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L295+1)</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M296" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M295+1, 0)</f>
@@ -14698,7 +14698,7 @@
       <c r="K297" s="9"/>
       <c r="L297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L296+1)</f>
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="M297" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M296+1, 0)</f>
@@ -14744,7 +14744,7 @@
       <c r="K298" s="9"/>
       <c r="L298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L297+1)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="M298" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M297+1, 0)</f>
@@ -14790,7 +14790,7 @@
       <c r="K299" s="9"/>
       <c r="L299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L298+1)</f>
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="M299" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M298+1, 0)</f>
@@ -14836,7 +14836,7 @@
       <c r="K300" s="9"/>
       <c r="L300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L299+1)</f>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M300" s="10">
         <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M299+1, 0)</f>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gzhennaxia/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E128269-B2A6-7B47-8DF6-CCB113FB4D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D0759B-78FA-A04B-AD7C-7309504DE59D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -19,6 +19,12 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -911,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="I274" sqref="I274"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="F284" sqref="F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14083,7 +14089,7 @@
         <v>44163</v>
       </c>
       <c r="F284" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G284" s="5">
         <v>0</v>

--- a/source/excel/Abstinence.xlsx
+++ b/source/excel/Abstinence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/libo/Documents/GitHub/Gzhennaxia.github.io/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B7397E-510B-1145-85C2-3AD76433DD7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED60392F-5735-0642-8190-13D5D7262180}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{7AD4885A-4EC6-B947-B870-264BF5DAC568}"/>
   </bookViews>
@@ -105,10 +105,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -179,6 +178,7 @@
       <sz val="12"/>
       <color rgb="FF555555"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -243,15 +243,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -911,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB9BA94-3697-444E-A1CA-5AFDE3C5B3F6}">
   <dimension ref="A1:R319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="H292" sqref="H292"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="I311" sqref="I311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -932,55 +923,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16" customHeight="1">
-      <c r="A1" s="16" t="str">
+      <c r="A1" s="13" t="str">
         <f>"总分: "&amp;SUM(records[得分])</f>
         <v>总分: -20.933</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:18" ht="23" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:18" ht="23" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:18" ht="18">
       <c r="A4" s="6" t="s">
@@ -14847,534 +14838,789 @@
     <row r="301" spans="1:14">
       <c r="A301" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B301" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C301" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D301" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E301" s="12"/>
-      <c r="F301" s="12"/>
-      <c r="G301" s="5"/>
-      <c r="H301" s="13"/>
-      <c r="I301" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J301" s="14"/>
-      <c r="K301" s="15"/>
-      <c r="L301" s="9"/>
-      <c r="M301" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D301" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 51 周</v>
+      </c>
+      <c r="E301" s="4">
+        <v>44180</v>
+      </c>
+      <c r="F301" s="5">
+        <v>0</v>
+      </c>
+      <c r="G301" s="5">
+        <v>0</v>
+      </c>
+      <c r="H301" s="5">
+        <v>1</v>
+      </c>
+      <c r="I301" s="5">
+        <v>1</v>
+      </c>
+      <c r="J301" s="5">
+        <v>0</v>
+      </c>
+      <c r="K301" s="9"/>
+      <c r="L301" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L300+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M301" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M300+1, 0)</f>
+        <v>1</v>
+      </c>
       <c r="N301" s="11"/>
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B302" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C302" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D302" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E302" s="12"/>
-      <c r="F302" s="12"/>
-      <c r="G302" s="5"/>
-      <c r="H302" s="13"/>
-      <c r="I302" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J302" s="14"/>
-      <c r="K302" s="15"/>
-      <c r="L302" s="9"/>
-      <c r="M302" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D302" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 51 周</v>
+      </c>
+      <c r="E302" s="4">
+        <v>44181</v>
+      </c>
+      <c r="F302" s="5">
+        <v>0</v>
+      </c>
+      <c r="G302" s="5">
+        <v>0</v>
+      </c>
+      <c r="H302" s="5">
+        <v>0</v>
+      </c>
+      <c r="I302" s="5">
+        <v>0</v>
+      </c>
+      <c r="J302" s="5">
+        <v>0</v>
+      </c>
+      <c r="K302" s="9"/>
+      <c r="L302" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L301+1)</f>
+        <v>1</v>
+      </c>
+      <c r="M302" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M301+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N302" s="11"/>
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B303" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C303" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D303" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E303" s="12"/>
-      <c r="F303" s="12"/>
-      <c r="G303" s="5"/>
-      <c r="H303" s="13"/>
-      <c r="I303" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J303" s="14"/>
-      <c r="K303" s="15"/>
-      <c r="L303" s="9"/>
-      <c r="M303" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D303" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 51 周</v>
+      </c>
+      <c r="E303" s="4">
+        <v>44182</v>
+      </c>
+      <c r="F303" s="5">
+        <v>0</v>
+      </c>
+      <c r="G303" s="5">
+        <v>0</v>
+      </c>
+      <c r="H303" s="5">
+        <v>0</v>
+      </c>
+      <c r="I303" s="5">
+        <v>0</v>
+      </c>
+      <c r="J303" s="5">
+        <v>0</v>
+      </c>
+      <c r="K303" s="9"/>
+      <c r="L303" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L302+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M303" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M302+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N303" s="11"/>
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B304" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C304" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D304" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E304" s="12"/>
-      <c r="F304" s="12"/>
-      <c r="G304" s="5"/>
-      <c r="H304" s="13"/>
-      <c r="I304" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J304" s="14"/>
-      <c r="K304" s="15"/>
-      <c r="L304" s="9"/>
-      <c r="M304" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D304" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 51 周</v>
+      </c>
+      <c r="E304" s="4">
+        <v>44183</v>
+      </c>
+      <c r="F304" s="5">
+        <v>0</v>
+      </c>
+      <c r="G304" s="5">
+        <v>0</v>
+      </c>
+      <c r="H304" s="5">
+        <v>0</v>
+      </c>
+      <c r="I304" s="5">
+        <v>0</v>
+      </c>
+      <c r="J304" s="5">
+        <v>0</v>
+      </c>
+      <c r="K304" s="9"/>
+      <c r="L304" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L303+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M304" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M303+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N304" s="11"/>
     </row>
     <row r="305" spans="1:14">
       <c r="A305" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B305" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C305" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D305" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E305" s="12"/>
-      <c r="F305" s="12"/>
-      <c r="G305" s="5"/>
-      <c r="H305" s="13"/>
-      <c r="I305" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J305" s="14"/>
-      <c r="K305" s="15"/>
-      <c r="L305" s="9"/>
-      <c r="M305" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D305" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 51 周</v>
+      </c>
+      <c r="E305" s="4">
+        <v>44184</v>
+      </c>
+      <c r="F305" s="5">
+        <v>0</v>
+      </c>
+      <c r="G305" s="5">
+        <v>0</v>
+      </c>
+      <c r="H305" s="5">
+        <v>0</v>
+      </c>
+      <c r="I305" s="5">
+        <v>0</v>
+      </c>
+      <c r="J305" s="5">
+        <v>0</v>
+      </c>
+      <c r="K305" s="9"/>
+      <c r="L305" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L304+1)</f>
+        <v>4</v>
+      </c>
+      <c r="M305" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M304+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N305" s="11"/>
     </row>
     <row r="306" spans="1:14">
       <c r="A306" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B306" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C306" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D306" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E306" s="12"/>
-      <c r="F306" s="12"/>
-      <c r="G306" s="5"/>
-      <c r="H306" s="13"/>
-      <c r="I306" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J306" s="14"/>
-      <c r="K306" s="15"/>
-      <c r="L306" s="9"/>
-      <c r="M306" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D306" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 51 周</v>
+      </c>
+      <c r="E306" s="4">
+        <v>44185</v>
+      </c>
+      <c r="F306" s="5">
+        <v>0</v>
+      </c>
+      <c r="G306" s="5">
+        <v>0</v>
+      </c>
+      <c r="H306" s="5">
+        <v>0</v>
+      </c>
+      <c r="I306" s="5">
+        <v>0</v>
+      </c>
+      <c r="J306" s="5">
+        <v>0</v>
+      </c>
+      <c r="K306" s="9"/>
+      <c r="L306" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L305+1)</f>
+        <v>5</v>
+      </c>
+      <c r="M306" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M305+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N306" s="11"/>
     </row>
     <row r="307" spans="1:14">
       <c r="A307" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B307" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C307" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D307" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E307" s="12"/>
-      <c r="F307" s="12"/>
-      <c r="G307" s="5"/>
-      <c r="H307" s="13"/>
-      <c r="I307" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J307" s="14"/>
-      <c r="K307" s="15"/>
-      <c r="L307" s="9"/>
-      <c r="M307" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D307" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 52 周</v>
+      </c>
+      <c r="E307" s="4">
+        <v>44186</v>
+      </c>
+      <c r="F307" s="5">
+        <v>0</v>
+      </c>
+      <c r="G307" s="5">
+        <v>0</v>
+      </c>
+      <c r="H307" s="5">
+        <v>1</v>
+      </c>
+      <c r="I307" s="5">
+        <v>1</v>
+      </c>
+      <c r="J307" s="5">
+        <v>0</v>
+      </c>
+      <c r="K307" s="9"/>
+      <c r="L307" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L306+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M307" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M306+1, 0)</f>
+        <v>1</v>
+      </c>
       <c r="N307" s="11"/>
     </row>
     <row r="308" spans="1:14">
       <c r="A308" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B308" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C308" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D308" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E308" s="12"/>
-      <c r="F308" s="12"/>
-      <c r="G308" s="5"/>
-      <c r="H308" s="13"/>
-      <c r="I308" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J308" s="14"/>
-      <c r="K308" s="15"/>
-      <c r="L308" s="9"/>
-      <c r="M308" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D308" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 52 周</v>
+      </c>
+      <c r="E308" s="4">
+        <v>44187</v>
+      </c>
+      <c r="F308" s="5">
+        <v>0</v>
+      </c>
+      <c r="G308" s="5">
+        <v>0</v>
+      </c>
+      <c r="H308" s="5">
+        <v>1</v>
+      </c>
+      <c r="I308" s="5">
+        <v>1</v>
+      </c>
+      <c r="J308" s="5">
+        <v>0</v>
+      </c>
+      <c r="K308" s="9"/>
+      <c r="L308" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L307+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M308" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M307+1, 0)</f>
+        <v>2</v>
+      </c>
       <c r="N308" s="11"/>
     </row>
     <row r="309" spans="1:14">
       <c r="A309" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B309" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C309" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D309" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E309" s="12"/>
-      <c r="F309" s="12"/>
-      <c r="G309" s="5"/>
-      <c r="H309" s="13"/>
-      <c r="I309" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J309" s="14"/>
-      <c r="K309" s="15"/>
-      <c r="L309" s="9"/>
-      <c r="M309" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D309" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 52 周</v>
+      </c>
+      <c r="E309" s="4">
+        <v>44188</v>
+      </c>
+      <c r="F309" s="5">
+        <v>0</v>
+      </c>
+      <c r="G309" s="5">
+        <v>0</v>
+      </c>
+      <c r="H309" s="5">
+        <v>0</v>
+      </c>
+      <c r="I309" s="5">
+        <v>0</v>
+      </c>
+      <c r="J309" s="5">
+        <v>0</v>
+      </c>
+      <c r="K309" s="9"/>
+      <c r="L309" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L308+1)</f>
+        <v>1</v>
+      </c>
+      <c r="M309" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M308+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N309" s="11"/>
     </row>
     <row r="310" spans="1:14">
       <c r="A310" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B310" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C310" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D310" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E310" s="12"/>
-      <c r="F310" s="12"/>
-      <c r="G310" s="5"/>
-      <c r="H310" s="13"/>
-      <c r="I310" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J310" s="14"/>
-      <c r="K310" s="15"/>
-      <c r="L310" s="9"/>
-      <c r="M310" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D310" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 52 周</v>
+      </c>
+      <c r="E310" s="4">
+        <v>44189</v>
+      </c>
+      <c r="F310" s="5">
+        <v>0</v>
+      </c>
+      <c r="G310" s="5">
+        <v>0</v>
+      </c>
+      <c r="H310" s="5">
+        <v>0</v>
+      </c>
+      <c r="I310" s="5">
+        <v>0</v>
+      </c>
+      <c r="J310" s="5">
+        <v>0</v>
+      </c>
+      <c r="K310" s="9"/>
+      <c r="L310" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L309+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M310" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M309+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N310" s="11"/>
     </row>
     <row r="311" spans="1:14">
       <c r="A311" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B311" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C311" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D311" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E311" s="12"/>
-      <c r="F311" s="12"/>
-      <c r="G311" s="5"/>
-      <c r="H311" s="13"/>
-      <c r="I311" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J311" s="14"/>
-      <c r="K311" s="15"/>
-      <c r="L311" s="9"/>
-      <c r="M311" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D311" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 52 周</v>
+      </c>
+      <c r="E311" s="4">
+        <v>44190</v>
+      </c>
+      <c r="F311" s="5">
+        <v>0</v>
+      </c>
+      <c r="G311" s="5">
+        <v>0</v>
+      </c>
+      <c r="H311" s="5">
+        <v>1</v>
+      </c>
+      <c r="I311" s="5">
+        <v>1</v>
+      </c>
+      <c r="J311" s="5">
+        <v>0</v>
+      </c>
+      <c r="K311" s="9"/>
+      <c r="L311" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L310+1)</f>
+        <v>0</v>
+      </c>
+      <c r="M311" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M310+1, 0)</f>
+        <v>1</v>
+      </c>
       <c r="N311" s="11"/>
     </row>
     <row r="312" spans="1:14">
       <c r="A312" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B312" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C312" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D312" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E312" s="12"/>
-      <c r="F312" s="12"/>
-      <c r="G312" s="5"/>
-      <c r="H312" s="13"/>
-      <c r="I312" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J312" s="14"/>
-      <c r="K312" s="15"/>
-      <c r="L312" s="9"/>
-      <c r="M312" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D312" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 52 周</v>
+      </c>
+      <c r="E312" s="4">
+        <v>44191</v>
+      </c>
+      <c r="F312" s="5">
+        <v>0</v>
+      </c>
+      <c r="G312" s="5">
+        <v>0</v>
+      </c>
+      <c r="H312" s="5">
+        <v>0</v>
+      </c>
+      <c r="I312" s="5">
+        <v>0</v>
+      </c>
+      <c r="J312" s="5">
+        <v>0</v>
+      </c>
+      <c r="K312" s="9"/>
+      <c r="L312" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L311+1)</f>
+        <v>1</v>
+      </c>
+      <c r="M312" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M311+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N312" s="11"/>
     </row>
     <row r="313" spans="1:14">
       <c r="A313" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B313" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C313" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D313" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E313" s="12"/>
-      <c r="F313" s="12"/>
-      <c r="G313" s="5"/>
-      <c r="H313" s="13"/>
-      <c r="I313" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J313" s="14"/>
-      <c r="K313" s="15"/>
-      <c r="L313" s="9"/>
-      <c r="M313" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D313" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 52 周</v>
+      </c>
+      <c r="E313" s="4">
+        <v>44192</v>
+      </c>
+      <c r="F313" s="5">
+        <v>0</v>
+      </c>
+      <c r="G313" s="5">
+        <v>0</v>
+      </c>
+      <c r="H313" s="5">
+        <v>0</v>
+      </c>
+      <c r="I313" s="5">
+        <v>0</v>
+      </c>
+      <c r="J313" s="5">
+        <v>0</v>
+      </c>
+      <c r="K313" s="9"/>
+      <c r="L313" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L312+1)</f>
+        <v>2</v>
+      </c>
+      <c r="M313" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M312+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N313" s="11"/>
     </row>
     <row r="314" spans="1:14">
       <c r="A314" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B314" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C314" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D314" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E314" s="12"/>
-      <c r="F314" s="12"/>
-      <c r="G314" s="5"/>
-      <c r="H314" s="13"/>
-      <c r="I314" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J314" s="14"/>
-      <c r="K314" s="15"/>
-      <c r="L314" s="9"/>
-      <c r="M314" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D314" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 53 周</v>
+      </c>
+      <c r="E314" s="4">
+        <v>44193</v>
+      </c>
+      <c r="F314" s="5">
+        <v>0</v>
+      </c>
+      <c r="G314" s="5">
+        <v>0</v>
+      </c>
+      <c r="H314" s="5">
+        <v>0</v>
+      </c>
+      <c r="I314" s="5">
+        <v>0</v>
+      </c>
+      <c r="J314" s="5">
+        <v>0</v>
+      </c>
+      <c r="K314" s="9"/>
+      <c r="L314" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L313+1)</f>
+        <v>3</v>
+      </c>
+      <c r="M314" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M313+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N314" s="11"/>
     </row>
     <row r="315" spans="1:14">
       <c r="A315" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B315" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C315" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D315" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E315" s="12"/>
-      <c r="F315" s="12"/>
-      <c r="G315" s="5"/>
-      <c r="H315" s="13"/>
-      <c r="I315" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J315" s="14"/>
-      <c r="K315" s="15"/>
-      <c r="L315" s="9"/>
-      <c r="M315" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D315" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 53 周</v>
+      </c>
+      <c r="E315" s="4">
+        <v>44194</v>
+      </c>
+      <c r="F315" s="5">
+        <v>0</v>
+      </c>
+      <c r="G315" s="5">
+        <v>0</v>
+      </c>
+      <c r="H315" s="5">
+        <v>0</v>
+      </c>
+      <c r="I315" s="5">
+        <v>0</v>
+      </c>
+      <c r="J315" s="5">
+        <v>0</v>
+      </c>
+      <c r="K315" s="9"/>
+      <c r="L315" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L314+1)</f>
+        <v>4</v>
+      </c>
+      <c r="M315" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M314+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N315" s="11"/>
     </row>
     <row r="316" spans="1:14">
       <c r="A316" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B316" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C316" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D316" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E316" s="12"/>
-      <c r="F316" s="12"/>
-      <c r="G316" s="5"/>
-      <c r="H316" s="13"/>
-      <c r="I316" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J316" s="14"/>
-      <c r="K316" s="15"/>
-      <c r="L316" s="9"/>
-      <c r="M316" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D316" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 53 周</v>
+      </c>
+      <c r="E316" s="4">
+        <v>44195</v>
+      </c>
+      <c r="F316" s="5">
+        <v>0</v>
+      </c>
+      <c r="G316" s="5">
+        <v>0</v>
+      </c>
+      <c r="H316" s="5">
+        <v>0</v>
+      </c>
+      <c r="I316" s="5">
+        <v>0</v>
+      </c>
+      <c r="J316" s="5">
+        <v>0</v>
+      </c>
+      <c r="K316" s="9"/>
+      <c r="L316" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L315+1)</f>
+        <v>5</v>
+      </c>
+      <c r="M316" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M315+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N316" s="11"/>
     </row>
     <row r="317" spans="1:14">
       <c r="A317" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2020 年</v>
       </c>
       <c r="B317" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
-        <v>第 1 季度</v>
+        <v>第 5 季度</v>
       </c>
       <c r="C317" s="12" t="str">
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
-        <v>1 月</v>
-      </c>
-      <c r="D317" s="12" t="str">
-        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
-        <v>第 1 周</v>
-      </c>
-      <c r="E317" s="12"/>
-      <c r="F317" s="12"/>
-      <c r="G317" s="5"/>
-      <c r="H317" s="13"/>
-      <c r="I317" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J317" s="14"/>
-      <c r="K317" s="15"/>
-      <c r="L317" s="9"/>
-      <c r="M317" s="9"/>
+        <v>12 月</v>
+      </c>
+      <c r="D317" s="4" t="str">
+        <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
+        <v>第 53 周</v>
+      </c>
+      <c r="E317" s="4">
+        <v>44196</v>
+      </c>
+      <c r="F317" s="5">
+        <v>0</v>
+      </c>
+      <c r="G317" s="5">
+        <v>0</v>
+      </c>
+      <c r="H317" s="5">
+        <v>0</v>
+      </c>
+      <c r="I317" s="5">
+        <v>0</v>
+      </c>
+      <c r="J317" s="5">
+        <v>0</v>
+      </c>
+      <c r="K317" s="9"/>
+      <c r="L317" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L316+1)</f>
+        <v>6</v>
+      </c>
+      <c r="M317" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M316+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N317" s="11"/>
     </row>
     <row r="318" spans="1:14">
       <c r="A318" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2021 年</v>
       </c>
       <c r="B318" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
@@ -15384,28 +15630,43 @@
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D318" s="12" t="str">
+      <c r="D318" s="4" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E318" s="12"/>
-      <c r="F318" s="12"/>
-      <c r="G318" s="5"/>
-      <c r="H318" s="13"/>
-      <c r="I318" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J318" s="14"/>
-      <c r="K318" s="15"/>
-      <c r="L318" s="9"/>
-      <c r="M318" s="9"/>
+      <c r="E318" s="4">
+        <v>44197</v>
+      </c>
+      <c r="F318" s="5">
+        <v>0</v>
+      </c>
+      <c r="G318" s="5">
+        <v>0</v>
+      </c>
+      <c r="H318" s="5">
+        <v>0</v>
+      </c>
+      <c r="I318" s="5">
+        <v>0</v>
+      </c>
+      <c r="J318" s="5">
+        <v>0</v>
+      </c>
+      <c r="K318" s="9"/>
+      <c r="L318" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L317+1)</f>
+        <v>7</v>
+      </c>
+      <c r="M318" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M317+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N318" s="11"/>
     </row>
     <row r="319" spans="1:14">
       <c r="A319" s="11" t="str">
         <f>YEAR(records[[#This Row],[日期]])&amp;" 年"</f>
-        <v>1900 年</v>
+        <v>2021 年</v>
       </c>
       <c r="B319" s="12" t="str">
         <f>"第 "&amp;INT(MONTH(records[[#This Row],[日期]])/3+1)&amp;" 季度"</f>
@@ -15415,22 +15676,37 @@
         <f>MONTH(records[[#This Row],[日期]])&amp;" 月"</f>
         <v>1 月</v>
       </c>
-      <c r="D319" s="12" t="str">
+      <c r="D319" s="4" t="str">
         <f>"第 "&amp;WEEKNUM(records[[#This Row],[日期]],2)&amp;" 周"</f>
         <v>第 1 周</v>
       </c>
-      <c r="E319" s="12"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="5"/>
-      <c r="H319" s="13"/>
-      <c r="I319" s="13">
-        <f>records[[#This Row],[Porn-Video]]-records[[#This Row],[Wet-Dream]]</f>
-        <v>0</v>
-      </c>
-      <c r="J319" s="14"/>
-      <c r="K319" s="15"/>
-      <c r="L319" s="9"/>
-      <c r="M319" s="9"/>
+      <c r="E319" s="4">
+        <v>44198</v>
+      </c>
+      <c r="F319" s="5">
+        <v>0</v>
+      </c>
+      <c r="G319" s="5">
+        <v>0</v>
+      </c>
+      <c r="H319" s="5">
+        <v>0</v>
+      </c>
+      <c r="I319" s="5">
+        <v>0</v>
+      </c>
+      <c r="J319" s="5">
+        <v>0</v>
+      </c>
+      <c r="K319" s="9"/>
+      <c r="L319" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), 0, L318+1)</f>
+        <v>8</v>
+      </c>
+      <c r="M319" s="10">
+        <f>IF(((records[Porn-Video]+records[Masturbation]+records[Sexual-Intercourse])&gt;0), M318+1, 0)</f>
+        <v>0</v>
+      </c>
       <c r="N319" s="11"/>
     </row>
   </sheetData>
